--- a/Experiments/MultiplyTemperature/Solves.xlsx
+++ b/Experiments/MultiplyTemperature/Solves.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\Diplom-work\Эксперименты\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\Diplom-work\Experiments\MultiplyTemperature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50DA2FE3-50D6-45F6-8B52-FD037D495FE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056133BD-CD3A-4DDE-91EA-3092D1DBB44A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B4D95E1D-7DF1-45F9-84A6-56C0FCEE3758}"/>
   </bookViews>
@@ -811,7 +811,7 @@
                   <c:v>0.12304530681084216</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.14917583903957765</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -2119,8 +2119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3038D3D-534C-490E-A986-71F6B2B3A4C4}">
   <dimension ref="A1:Q144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" topLeftCell="F7" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2851,24 +2851,28 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12"/>
-      <c r="C12" s="16"/>
+      <c r="B12">
+        <v>32.1828</v>
+      </c>
+      <c r="C12" s="16">
+        <v>45.037700000000001</v>
+      </c>
       <c r="D12" s="10">
         <f>Таблица1[[#This Row],[m0
 смесь    
 стакан]]-Таблица1[[#This Row],[m
 стакан]]</f>
-        <v>0</v>
+        <v>12.854900000000001</v>
       </c>
       <c r="E12" s="4">
         <f>Таблица1[[#This Row],[m0
 смесь]]*(1-P11)</f>
-        <v>0</v>
+        <v>11.273164885477305</v>
       </c>
       <c r="F12" s="11">
         <f>Таблица1[[#This Row],[m0
 смесь]]*P11</f>
-        <v>0</v>
+        <v>1.581735114522695</v>
       </c>
       <c r="G12" s="8">
         <f t="shared" si="1"/>
@@ -2880,21 +2884,23 @@
 спирт ]]-Таблица1[[#This Row],[m0
 спирт]])/(1-Таблица1[[#This Row],[w%1 т
 спирт ]])</f>
-        <v>0</v>
+        <v>0.40764692409094699</v>
       </c>
       <c r="I12" s="13">
         <f>Таблица1[[#This Row],[m+ т
 спирт]]/Таблица2[ro 
 спирт]*1000</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="16"/>
+        <v>474.008051268543</v>
+      </c>
+      <c r="J12" s="16">
+        <v>45.432499999999997</v>
+      </c>
       <c r="K12" s="10">
         <f>Таблица1[[#This Row],[m1 
 смесь
 стакан]]-Таблица1[[#This Row],[m
 стакан]]</f>
-        <v>0</v>
+        <v>13.249699999999997</v>
       </c>
       <c r="L12" s="12">
         <f>Таблица1[[#This Row],[m1 
@@ -2902,20 +2908,20 @@
 стакан]]-Таблица1[[#This Row],[m0
 смесь    
 стакан]]</f>
-        <v>0</v>
+        <v>0.39479999999999649</v>
       </c>
       <c r="M12" s="31">
         <f>Таблица1[[#This Row],[m1 
 смесь
 стакан]]</f>
-        <v>0</v>
+        <v>45.432499999999997</v>
       </c>
       <c r="N12" s="12">
         <f>Таблица1[[#This Row],[m2
 смесь
 стакан]]-Таблица1[[#This Row],[m
 стакан]]</f>
-        <v>0</v>
+        <v>13.249699999999997</v>
       </c>
       <c r="O12" s="12">
         <f>Таблица1[[#This Row],[m2
@@ -2925,12 +2931,12 @@
 стакан]]</f>
         <v>0</v>
       </c>
-      <c r="P12" s="20" t="e">
+      <c r="P12" s="20">
         <f>(Таблица1[[#This Row],[m0
 спирт]]+Таблица1[[#This Row],[m+
 спирта]])/Таблица1[[#This Row],[m2
 смеси]]</f>
-        <v>#DIV/0!</v>
+        <v>0.14917583903957765</v>
       </c>
       <c r="Q12" s="30"/>
     </row>
@@ -2948,33 +2954,33 @@
 стакан]]</f>
         <v>0</v>
       </c>
-      <c r="E13" s="4" t="e">
+      <c r="E13" s="4">
         <f>Таблица1[[#This Row],[m0
 смесь]]*(1-P12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F13" s="11" t="e">
+        <v>0</v>
+      </c>
+      <c r="F13" s="11">
         <f>Таблица1[[#This Row],[m0
 смесь]]*P12</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="G13" s="8">
         <f t="shared" si="1"/>
         <v>0.17499999999999999</v>
       </c>
-      <c r="H13" s="12" t="e">
+      <c r="H13" s="12">
         <f>(Таблица1[[#This Row],[m0
 смесь]]*Таблица1[[#This Row],[w%1 т
 спирт ]]-Таблица1[[#This Row],[m0
 спирт]])/(1-Таблица1[[#This Row],[w%1 т
 спирт ]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I13" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="I13" s="13">
         <f>Таблица1[[#This Row],[m+ т
 спирт]]/Таблица2[ro 
 спирт]*1000</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="J13" s="17"/>
       <c r="K13" s="10">
@@ -3495,9 +3501,9 @@
         <f>Эксперимент!A12</f>
         <v>8</v>
       </c>
-      <c r="B11" s="25" t="e">
+      <c r="B11" s="25">
         <f>Эксперимент!P12</f>
-        <v>#DIV/0!</v>
+        <v>0.14917583903957765</v>
       </c>
       <c r="C11" s="23" t="e">
         <f>Эксперимент!#REF!</f>

--- a/Experiments/MultiplyTemperature/Solves.xlsx
+++ b/Experiments/MultiplyTemperature/Solves.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\Diplom-work\Experiments\MultiplyTemperature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056133BD-CD3A-4DDE-91EA-3092D1DBB44A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A53A4C-8718-4971-8716-40E6D63BFBAF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B4D95E1D-7DF1-45F9-84A6-56C0FCEE3758}"/>
   </bookViews>
@@ -308,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -388,6 +388,12 @@
     <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -814,7 +820,7 @@
                   <c:v>0.14917583903957765</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.17491828063571971</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1647,8 +1653,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{23D3B64E-5883-4DDC-BE47-CAE203CDCD51}" name="Таблица1" displayName="Таблица1" ref="A4:Q13" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
-  <autoFilter ref="A4:Q13" xr:uid="{B8DF02FA-3140-484C-B272-AB560FB12BBD}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{23D3B64E-5883-4DDC-BE47-CAE203CDCD51}" name="Таблица1" displayName="Таблица1" ref="A4:Q14" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+  <autoFilter ref="A4:Q14" xr:uid="{B8DF02FA-3140-484C-B272-AB560FB12BBD}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2119,8 +2125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3038D3D-534C-490E-A986-71F6B2B3A4C4}">
   <dimension ref="A1:Q144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="F4" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2945,24 +2951,28 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13"/>
-      <c r="C13" s="17"/>
+      <c r="B13">
+        <v>32.1828</v>
+      </c>
+      <c r="C13" s="17">
+        <v>44.400799999999997</v>
+      </c>
       <c r="D13" s="10">
         <f>Таблица1[[#This Row],[m0
 смесь    
 стакан]]-Таблица1[[#This Row],[m
 стакан]]</f>
-        <v>0</v>
+        <v>12.217999999999996</v>
       </c>
       <c r="E13" s="4">
         <f>Таблица1[[#This Row],[m0
 смесь]]*(1-P12)</f>
-        <v>0</v>
+        <v>10.395369598614437</v>
       </c>
       <c r="F13" s="11">
         <f>Таблица1[[#This Row],[m0
 смесь]]*P12</f>
-        <v>0</v>
+        <v>1.8226304013855592</v>
       </c>
       <c r="G13" s="8">
         <f t="shared" si="1"/>
@@ -2974,21 +2984,23 @@
 спирт ]]-Таблица1[[#This Row],[m0
 спирт]])/(1-Таблица1[[#This Row],[w%1 т
 спирт ]])</f>
-        <v>0</v>
+        <v>0.38244799832053322</v>
       </c>
       <c r="I13" s="13">
         <f>Таблица1[[#This Row],[m+ т
 спирт]]/Таблица2[ro 
 спирт]*1000</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="17"/>
+        <v>444.70697479131769</v>
+      </c>
+      <c r="J13" s="17">
+        <v>44.781999999999996</v>
+      </c>
       <c r="K13" s="10">
         <f>Таблица1[[#This Row],[m1 
 смесь
 стакан]]-Таблица1[[#This Row],[m
 стакан]]</f>
-        <v>0</v>
+        <v>12.599199999999996</v>
       </c>
       <c r="L13" s="12">
         <f>Таблица1[[#This Row],[m1 
@@ -2996,20 +3008,20 @@
 стакан]]-Таблица1[[#This Row],[m0
 смесь    
 стакан]]</f>
-        <v>0</v>
+        <v>0.38119999999999976</v>
       </c>
       <c r="M13" s="31">
         <f>Таблица1[[#This Row],[m1 
 смесь
 стакан]]</f>
-        <v>0</v>
+        <v>44.781999999999996</v>
       </c>
       <c r="N13" s="12">
         <f>Таблица1[[#This Row],[m2
 смесь
 стакан]]-Таблица1[[#This Row],[m
 стакан]]</f>
-        <v>0</v>
+        <v>12.599199999999996</v>
       </c>
       <c r="O13" s="12">
         <f>Таблица1[[#This Row],[m2
@@ -3019,16 +3031,102 @@
 стакан]]</f>
         <v>0</v>
       </c>
-      <c r="P13" s="21" t="e">
+      <c r="P13" s="21">
+        <f>(Таблица1[[#This Row],[m0
+спирт]]+Таблица1[[#This Row],[m+
+спирта]])/Таблица1[[#This Row],[m2
+смеси]]</f>
+        <v>0.17491828063571971</v>
+      </c>
+      <c r="Q13" s="30"/>
+    </row>
+    <row r="14" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="14">
+        <f>A13+1</f>
+        <v>10</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="10">
+        <f>Таблица1[[#This Row],[m0
+смесь    
+стакан]]-Таблица1[[#This Row],[m
+стакан]]</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="45">
+        <f>Таблица1[[#This Row],[m0
+смесь]]*(1-P13)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="11">
+        <f>Таблица1[[#This Row],[m0
+смесь]]*P13</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="46">
+        <f>G13+0.025</f>
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="H14" s="12">
+        <f>(Таблица1[[#This Row],[m0
+смесь]]*Таблица1[[#This Row],[w%1 т
+спирт ]]-Таблица1[[#This Row],[m0
+спирт]])/(1-Таблица1[[#This Row],[w%1 т
+спирт ]])</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="13">
+        <f>Таблица1[[#This Row],[m+ т
+спирт]]/Таблица2[ro 
+спирт]*1000</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="16"/>
+      <c r="K14" s="10">
+        <f>Таблица1[[#This Row],[m1 
+смесь
+стакан]]-Таблица1[[#This Row],[m
+стакан]]</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="12">
+        <f>Таблица1[[#This Row],[m1 
+смесь
+стакан]]-Таблица1[[#This Row],[m0
+смесь    
+стакан]]</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="31">
+        <f>Таблица1[[#This Row],[m1 
+смесь
+стакан]]</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="12">
+        <f>Таблица1[[#This Row],[m2
+смесь
+стакан]]-Таблица1[[#This Row],[m
+стакан]]</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="12">
+        <f>Таблица1[[#This Row],[m2
+смесь
+стакан]]-Таблица1[[#This Row],[m1 
+смесь
+стакан]]</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="20" t="e">
         <f>(Таблица1[[#This Row],[m0
 спирт]]+Таблица1[[#This Row],[m+
 спирта]])/Таблица1[[#This Row],[m2
 смеси]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q13" s="30"/>
+      <c r="Q14" s="30"/>
     </row>
-    <row r="14" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="17" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -3538,9 +3636,9 @@
         <f>Эксперимент!A13</f>
         <v>9</v>
       </c>
-      <c r="B12" s="25" t="e">
+      <c r="B12" s="25">
         <f>Эксперимент!P13</f>
-        <v>#DIV/0!</v>
+        <v>0.17491828063571971</v>
       </c>
       <c r="C12" s="23" t="e">
         <f>Эксперимент!#REF!</f>

--- a/Experiments/MultiplyTemperature/Solves.xlsx
+++ b/Experiments/MultiplyTemperature/Solves.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\Diplom-work\Experiments\MultiplyTemperature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A53A4C-8718-4971-8716-40E6D63BFBAF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCB09EB-E877-420B-9537-2D6CFAC07BF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B4D95E1D-7DF1-45F9-84A6-56C0FCEE3758}"/>
   </bookViews>
@@ -2126,7 +2126,7 @@
   <dimension ref="A1:Q144"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F4" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3045,23 +3045,28 @@
         <f>A13+1</f>
         <v>10</v>
       </c>
-      <c r="C14" s="16"/>
+      <c r="B14" s="9">
+        <v>21.125800000000002</v>
+      </c>
+      <c r="C14" s="16">
+        <v>31.729299999999999</v>
+      </c>
       <c r="D14" s="10">
         <f>Таблица1[[#This Row],[m0
 смесь    
 стакан]]-Таблица1[[#This Row],[m
 стакан]]</f>
-        <v>0</v>
+        <v>10.603499999999997</v>
       </c>
       <c r="E14" s="45">
         <f>Таблица1[[#This Row],[m0
 смесь]]*(1-P13)</f>
-        <v>0</v>
+        <v>8.7487540112791429</v>
       </c>
       <c r="F14" s="11">
         <f>Таблица1[[#This Row],[m0
 смесь]]*P13</f>
-        <v>0</v>
+        <v>1.8547459887208533</v>
       </c>
       <c r="G14" s="46">
         <f>G13+0.025</f>
@@ -3073,21 +3078,23 @@
 спирт ]]-Таблица1[[#This Row],[m0
 спирт]])/(1-Таблица1[[#This Row],[w%1 т
 спирт ]])</f>
-        <v>0</v>
+        <v>0.33244251409893261</v>
       </c>
       <c r="I14" s="13">
         <f>Таблица1[[#This Row],[m+ т
 спирт]]/Таблица2[ro 
 спирт]*1000</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="16"/>
+        <v>386.56106290573558</v>
+      </c>
+      <c r="J14" s="16">
+        <v>32.061</v>
+      </c>
       <c r="K14" s="10">
         <f>Таблица1[[#This Row],[m1 
 смесь
 стакан]]-Таблица1[[#This Row],[m
 стакан]]</f>
-        <v>0</v>
+        <v>10.935199999999998</v>
       </c>
       <c r="L14" s="12">
         <f>Таблица1[[#This Row],[m1 
@@ -3095,20 +3102,20 @@
 стакан]]-Таблица1[[#This Row],[m0
 смесь    
 стакан]]</f>
-        <v>0</v>
+        <v>0.33170000000000144</v>
       </c>
       <c r="M14" s="31">
         <f>Таблица1[[#This Row],[m1 
 смесь
 стакан]]</f>
-        <v>0</v>
+        <v>32.061</v>
       </c>
       <c r="N14" s="12">
         <f>Таблица1[[#This Row],[m2
 смесь
 стакан]]-Таблица1[[#This Row],[m
 стакан]]</f>
-        <v>0</v>
+        <v>10.935199999999998</v>
       </c>
       <c r="O14" s="12">
         <f>Таблица1[[#This Row],[m2
@@ -3118,12 +3125,12 @@
 стакан]]</f>
         <v>0</v>
       </c>
-      <c r="P14" s="20" t="e">
+      <c r="P14" s="20">
         <f>(Таблица1[[#This Row],[m0
 спирт]]+Таблица1[[#This Row],[m+
 спирта]])/Таблица1[[#This Row],[m2
 смеси]]</f>
-        <v>#DIV/0!</v>
+        <v>0.19994567897439963</v>
       </c>
       <c r="Q14" s="30"/>
     </row>

--- a/Experiments/MultiplyTemperature/Solves.xlsx
+++ b/Experiments/MultiplyTemperature/Solves.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\Diplom-work\Experiments\MultiplyTemperature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCB09EB-E877-420B-9537-2D6CFAC07BF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2441953D-96F7-4CE6-9574-1EF7275C619E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B4D95E1D-7DF1-45F9-84A6-56C0FCEE3758}"/>
   </bookViews>
@@ -143,9 +143,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.000%"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -308,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -392,6 +393,9 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2126,7 +2130,7 @@
   <dimension ref="A1:Q144"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F4" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3125,7 +3129,7 @@
 стакан]]</f>
         <v>0</v>
       </c>
-      <c r="P14" s="20">
+      <c r="P14" s="47">
         <f>(Таблица1[[#This Row],[m0
 спирт]]+Таблица1[[#This Row],[m+
 спирта]])/Таблица1[[#This Row],[m2

--- a/Experiments/MultiplyTemperature/Solves.xlsx
+++ b/Experiments/MultiplyTemperature/Solves.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\Diplom-work\Experiments\MultiplyTemperature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2441953D-96F7-4CE6-9574-1EF7275C619E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB42F9DA-4CA6-484F-AF2C-D0EE9FFD645F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B4D95E1D-7DF1-45F9-84A6-56C0FCEE3758}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{B4D95E1D-7DF1-45F9-84A6-56C0FCEE3758}"/>
   </bookViews>
   <sheets>
     <sheet name="Эксперимент" sheetId="1" r:id="rId1"/>
-    <sheet name="Расчеты" sheetId="2" r:id="rId2"/>
+    <sheet name="Аппроксимации" sheetId="3" r:id="rId2"/>
+    <sheet name="Плотности" sheetId="4" r:id="rId3"/>
+    <sheet name="Расчеты(старое)" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
   <si>
     <t>ro 
 спирт</t>
@@ -137,18 +139,103 @@
   </si>
   <si>
     <t>добавка ОКМ</t>
+  </si>
+  <si>
+    <t>Exp0_up</t>
+  </si>
+  <si>
+    <t>Отклонения при высоких T</t>
+  </si>
+  <si>
+    <t>Exp1_up</t>
+  </si>
+  <si>
+    <t>Exp2_down</t>
+  </si>
+  <si>
+    <t>Exp3_down</t>
+  </si>
+  <si>
+    <t>Exp4_up</t>
+  </si>
+  <si>
+    <t>Exp5_down</t>
+  </si>
+  <si>
+    <t>Exp6_up</t>
+  </si>
+  <si>
+    <t>Exp7_up</t>
+  </si>
+  <si>
+    <t>Exp8_down</t>
+  </si>
+  <si>
+    <t>Добавка</t>
+  </si>
+  <si>
+    <t>w% масс 
+теор</t>
+  </si>
+  <si>
+    <t>w% масс 
+прак</t>
+  </si>
+  <si>
+    <t>Е КДж</t>
+  </si>
+  <si>
+    <t>d Е КДж</t>
+  </si>
+  <si>
+    <t>nu0 сПуаз</t>
+  </si>
+  <si>
+    <t>d nu0 сПуаз</t>
+  </si>
+  <si>
+    <t>Эксперимент</t>
+  </si>
+  <si>
+    <t>Описание</t>
+  </si>
+  <si>
+    <t>T C</t>
+  </si>
+  <si>
+    <t>V пик мл</t>
+  </si>
+  <si>
+    <t>m г
+пик</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m0 г
+смесь    
+пик </t>
+  </si>
+  <si>
+    <t xml:space="preserve">m г
+смесь     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ro
+смесь г/мл   </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.000%"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="170" formatCode="0E+00"/>
+    <numFmt numFmtId="171" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,8 +292,57 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -237,8 +373,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -305,11 +471,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -398,11 +579,284 @@
     <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="8" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="8" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="10" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="8" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="11" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="6" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="47">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.749992370372631"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="171" formatCode="0.0%"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="1"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="170" formatCode="0E+00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -795,7 +1249,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Расчеты!$B$4:$B$12</c:f>
+              <c:f>'Расчеты(старое)'!$B$4:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="9"/>
@@ -831,7 +1285,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Расчеты!$I$4:$I$12</c:f>
+              <c:f>'Расчеты(старое)'!$I$4:$I$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1657,7 +2111,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{23D3B64E-5883-4DDC-BE47-CAE203CDCD51}" name="Таблица1" displayName="Таблица1" ref="A4:Q14" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{23D3B64E-5883-4DDC-BE47-CAE203CDCD51}" name="Таблица1" displayName="Таблица1" ref="A4:Q14" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
   <autoFilter ref="A4:Q14" xr:uid="{B8DF02FA-3140-484C-B272-AB560FB12BBD}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1676,97 +2130,180 @@
     <filterColumn colId="15" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="17">
-    <tableColumn id="14" xr3:uid="{77FFFFAD-27FE-4585-A8A5-4920141174AB}" name="#" dataDxfId="28">
+    <tableColumn id="14" xr3:uid="{77FFFFAD-27FE-4585-A8A5-4920141174AB}" name="#" dataDxfId="44">
       <calculatedColumnFormula>A4+1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{1871877F-C7B7-4C72-AF32-DB1A3FABAFCC}" name="m_x000a_стакан"/>
-    <tableColumn id="1" xr3:uid="{6A216FEE-C1E1-40E4-815E-5380A5321732}" name="m0_x000a_смесь    _x000a_стакан" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{D1757256-BC6C-420E-BEA8-B604BC77F285}" name="m0_x000a_смесь" dataDxfId="26">
+    <tableColumn id="1" xr3:uid="{6A216FEE-C1E1-40E4-815E-5380A5321732}" name="m0_x000a_смесь    _x000a_стакан" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{D1757256-BC6C-420E-BEA8-B604BC77F285}" name="m0_x000a_смесь" dataDxfId="42">
       <calculatedColumnFormula>Таблица1[[#This Row],[m0
 смесь    
 стакан]]-Таблица1[[#This Row],[m
 стакан]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5E2A2C51-8E70-4FD9-9B53-E7837EF2D163}" name="m0_x000a_ОКМ" dataDxfId="25">
+    <tableColumn id="3" xr3:uid="{5E2A2C51-8E70-4FD9-9B53-E7837EF2D163}" name="m0_x000a_ОКМ" dataDxfId="41">
       <calculatedColumnFormula>Таблица1[[#This Row],[m0
 смесь]]*(1-P4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{D1940891-C2DF-4AB7-A8E2-AF06FDA60F0D}" name="m0_x000a_спирт" dataDxfId="24">
+    <tableColumn id="4" xr3:uid="{D1940891-C2DF-4AB7-A8E2-AF06FDA60F0D}" name="m0_x000a_спирт" dataDxfId="40">
       <calculatedColumnFormula>Таблица1[[#This Row],[m0
 смесь]]*P4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{78FAF393-3070-4836-B8E9-4D79C52F839F}" name="w%1 т_x000a_спирт " dataDxfId="23">
+    <tableColumn id="6" xr3:uid="{78FAF393-3070-4836-B8E9-4D79C52F839F}" name="w%1 т_x000a_спирт " dataDxfId="39">
       <calculatedColumnFormula>G4+0.025</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{EA5712E3-E93C-456A-9EDE-9A8CA94753D1}" name="m+ т_x000a_спирт" dataDxfId="22">
+    <tableColumn id="7" xr3:uid="{EA5712E3-E93C-456A-9EDE-9A8CA94753D1}" name="m+ т_x000a_спирт" dataDxfId="38">
       <calculatedColumnFormula>(Таблица1[[#This Row],[m0
 смесь]]*Таблица1[[#This Row],[w%1 т
 спирт ]]-Таблица1[[#This Row],[m0
 спирт]])/(1-Таблица1[[#This Row],[w%1 т
 спирт ]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{BCA134A9-8EEF-453E-9616-5112E6D2B5D5}" name="V+ т_x000a_спирт" dataDxfId="21">
+    <tableColumn id="8" xr3:uid="{BCA134A9-8EEF-453E-9616-5112E6D2B5D5}" name="V+ т_x000a_спирт" dataDxfId="37">
       <calculatedColumnFormula>Таблица1[[#This Row],[m+ т
 спирт]]/Таблица2[ro 
 спирт]*1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{36EC5429-FC05-4032-BBD0-3C2B1210A8F9}" name="m1 _x000a_смесь_x000a_стакан" dataDxfId="20"/>
-    <tableColumn id="10" xr3:uid="{F3443B4E-6300-47B1-8E7C-FC3BF1A5E3CD}" name="m1_x000a_смеси" dataDxfId="19">
+    <tableColumn id="9" xr3:uid="{36EC5429-FC05-4032-BBD0-3C2B1210A8F9}" name="m1 _x000a_смесь_x000a_стакан" dataDxfId="36"/>
+    <tableColumn id="10" xr3:uid="{F3443B4E-6300-47B1-8E7C-FC3BF1A5E3CD}" name="m1_x000a_смеси" dataDxfId="35">
       <calculatedColumnFormula>Таблица1[[#This Row],[m1 
 смесь
 стакан]]-Таблица1[[#This Row],[m
 стакан]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{D23B2127-A60A-4E45-A0EF-767833FF7A03}" name="m+_x000a_спирта" dataDxfId="18">
+    <tableColumn id="11" xr3:uid="{D23B2127-A60A-4E45-A0EF-767833FF7A03}" name="m+_x000a_спирта" dataDxfId="34">
       <calculatedColumnFormula>Таблица1[[#This Row],[m1 
 смесь
 стакан]]-Таблица1[[#This Row],[m0
 смесь    
 стакан]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{13B47A94-234C-4A1B-B993-FBE523863A83}" name="m2_x000a_смесь_x000a_стакан" dataDxfId="17">
+    <tableColumn id="15" xr3:uid="{13B47A94-234C-4A1B-B993-FBE523863A83}" name="m2_x000a_смесь_x000a_стакан" dataDxfId="33">
       <calculatedColumnFormula>Таблица1[[#This Row],[m1 
 смесь
 стакан]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{22F644F7-5CB7-438A-9D0D-9E88DE87DE4D}" name="m2_x000a_смеси" dataDxfId="16">
+    <tableColumn id="13" xr3:uid="{22F644F7-5CB7-438A-9D0D-9E88DE87DE4D}" name="m2_x000a_смеси" dataDxfId="32">
       <calculatedColumnFormula>Таблица1[[#This Row],[m2
 смесь
 стакан]]-Таблица1[[#This Row],[m
 стакан]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{96247A00-C27E-4AC1-85FF-B6D781503BD2}" name="m+_x000a_ОКМ" dataDxfId="15">
+    <tableColumn id="16" xr3:uid="{96247A00-C27E-4AC1-85FF-B6D781503BD2}" name="m+_x000a_ОКМ" dataDxfId="31">
       <calculatedColumnFormula>Таблица1[[#This Row],[m2
 смесь
 стакан]]-Таблица1[[#This Row],[m1 
 смесь
 стакан]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{896470BD-9890-41DA-8AB1-D5964728C2BF}" name="w%1 _x000a_" dataDxfId="14">
+    <tableColumn id="5" xr3:uid="{896470BD-9890-41DA-8AB1-D5964728C2BF}" name="w%1 _x000a_" dataDxfId="30">
       <calculatedColumnFormula>(Таблица1[[#This Row],[m0
 спирт]]+Таблица1[[#This Row],[m+
 спирта]])/Таблица1[[#This Row],[m2
 смеси]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{48747F86-4026-4D8A-857D-4C04ECCD38B1}" name="Столбец1" dataDxfId="13"/>
+    <tableColumn id="17" xr3:uid="{48747F86-4026-4D8A-857D-4C04ECCD38B1}" name="Столбец1" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{566E47B1-38C6-4891-933F-DFE3ED9B6D33}" name="Таблица2" displayName="Таблица2" ref="B1:B2" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{566E47B1-38C6-4891-933F-DFE3ED9B6D33}" name="Таблица2" displayName="Таблица2" ref="B1:B2" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <autoFilter ref="B1:B2" xr:uid="{FE5521C9-5D13-479F-9E53-564B5B98F3E0}">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
-    <tableColumn id="2" xr3:uid="{A6AA64F7-0B92-4711-9CE9-3080CD0125E2}" name="ro _x000a_спирт" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{A6AA64F7-0B92-4711-9CE9-3080CD0125E2}" name="ro _x000a_спирт" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AD6CF4CA-8DD5-42D3-9E5E-E0CF631B7806}" name="Таблица5" displayName="Таблица5" ref="A1:I11" totalsRowShown="0" headerRowDxfId="15">
+  <autoFilter ref="A1:I11" xr:uid="{A4C063FA-10B5-4E12-9B60-1F11F9CEEE32}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{7BD1F57E-225E-4952-B218-B70E607E4506}" name="#" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{20B7447A-B783-44F2-B1A4-EC86581E32E5}" name="Е КДж" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{DF17DCAE-D682-463C-9861-C2D5B36736D4}" name="d Е КДж" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{EF4548E5-7C26-4D63-A0F2-B091A7D76087}" name="nu0 сПуаз" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{E91881F4-89DF-4CA8-8787-443661255C2B}" name="d nu0 сПуаз" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{2BC6AEF4-16A6-4036-AD2F-70EB2ED37C83}" name="Эксперимент" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{4F002E9F-0B0A-4293-A906-6AAACB660E5F}" name="w% масс _x000a_теор" dataDxfId="5">
+      <calculatedColumnFormula>Таблица5[[#This Row],[w% масс 
+теор]]/100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{EFA2CF13-E204-4162-ACE5-6D1EB6C8441D}" name="w% масс _x000a_прак" dataDxfId="6">
+      <calculatedColumnFormula>Эксперимент!P5</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{9F7FD215-509F-4DE2-A3C7-D0FF03814D4C}" name="Описание"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{805BABE5-9A76-4631-AEF6-52373D9F10EF}" name="Таблица6" displayName="Таблица6" ref="B1:C2" totalsRowShown="0">
+  <autoFilter ref="B1:C2" xr:uid="{6E646EF6-E751-4289-A9A7-DD03060250D7}">
+    <filterColumn colId="0" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{85CFD282-EC82-405E-B9E1-B6D88E8BE22D}" name="V пик мл"/>
+    <tableColumn id="2" xr3:uid="{82AE83F0-E0CE-4727-9385-CBC5130EEE68}" name="T C"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{F5382A89-02D3-493D-95C3-D140C1C3C4BF}" name="Таблица7" displayName="Таблица7" ref="A4:G14" totalsRowShown="0" headerRowDxfId="8" tableBorderDxfId="9">
+  <autoFilter ref="A4:G14" xr:uid="{AF0225F5-3DF3-4AFC-9B1F-C8B14966D627}">
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="7">
+    <tableColumn id="7" xr3:uid="{8FFC1275-87D5-4F7E-A3E2-506D3528542B}" name="#" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{6FF50A90-09CF-41C5-ADD8-A2F8DB8819C7}" name="w% масс _x000a_теор" dataDxfId="3">
+      <calculatedColumnFormula>Таблица1[[#This Row],[w%1 т
+спирт ]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{E4BAD8A6-3F5C-4654-A94F-4999895D9589}" name="w% масс _x000a_прак" dataDxfId="2">
+      <calculatedColumnFormula>Таблица1[[#This Row],[w%1 
+]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="1" xr3:uid="{ECE0A9E4-6EA3-44D2-8D7A-9AADCE33DB76}" name="m г_x000a_пик"/>
+    <tableColumn id="2" xr3:uid="{35A018C8-0123-4735-A41D-51B570AAFB7E}" name="m0 г_x000a_смесь    _x000a_пик "/>
+    <tableColumn id="3" xr3:uid="{CB26C39D-A997-4D10-8025-1322B26AA44F}" name="m г_x000a_смесь     " dataDxfId="1">
+      <calculatedColumnFormula>Таблица7[[#This Row],[m0 г
+смесь    
+пик ]]-Таблица7[[#This Row],[m г
+пик]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{957C21AB-A418-4939-879B-4FDE3C82DC47}" name="ro_x000a_смесь г/мл   " dataDxfId="0">
+      <calculatedColumnFormula>Таблица7[[#This Row],[m г
+смесь     ]]/Таблица6[V пик мл]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E5753743-22A1-4085-8D06-3B2B831F1ED1}" name="Таблица3" displayName="Таблица3" ref="B1:D2" totalsRowShown="0">
   <autoFilter ref="B1:D2" xr:uid="{DF755A78-2234-47B4-A4F0-FDFFE382EF19}">
     <filterColumn colId="0" hiddenButton="1"/>
@@ -1774,7 +2311,7 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3774E3D5-6290-45BF-B35C-03CB2E245F7C}" name="k Дж/К" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{3774E3D5-6290-45BF-B35C-03CB2E245F7C}" name="k Дж/К" dataDxfId="25"/>
     <tableColumn id="2" xr3:uid="{55F504B1-719F-4E9C-8CDF-B05309EA8CE7}" name="a">
       <calculatedColumnFormula>130*0.000000001</calculatedColumnFormula>
     </tableColumn>
@@ -1786,8 +2323,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{76C9F090-2D6D-49FD-B846-FB031D4BCBCC}" name="Таблица4" displayName="Таблица4" ref="A3:I12" totalsRowShown="0" headerRowDxfId="8">
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{76C9F090-2D6D-49FD-B846-FB031D4BCBCC}" name="Таблица4" displayName="Таблица4" ref="A3:I12" totalsRowShown="0" headerRowDxfId="24">
   <autoFilter ref="A3:I12" xr:uid="{6314EA84-7A7E-4A64-B28A-92AA3AA50ED1}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1800,29 +2337,29 @@
     <filterColumn colId="8" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{D6862F0D-0FA5-428B-8BDE-548DB2AB7E13}" name="#" dataDxfId="7">
+    <tableColumn id="1" xr3:uid="{D6862F0D-0FA5-428B-8BDE-548DB2AB7E13}" name="#" dataDxfId="23">
       <calculatedColumnFormula>Эксперимент!A5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{75F02D5D-53D0-4237-8DD4-E258E5A352D0}" name="w" dataDxfId="6">
+    <tableColumn id="4" xr3:uid="{75F02D5D-53D0-4237-8DD4-E258E5A352D0}" name="w" dataDxfId="22">
       <calculatedColumnFormula>Эксперимент!P5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{89A2AB49-E643-4792-891C-B4B387D04709}" name="n cПз" dataDxfId="5">
+    <tableColumn id="2" xr3:uid="{89A2AB49-E643-4792-891C-B4B387D04709}" name="n cПз" dataDxfId="21">
       <calculatedColumnFormula>Эксперимент!#REF!</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{CA6E2CAA-7252-4CF1-B360-1276BB443A61}" name="T С"/>
-    <tableColumn id="8" xr3:uid="{3AE2087B-AA31-4E3C-9AB9-19AF10173DC6}" name="n Па*с" dataDxfId="4">
+    <tableColumn id="8" xr3:uid="{3AE2087B-AA31-4E3C-9AB9-19AF10173DC6}" name="n Па*с" dataDxfId="20">
       <calculatedColumnFormula>Таблица4[[#This Row],[n cПз]]*0.001</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C0B73B63-48A8-4C9C-90A8-771CE2A4E2C3}" name="T K" dataDxfId="3">
+    <tableColumn id="7" xr3:uid="{C0B73B63-48A8-4C9C-90A8-771CE2A4E2C3}" name="T K" dataDxfId="19">
       <calculatedColumnFormula>Таблица4[[#This Row],[T С]]+273.15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F1400D6F-3EFB-4E45-BFB3-9D931FE20A6D}" name="D м2/с" dataDxfId="2">
+    <tableColumn id="5" xr3:uid="{F1400D6F-3EFB-4E45-BFB3-9D931FE20A6D}" name="D м2/с" dataDxfId="18">
       <calculatedColumnFormula>Таблица3[k Дж/К]*Таблица4[[#This Row],[T K]]/(6*PI()*Таблица4[[#This Row],[n Па*с]]*Таблица3[a])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{925D8097-425B-433B-8787-4C47A703359F}" name="D2 см2/сут_x000a_(шар)" dataDxfId="1">
+    <tableColumn id="6" xr3:uid="{925D8097-425B-433B-8787-4C47A703359F}" name="D2 см2/сут_x000a_(шар)" dataDxfId="17">
       <calculatedColumnFormula>Таблица4[[#This Row],[D м2/с]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{DC4F818A-DEC1-4A2F-A44C-B7C8B0779905}" name="D0 см2/сут_x000a_(просто)" dataDxfId="0">
+    <tableColumn id="9" xr3:uid="{DC4F818A-DEC1-4A2F-A44C-B7C8B0779905}" name="D0 см2/сут_x000a_(просто)" dataDxfId="16">
       <calculatedColumnFormula>Таблица4[[#This Row],[n Па*с]]/1000*Таблица3[с]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2127,15 +2664,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3038D3D-534C-490E-A986-71F6B2B3A4C4}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:Q144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" customWidth="1"/>
     <col min="2" max="12" width="8" customWidth="1"/>
     <col min="13" max="13" width="11.33203125" customWidth="1"/>
   </cols>
@@ -3279,11 +3819,737 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC6E769D-F7E2-4A6F-B56C-69A3DD7B28E0}">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="3" width="9.6640625" customWidth="1"/>
+    <col min="4" max="5" width="12.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" customWidth="1"/>
+    <col min="7" max="8" width="9.44140625" customWidth="1"/>
+    <col min="9" max="9" width="24.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="57">
+        <v>1</v>
+      </c>
+      <c r="B2" s="55">
+        <v>57.308994106791218</v>
+      </c>
+      <c r="C2" s="52">
+        <v>9.5369126267094373E-2</v>
+      </c>
+      <c r="D2" s="56">
+        <v>1.178113197003577E-8</v>
+      </c>
+      <c r="E2" s="53">
+        <v>4.56452840393914E-10</v>
+      </c>
+      <c r="F2" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="61">
+        <f ca="1">Таблица5[[#This Row],[w% масс 
+теор]]/100</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="54">
+        <f>Эксперимент!P5</f>
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="57">
+        <v>2</v>
+      </c>
+      <c r="B3" s="55">
+        <v>49.847994012296063</v>
+      </c>
+      <c r="C3" s="52">
+        <v>0.15223222030175171</v>
+      </c>
+      <c r="D3" s="56">
+        <v>1.7200005603909319E-7</v>
+      </c>
+      <c r="E3" s="53">
+        <v>1.036206814829991E-8</v>
+      </c>
+      <c r="F3" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="61">
+        <f ca="1">Таблица5[[#This Row],[w% масс 
+теор]]/100</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H3" s="54">
+        <f>Эксперимент!P6</f>
+        <v>2.3944155058826376E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="70">
+        <v>3</v>
+      </c>
+      <c r="B4" s="71"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="76">
+        <f ca="1">Таблица5[[#This Row],[w% масс 
+теор]]/100</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="77">
+        <f>Эксперимент!P7</f>
+        <v>2.1915807405558006E-2</v>
+      </c>
+      <c r="I4" s="68" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="57">
+        <v>4</v>
+      </c>
+      <c r="B5" s="55">
+        <v>49.805519375865757</v>
+      </c>
+      <c r="C5" s="52">
+        <v>0.13807673174168039</v>
+      </c>
+      <c r="D5" s="56">
+        <v>1.3824063760869289E-7</v>
+      </c>
+      <c r="E5" s="53">
+        <v>7.7180897758757693E-9</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="61">
+        <f ca="1">Таблица5[[#This Row],[w% масс 
+теор]]/100</f>
+        <v>0.05</v>
+      </c>
+      <c r="H5" s="54">
+        <f>Эксперимент!P8</f>
+        <v>4.9824267685908662E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="57">
+        <v>5</v>
+      </c>
+      <c r="B6" s="55">
+        <v>45.193687036460702</v>
+      </c>
+      <c r="C6" s="52">
+        <v>0.16591155016473641</v>
+      </c>
+      <c r="D6" s="56">
+        <v>6.7665117322632459E-7</v>
+      </c>
+      <c r="E6" s="53">
+        <v>4.5059385738774732E-8</v>
+      </c>
+      <c r="F6" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="61">
+        <f ca="1">Таблица5[[#This Row],[w% масс 
+теор]]/100</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H6" s="54">
+        <f>Эксперимент!P9</f>
+        <v>7.6005085117237983E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="57">
+        <v>6</v>
+      </c>
+      <c r="B7" s="55">
+        <v>40.779651191999328</v>
+      </c>
+      <c r="C7" s="52">
+        <v>0.1248973519913186</v>
+      </c>
+      <c r="D7" s="56">
+        <v>3.193288160121095E-6</v>
+      </c>
+      <c r="E7" s="53">
+        <v>1.5820023514922191E-7</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="61">
+        <f ca="1">Таблица5[[#This Row],[w% масс 
+теор]]/100</f>
+        <v>0.1</v>
+      </c>
+      <c r="H7" s="54">
+        <f>Эксперимент!P10</f>
+        <v>0.10071871677750344</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="57">
+        <v>7</v>
+      </c>
+      <c r="B8" s="55">
+        <v>42.259748749228137</v>
+      </c>
+      <c r="C8" s="52">
+        <v>9.8496463504233134E-2</v>
+      </c>
+      <c r="D8" s="56">
+        <v>1.4991554928338761E-6</v>
+      </c>
+      <c r="E8" s="53">
+        <v>5.9740134564524842E-8</v>
+      </c>
+      <c r="F8" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="61">
+        <f ca="1">Таблица5[[#This Row],[w% масс 
+теор]]/100</f>
+        <v>0.125</v>
+      </c>
+      <c r="H8" s="54">
+        <f>Эксперимент!P11</f>
+        <v>0.12304530681084216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="57">
+        <v>8</v>
+      </c>
+      <c r="B9" s="55">
+        <v>38.162234976018958</v>
+      </c>
+      <c r="C9" s="52">
+        <v>9.9940624759899066E-2</v>
+      </c>
+      <c r="D9" s="56">
+        <v>6.4857140827831011E-6</v>
+      </c>
+      <c r="E9" s="53">
+        <v>2.6012368310347772E-7</v>
+      </c>
+      <c r="F9" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="61">
+        <f ca="1">Таблица5[[#This Row],[w% масс 
+теор]]/100</f>
+        <v>0.15</v>
+      </c>
+      <c r="H9" s="54">
+        <f>Эксперимент!P12</f>
+        <v>0.14917583903957765</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="57">
+        <v>9</v>
+      </c>
+      <c r="B10" s="55">
+        <v>38.113817416143988</v>
+      </c>
+      <c r="C10" s="52">
+        <v>9.2017913830858333E-2</v>
+      </c>
+      <c r="D10" s="56">
+        <v>5.8282016880635814E-6</v>
+      </c>
+      <c r="E10" s="53">
+        <v>2.1786897207357509E-7</v>
+      </c>
+      <c r="F10" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="61">
+        <f ca="1">Таблица5[[#This Row],[w% масс 
+теор]]/100</f>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="H10" s="54">
+        <f>Эксперимент!P13</f>
+        <v>0.17491828063571971</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="57">
+        <v>10</v>
+      </c>
+      <c r="B11" s="55">
+        <v>37.810807316407811</v>
+      </c>
+      <c r="C11" s="52">
+        <v>9.1114957061982693E-2</v>
+      </c>
+      <c r="D11" s="56">
+        <v>5.8702924578367343E-6</v>
+      </c>
+      <c r="E11" s="53">
+        <v>2.1572073373871701E-7</v>
+      </c>
+      <c r="F11" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="61">
+        <f ca="1">Таблица5[[#This Row],[w% масс 
+теор]]/100</f>
+        <v>0.2</v>
+      </c>
+      <c r="H11" s="54">
+        <f>Эксперимент!P14</f>
+        <v>0.19994567897439963</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6539F9C-8973-4936-A467-A38F70620E39}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="59" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="24">
+        <v>1</v>
+      </c>
+      <c r="B5" s="62">
+        <f>Таблица1[[#This Row],[w%1 т
+спирт ]]</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="63">
+        <f>Таблица1[[#This Row],[w%1 
+]]</f>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <f>Таблица7[[#This Row],[m0 г
+смесь    
+пик ]]-Таблица7[[#This Row],[m г
+пик]]</f>
+        <v>5</v>
+      </c>
+      <c r="G5" s="64">
+        <f>Таблица7[[#This Row],[m г
+смесь     ]]/Таблица6[V пик мл]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="24">
+        <v>2</v>
+      </c>
+      <c r="B6" s="62">
+        <f>Таблица1[[#This Row],[w%1 т
+спирт ]]</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C6" s="63">
+        <f>Таблица1[[#This Row],[w%1 
+]]</f>
+        <v>2.3944155058826376E-2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <f>Таблица7[[#This Row],[m0 г
+смесь    
+пик ]]-Таблица7[[#This Row],[m г
+пик]]</f>
+        <v>5</v>
+      </c>
+      <c r="G6" s="64">
+        <f>Таблица7[[#This Row],[m г
+смесь     ]]/Таблица6[V пик мл]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="65">
+        <v>3</v>
+      </c>
+      <c r="B7" s="66">
+        <f>Таблица1[[#This Row],[w%1 т
+спирт ]]</f>
+        <v>0.05</v>
+      </c>
+      <c r="C7" s="67">
+        <f>Таблица1[[#This Row],[w%1 
+]]</f>
+        <v>2.1915807405558006E-2</v>
+      </c>
+      <c r="F7" s="68"/>
+      <c r="G7" s="69">
+        <f>Таблица7[[#This Row],[m г
+смесь     ]]/Таблица6[V пик мл]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="24">
+        <v>4</v>
+      </c>
+      <c r="B8" s="62">
+        <f>Таблица1[[#This Row],[w%1 т
+спирт ]]</f>
+        <v>0.05</v>
+      </c>
+      <c r="C8" s="63">
+        <f>Таблица1[[#This Row],[w%1 
+]]</f>
+        <v>4.9824267685908662E-2</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <f>Таблица7[[#This Row],[m0 г
+смесь    
+пик ]]-Таблица7[[#This Row],[m г
+пик]]</f>
+        <v>5</v>
+      </c>
+      <c r="G8" s="64">
+        <f>Таблица7[[#This Row],[m г
+смесь     ]]/Таблица6[V пик мл]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="24">
+        <v>5</v>
+      </c>
+      <c r="B9" s="62">
+        <f>Таблица1[[#This Row],[w%1 т
+спирт ]]</f>
+        <v>7.5000000000000011E-2</v>
+      </c>
+      <c r="C9" s="63">
+        <f>Таблица1[[#This Row],[w%1 
+]]</f>
+        <v>7.6005085117237983E-2</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <f>Таблица7[[#This Row],[m0 г
+смесь    
+пик ]]-Таблица7[[#This Row],[m г
+пик]]</f>
+        <v>5</v>
+      </c>
+      <c r="G9" s="64">
+        <f>Таблица7[[#This Row],[m г
+смесь     ]]/Таблица6[V пик мл]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="24">
+        <v>6</v>
+      </c>
+      <c r="B10" s="62">
+        <f>Таблица1[[#This Row],[w%1 т
+спирт ]]</f>
+        <v>0.1</v>
+      </c>
+      <c r="C10" s="63">
+        <f>Таблица1[[#This Row],[w%1 
+]]</f>
+        <v>0.10071871677750344</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <f>Таблица7[[#This Row],[m0 г
+смесь    
+пик ]]-Таблица7[[#This Row],[m г
+пик]]</f>
+        <v>5</v>
+      </c>
+      <c r="G10" s="64">
+        <f>Таблица7[[#This Row],[m г
+смесь     ]]/Таблица6[V пик мл]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="24">
+        <v>7</v>
+      </c>
+      <c r="B11" s="62">
+        <f>Таблица1[[#This Row],[w%1 т
+спирт ]]</f>
+        <v>0.125</v>
+      </c>
+      <c r="C11" s="63">
+        <f>Таблица1[[#This Row],[w%1 
+]]</f>
+        <v>0.12304530681084216</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <f>Таблица7[[#This Row],[m0 г
+смесь    
+пик ]]-Таблица7[[#This Row],[m г
+пик]]</f>
+        <v>5</v>
+      </c>
+      <c r="G11" s="64">
+        <f>Таблица7[[#This Row],[m г
+смесь     ]]/Таблица6[V пик мл]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="24">
+        <v>8</v>
+      </c>
+      <c r="B12" s="62">
+        <f>Таблица1[[#This Row],[w%1 т
+спирт ]]</f>
+        <v>0.15</v>
+      </c>
+      <c r="C12" s="63">
+        <f>Таблица1[[#This Row],[w%1 
+]]</f>
+        <v>0.14917583903957765</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <f>Таблица7[[#This Row],[m0 г
+смесь    
+пик ]]-Таблица7[[#This Row],[m г
+пик]]</f>
+        <v>5</v>
+      </c>
+      <c r="G12" s="64">
+        <f>Таблица7[[#This Row],[m г
+смесь     ]]/Таблица6[V пик мл]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="24">
+        <v>9</v>
+      </c>
+      <c r="B13" s="62">
+        <f>Таблица1[[#This Row],[w%1 т
+спирт ]]</f>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="C13" s="63">
+        <f>Таблица1[[#This Row],[w%1 
+]]</f>
+        <v>0.17491828063571971</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <f>Таблица7[[#This Row],[m0 г
+смесь    
+пик ]]-Таблица7[[#This Row],[m г
+пик]]</f>
+        <v>5</v>
+      </c>
+      <c r="G13" s="64">
+        <f>Таблица7[[#This Row],[m г
+смесь     ]]/Таблица6[V пик мл]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="24">
+        <v>10</v>
+      </c>
+      <c r="B14" s="62">
+        <f>Таблица1[[#This Row],[w%1 т
+спирт ]]</f>
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="C14" s="63">
+        <f>Таблица1[[#This Row],[w%1 
+]]</f>
+        <v>0.19994567897439963</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <f>Таблица7[[#This Row],[m0 г
+смесь    
+пик ]]-Таблица7[[#This Row],[m г
+пик]]</f>
+        <v>1</v>
+      </c>
+      <c r="G14" s="64">
+        <f>Таблица7[[#This Row],[m г
+смесь     ]]/Таблица6[V пик мл]</f>
+        <v>0.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D201CE-5EF8-4DC4-B922-C0ABDEF8ECFD}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Experiments/MultiplyTemperature/Solves.xlsx
+++ b/Experiments/MultiplyTemperature/Solves.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\Diplom-work\Experiments\MultiplyTemperature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB42F9DA-4CA6-484F-AF2C-D0EE9FFD645F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2AD2A26-DF79-4820-A916-2626B2668F3B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{B4D95E1D-7DF1-45F9-84A6-56C0FCEE3758}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{B4D95E1D-7DF1-45F9-84A6-56C0FCEE3758}"/>
   </bookViews>
   <sheets>
     <sheet name="Эксперимент" sheetId="1" r:id="rId1"/>
@@ -232,8 +232,8 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.000%"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="170" formatCode="0E+00"/>
-    <numFmt numFmtId="171" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="0E+00"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -590,7 +590,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="8" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -606,7 +606,7 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -621,48 +621,15 @@
     <xf numFmtId="167" fontId="8" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="10" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="8" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="11" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="11" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="6" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="47">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -677,185 +644,13 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="171" formatCode="0.0%"/>
+      <numFmt numFmtId="169" formatCode="0.0%"/>
       <fill>
         <patternFill>
           <fgColor indexed="64"/>
           <bgColor theme="2" tint="-9.9978637043366805E-2"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor theme="1"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="167" formatCode="0.000"/>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="8" tint="-0.249977111117893"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="170" formatCode="0E+00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -899,6 +694,211 @@
         </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="1"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="0E+00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -2221,7 +2221,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AD6CF4CA-8DD5-42D3-9E5E-E0CF631B7806}" name="Таблица5" displayName="Таблица5" ref="A1:I11" totalsRowShown="0" headerRowDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AD6CF4CA-8DD5-42D3-9E5E-E0CF631B7806}" name="Таблица5" displayName="Таблица5" ref="A1:I11" totalsRowShown="0" headerRowDxfId="25">
   <autoFilter ref="A1:I11" xr:uid="{A4C063FA-10B5-4E12-9B60-1F11F9CEEE32}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2234,17 +2234,16 @@
     <filterColumn colId="8" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{7BD1F57E-225E-4952-B218-B70E607E4506}" name="#" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{20B7447A-B783-44F2-B1A4-EC86581E32E5}" name="Е КДж" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{DF17DCAE-D682-463C-9861-C2D5B36736D4}" name="d Е КДж" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{EF4548E5-7C26-4D63-A0F2-B091A7D76087}" name="nu0 сПуаз" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{E91881F4-89DF-4CA8-8787-443661255C2B}" name="d nu0 сПуаз" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{2BC6AEF4-16A6-4036-AD2F-70EB2ED37C83}" name="Эксперимент" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{4F002E9F-0B0A-4293-A906-6AAACB660E5F}" name="w% масс _x000a_теор" dataDxfId="5">
-      <calculatedColumnFormula>Таблица5[[#This Row],[w% масс 
-теор]]/100</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{7BD1F57E-225E-4952-B218-B70E607E4506}" name="#" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{20B7447A-B783-44F2-B1A4-EC86581E32E5}" name="Е КДж" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{DF17DCAE-D682-463C-9861-C2D5B36736D4}" name="d Е КДж" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{EF4548E5-7C26-4D63-A0F2-B091A7D76087}" name="nu0 сПуаз" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{E91881F4-89DF-4CA8-8787-443661255C2B}" name="d nu0 сПуаз" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{2BC6AEF4-16A6-4036-AD2F-70EB2ED37C83}" name="Эксперимент" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{4F002E9F-0B0A-4293-A906-6AAACB660E5F}" name="w% масс _x000a_теор" dataDxfId="0">
+      <calculatedColumnFormula>Эксперимент!G5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{EFA2CF13-E204-4162-ACE5-6D1EB6C8441D}" name="w% масс _x000a_прак" dataDxfId="6">
+    <tableColumn id="9" xr3:uid="{EFA2CF13-E204-4162-ACE5-6D1EB6C8441D}" name="w% масс _x000a_прак" dataDxfId="18">
       <calculatedColumnFormula>Эксперимент!P5</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{9F7FD215-509F-4DE2-A3C7-D0FF03814D4C}" name="Описание"/>
@@ -2267,7 +2266,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{F5382A89-02D3-493D-95C3-D140C1C3C4BF}" name="Таблица7" displayName="Таблица7" ref="A4:G14" totalsRowShown="0" headerRowDxfId="8" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{F5382A89-02D3-493D-95C3-D140C1C3C4BF}" name="Таблица7" displayName="Таблица7" ref="A4:G14" totalsRowShown="0" headerRowDxfId="17" tableBorderDxfId="16">
   <autoFilter ref="A4:G14" xr:uid="{AF0225F5-3DF3-4AFC-9B1F-C8B14966D627}">
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2277,24 +2276,24 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="7" xr3:uid="{8FFC1275-87D5-4F7E-A3E2-506D3528542B}" name="#" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{6FF50A90-09CF-41C5-ADD8-A2F8DB8819C7}" name="w% масс _x000a_теор" dataDxfId="3">
+    <tableColumn id="7" xr3:uid="{8FFC1275-87D5-4F7E-A3E2-506D3528542B}" name="#" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{6FF50A90-09CF-41C5-ADD8-A2F8DB8819C7}" name="w% масс _x000a_теор" dataDxfId="14">
       <calculatedColumnFormula>Таблица1[[#This Row],[w%1 т
 спирт ]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{E4BAD8A6-3F5C-4654-A94F-4999895D9589}" name="w% масс _x000a_прак" dataDxfId="2">
+    <tableColumn id="6" xr3:uid="{E4BAD8A6-3F5C-4654-A94F-4999895D9589}" name="w% масс _x000a_прак" dataDxfId="13">
       <calculatedColumnFormula>Таблица1[[#This Row],[w%1 
 ]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="1" xr3:uid="{ECE0A9E4-6EA3-44D2-8D7A-9AADCE33DB76}" name="m г_x000a_пик"/>
     <tableColumn id="2" xr3:uid="{35A018C8-0123-4735-A41D-51B570AAFB7E}" name="m0 г_x000a_смесь    _x000a_пик "/>
-    <tableColumn id="3" xr3:uid="{CB26C39D-A997-4D10-8025-1322B26AA44F}" name="m г_x000a_смесь     " dataDxfId="1">
+    <tableColumn id="3" xr3:uid="{CB26C39D-A997-4D10-8025-1322B26AA44F}" name="m г_x000a_смесь     " dataDxfId="12">
       <calculatedColumnFormula>Таблица7[[#This Row],[m0 г
 смесь    
 пик ]]-Таблица7[[#This Row],[m г
 пик]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{957C21AB-A418-4939-879B-4FDE3C82DC47}" name="ro_x000a_смесь г/мл   " dataDxfId="0">
+    <tableColumn id="4" xr3:uid="{957C21AB-A418-4939-879B-4FDE3C82DC47}" name="ro_x000a_смесь г/мл   " dataDxfId="11">
       <calculatedColumnFormula>Таблица7[[#This Row],[m г
 смесь     ]]/Таблица6[V пик мл]</calculatedColumnFormula>
     </tableColumn>
@@ -2311,7 +2310,7 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3774E3D5-6290-45BF-B35C-03CB2E245F7C}" name="k Дж/К" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{3774E3D5-6290-45BF-B35C-03CB2E245F7C}" name="k Дж/К" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{55F504B1-719F-4E9C-8CDF-B05309EA8CE7}" name="a">
       <calculatedColumnFormula>130*0.000000001</calculatedColumnFormula>
     </tableColumn>
@@ -2324,7 +2323,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{76C9F090-2D6D-49FD-B846-FB031D4BCBCC}" name="Таблица4" displayName="Таблица4" ref="A3:I12" totalsRowShown="0" headerRowDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{76C9F090-2D6D-49FD-B846-FB031D4BCBCC}" name="Таблица4" displayName="Таблица4" ref="A3:I12" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="A3:I12" xr:uid="{6314EA84-7A7E-4A64-B28A-92AA3AA50ED1}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2337,29 +2336,29 @@
     <filterColumn colId="8" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{D6862F0D-0FA5-428B-8BDE-548DB2AB7E13}" name="#" dataDxfId="23">
+    <tableColumn id="1" xr3:uid="{D6862F0D-0FA5-428B-8BDE-548DB2AB7E13}" name="#" dataDxfId="8">
       <calculatedColumnFormula>Эксперимент!A5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{75F02D5D-53D0-4237-8DD4-E258E5A352D0}" name="w" dataDxfId="22">
+    <tableColumn id="4" xr3:uid="{75F02D5D-53D0-4237-8DD4-E258E5A352D0}" name="w" dataDxfId="7">
       <calculatedColumnFormula>Эксперимент!P5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{89A2AB49-E643-4792-891C-B4B387D04709}" name="n cПз" dataDxfId="21">
+    <tableColumn id="2" xr3:uid="{89A2AB49-E643-4792-891C-B4B387D04709}" name="n cПз" dataDxfId="6">
       <calculatedColumnFormula>Эксперимент!#REF!</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{CA6E2CAA-7252-4CF1-B360-1276BB443A61}" name="T С"/>
-    <tableColumn id="8" xr3:uid="{3AE2087B-AA31-4E3C-9AB9-19AF10173DC6}" name="n Па*с" dataDxfId="20">
+    <tableColumn id="8" xr3:uid="{3AE2087B-AA31-4E3C-9AB9-19AF10173DC6}" name="n Па*с" dataDxfId="5">
       <calculatedColumnFormula>Таблица4[[#This Row],[n cПз]]*0.001</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C0B73B63-48A8-4C9C-90A8-771CE2A4E2C3}" name="T K" dataDxfId="19">
+    <tableColumn id="7" xr3:uid="{C0B73B63-48A8-4C9C-90A8-771CE2A4E2C3}" name="T K" dataDxfId="4">
       <calculatedColumnFormula>Таблица4[[#This Row],[T С]]+273.15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F1400D6F-3EFB-4E45-BFB3-9D931FE20A6D}" name="D м2/с" dataDxfId="18">
+    <tableColumn id="5" xr3:uid="{F1400D6F-3EFB-4E45-BFB3-9D931FE20A6D}" name="D м2/с" dataDxfId="3">
       <calculatedColumnFormula>Таблица3[k Дж/К]*Таблица4[[#This Row],[T K]]/(6*PI()*Таблица4[[#This Row],[n Па*с]]*Таблица3[a])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{925D8097-425B-433B-8787-4C47A703359F}" name="D2 см2/сут_x000a_(шар)" dataDxfId="17">
+    <tableColumn id="6" xr3:uid="{925D8097-425B-433B-8787-4C47A703359F}" name="D2 см2/сут_x000a_(шар)" dataDxfId="2">
       <calculatedColumnFormula>Таблица4[[#This Row],[D м2/с]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{DC4F818A-DEC1-4A2F-A44C-B7C8B0779905}" name="D0 см2/сут_x000a_(просто)" dataDxfId="16">
+    <tableColumn id="9" xr3:uid="{DC4F818A-DEC1-4A2F-A44C-B7C8B0779905}" name="D0 см2/сут_x000a_(просто)" dataDxfId="1">
       <calculatedColumnFormula>Таблица4[[#This Row],[n Па*с]]/1000*Таблица3[с]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3825,8 +3824,8 @@
   </sheetPr>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3888,8 +3887,7 @@
         <v>30</v>
       </c>
       <c r="G2" s="61">
-        <f ca="1">Таблица5[[#This Row],[w% масс 
-теор]]/100</f>
+        <f>Эксперимент!G5</f>
         <v>0</v>
       </c>
       <c r="H2" s="54">
@@ -3920,8 +3918,7 @@
         <v>32</v>
       </c>
       <c r="G3" s="61">
-        <f ca="1">Таблица5[[#This Row],[w% масс 
-теор]]/100</f>
+        <f>Эксперимент!G6</f>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="H3" s="54">
@@ -3939,9 +3936,8 @@
       <c r="E4" s="74"/>
       <c r="F4" s="75"/>
       <c r="G4" s="76">
-        <f ca="1">Таблица5[[#This Row],[w% масс 
-теор]]/100</f>
-        <v>0</v>
+        <f>Эксперимент!G7</f>
+        <v>0.05</v>
       </c>
       <c r="H4" s="77">
         <f>Эксперимент!P7</f>
@@ -3971,8 +3967,7 @@
         <v>33</v>
       </c>
       <c r="G5" s="61">
-        <f ca="1">Таблица5[[#This Row],[w% масс 
-теор]]/100</f>
+        <f>Эксперимент!G8</f>
         <v>0.05</v>
       </c>
       <c r="H5" s="54">
@@ -4000,9 +3995,8 @@
         <v>34</v>
       </c>
       <c r="G6" s="61">
-        <f ca="1">Таблица5[[#This Row],[w% масс 
-теор]]/100</f>
-        <v>7.4999999999999997E-2</v>
+        <f>Эксперимент!G9</f>
+        <v>7.5000000000000011E-2</v>
       </c>
       <c r="H6" s="54">
         <f>Эксперимент!P9</f>
@@ -4029,8 +4023,7 @@
         <v>35</v>
       </c>
       <c r="G7" s="61">
-        <f ca="1">Таблица5[[#This Row],[w% масс 
-теор]]/100</f>
+        <f>Эксперимент!G10</f>
         <v>0.1</v>
       </c>
       <c r="H7" s="54">
@@ -4058,8 +4051,7 @@
         <v>36</v>
       </c>
       <c r="G8" s="61">
-        <f ca="1">Таблица5[[#This Row],[w% масс 
-теор]]/100</f>
+        <f>Эксперимент!G11</f>
         <v>0.125</v>
       </c>
       <c r="H8" s="54">
@@ -4087,8 +4079,7 @@
         <v>37</v>
       </c>
       <c r="G9" s="61">
-        <f ca="1">Таблица5[[#This Row],[w% масс 
-теор]]/100</f>
+        <f>Эксперимент!G12</f>
         <v>0.15</v>
       </c>
       <c r="H9" s="54">
@@ -4116,8 +4107,7 @@
         <v>38</v>
       </c>
       <c r="G10" s="61">
-        <f ca="1">Таблица5[[#This Row],[w% масс 
-теор]]/100</f>
+        <f>Эксперимент!G13</f>
         <v>0.17499999999999999</v>
       </c>
       <c r="H10" s="54">
@@ -4145,9 +4135,8 @@
         <v>39</v>
       </c>
       <c r="G11" s="61">
-        <f ca="1">Таблица5[[#This Row],[w% масс 
-теор]]/100</f>
-        <v>0.2</v>
+        <f>Эксперимент!G14</f>
+        <v>0.19999999999999998</v>
       </c>
       <c r="H11" s="54">
         <f>Эксперимент!P14</f>
@@ -4169,8 +4158,8 @@
   </sheetPr>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView topLeftCell="A4" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Experiments/MultiplyTemperature/Solves.xlsx
+++ b/Experiments/MultiplyTemperature/Solves.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORKS\Diplom-work\Experiments\MultiplyTemperature\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\Diplom-work\Experiments\MultiplyTemperature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACAE7D5-1FBA-4D80-92A6-727D3288D2E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC0FA58-AF35-44BF-A3F5-C3BF6C72A231}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B4D95E1D-7DF1-45F9-84A6-56C0FCEE3758}"/>
   </bookViews>
@@ -22,18 +22,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
   <si>
     <t>ro 
 спирт</t>
@@ -292,6 +286,12 @@
   <si>
     <t>Е
  кДж</t>
+  </si>
+  <si>
+    <t>1.5 × 10–5 см2/с</t>
+  </si>
+  <si>
+    <t>Реальный;</t>
   </si>
 </sst>
 </file>
@@ -918,29 +918,6 @@
   <dxfs count="62">
     <dxf>
       <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -951,19 +928,21 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1014,237 +993,6 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="168" formatCode="0.0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="2" tint="-0.249977111117893"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="4" tint="-0.249977111117893"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border outline="0">
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="2" tint="-0.249977111117893"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0.000"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1472,6 +1220,92 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border outline="0">
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color rgb="FF00B050"/>
         <name val="Calibri"/>
         <family val="2"/>
@@ -1585,6 +1419,69 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1787,6 +1684,55 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1810,6 +1756,60 @@
         <patternFill>
           <fgColor indexed="64"/>
           <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="0.0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5586,25 +5586,25 @@
       <calculatedColumnFormula>Эксперимент[[#This Row],[С ОКМ
 М]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{986310D2-1DE5-4684-80A8-AB34FC52B68F}" name="Х" dataDxfId="8">
+    <tableColumn id="20" xr3:uid="{986310D2-1DE5-4684-80A8-AB34FC52B68F}" name="Х" dataDxfId="53">
       <calculatedColumnFormula>Аппроксимация[[#This Row],[C  спирт 
 М ]]/(Аппроксимация[[#This Row],[C  спирт 
 М ]]+Аппроксимация[[#This Row],[C ОКМ
 М ]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{20B7447A-B783-44F2-B1A4-EC86581E32E5}" name="Е_x000a_ Дж" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{DF17DCAE-D682-463C-9861-C2D5B36736D4}" name="d Е_x000a_Дж" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{EF4548E5-7C26-4D63-A0F2-B091A7D76087}" name="D _x000a_м2с" dataDxfId="53"/>
-    <tableColumn id="5" xr3:uid="{E91881F4-89DF-4CA8-8787-443661255C2B}" name="d D _x000a_м2с" dataDxfId="52"/>
-    <tableColumn id="15" xr3:uid="{449D048E-21EB-4390-9181-5E474775AD2E}" name="ro _x000a_г/мл   " dataDxfId="2">
+    <tableColumn id="2" xr3:uid="{20B7447A-B783-44F2-B1A4-EC86581E32E5}" name="Е_x000a_ Дж" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{DF17DCAE-D682-463C-9861-C2D5B36736D4}" name="d Е_x000a_Дж" dataDxfId="51"/>
+    <tableColumn id="4" xr3:uid="{EF4548E5-7C26-4D63-A0F2-B091A7D76087}" name="D _x000a_м2с" dataDxfId="50"/>
+    <tableColumn id="5" xr3:uid="{E91881F4-89DF-4CA8-8787-443661255C2B}" name="d D _x000a_м2с" dataDxfId="49"/>
+    <tableColumn id="15" xr3:uid="{449D048E-21EB-4390-9181-5E474775AD2E}" name="ro _x000a_г/мл   " dataDxfId="48">
       <calculatedColumnFormula>Эксперимент[[#This Row],[ro
 смесь г/мл   ]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{73CC65CD-60C0-458E-859A-8516E9CA96B2}" name="Е_x000a_ кДж" dataDxfId="1">
+    <tableColumn id="10" xr3:uid="{73CC65CD-60C0-458E-859A-8516E9CA96B2}" name="Е_x000a_ кДж" dataDxfId="47">
       <calculatedColumnFormula>Аппроксимация[[#This Row],[Е
  Дж]]/1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{6E9C14D8-3A36-49B6-B4C2-012E44BCDCFA}" name="d E" dataDxfId="0">
+    <tableColumn id="22" xr3:uid="{6E9C14D8-3A36-49B6-B4C2-012E44BCDCFA}" name="d E" dataDxfId="46">
       <calculatedColumnFormula>VLOOKUP(Аппроксимация[[#This Row],[Х]],Таблица12[],2)-Аппроксимация[[#This Row],[Е
  кДж]]</calculatedColumnFormula>
     </tableColumn>
@@ -5614,14 +5614,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{48B0AECA-8ECA-4EC0-842B-5628FA4C9F5F}" name="Таблица12" displayName="Таблица12" ref="Q4:R265" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{48B0AECA-8ECA-4EC0-842B-5628FA4C9F5F}" name="Таблица12" displayName="Таблица12" ref="Q4:R265" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
   <autoFilter ref="Q4:R265" xr:uid="{EB61DCCC-95D3-478E-9CB9-6521FBDAC904}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{AA6FAF22-11E0-42F0-99E3-1111C86D0712}" name="x" dataDxfId="49"/>
-    <tableColumn id="2" xr3:uid="{0A20EB63-7F78-45D0-9508-B3013E7FA847}" name="E" dataDxfId="48">
+    <tableColumn id="1" xr3:uid="{AA6FAF22-11E0-42F0-99E3-1111C86D0712}" name="x" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{0A20EB63-7F78-45D0-9508-B3013E7FA847}" name="E" dataDxfId="42">
       <calculatedColumnFormula>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5636,7 +5636,7 @@
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{727CA1B6-BBA1-44D9-9745-C5235BB0FF2A}" name="E 0" dataDxfId="47">
+    <tableColumn id="1" xr3:uid="{727CA1B6-BBA1-44D9-9745-C5235BB0FF2A}" name="E 0" dataDxfId="41">
       <calculatedColumnFormula>N5</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{6053756B-AA13-4328-8A48-0B487C7AEC64}" name="E 100">
@@ -5648,7 +5648,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{23D3B64E-5883-4DDC-BE47-CAE203CDCD51}" name="Эксперимент" displayName="Эксперимент" ref="A4:W14" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{23D3B64E-5883-4DDC-BE47-CAE203CDCD51}" name="Эксперимент" displayName="Эксперимент" ref="A4:W14" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
   <autoFilter ref="A4:W14" xr:uid="{B8DF02FA-3140-484C-B272-AB560FB12BBD}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -5675,66 +5675,66 @@
     <filterColumn colId="22" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="23">
-    <tableColumn id="14" xr3:uid="{77FFFFAD-27FE-4585-A8A5-4920141174AB}" name="#" dataDxfId="44">
+    <tableColumn id="14" xr3:uid="{77FFFFAD-27FE-4585-A8A5-4920141174AB}" name="#" dataDxfId="38">
       <calculatedColumnFormula>A4+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{48747F86-4026-4D8A-857D-4C04ECCD38B1}" name="Доп" dataDxfId="43"/>
-    <tableColumn id="12" xr3:uid="{1871877F-C7B7-4C72-AF32-DB1A3FABAFCC}" name="m_x000a_стакан" dataDxfId="42"/>
-    <tableColumn id="1" xr3:uid="{6A216FEE-C1E1-40E4-815E-5380A5321732}" name="m0_x000a_смесь    _x000a_стакан" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{D1757256-BC6C-420E-BEA8-B604BC77F285}" name="m0_x000a_смесь" dataDxfId="40">
+    <tableColumn id="17" xr3:uid="{48747F86-4026-4D8A-857D-4C04ECCD38B1}" name="Доп" dataDxfId="37"/>
+    <tableColumn id="12" xr3:uid="{1871877F-C7B7-4C72-AF32-DB1A3FABAFCC}" name="m_x000a_стакан" dataDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{6A216FEE-C1E1-40E4-815E-5380A5321732}" name="m0_x000a_смесь    _x000a_стакан" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{D1757256-BC6C-420E-BEA8-B604BC77F285}" name="m0_x000a_смесь" dataDxfId="34">
       <calculatedColumnFormula>Эксперимент[[#This Row],[m0
 смесь    
 стакан]]-Эксперимент[[#This Row],[m
 стакан]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5E2A2C51-8E70-4FD9-9B53-E7837EF2D163}" name="m0_x000a_ОКМ" dataDxfId="39">
+    <tableColumn id="3" xr3:uid="{5E2A2C51-8E70-4FD9-9B53-E7837EF2D163}" name="m0_x000a_ОКМ" dataDxfId="33">
       <calculatedColumnFormula>Эксперимент[[#This Row],[m0
 смесь]]*(1-Q4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{D1940891-C2DF-4AB7-A8E2-AF06FDA60F0D}" name="m0_x000a_спирт" dataDxfId="15">
+    <tableColumn id="4" xr3:uid="{D1940891-C2DF-4AB7-A8E2-AF06FDA60F0D}" name="m0_x000a_спирт" dataDxfId="32">
       <calculatedColumnFormula>Эксперимент[[#This Row],[m0
 смесь]]*Q4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{78FAF393-3070-4836-B8E9-4D79C52F839F}" name="w%1 т_x000a_спирт " dataDxfId="13">
+    <tableColumn id="6" xr3:uid="{78FAF393-3070-4836-B8E9-4D79C52F839F}" name="w%1 т_x000a_спирт " dataDxfId="31">
       <calculatedColumnFormula>H4+0.025</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{EA5712E3-E93C-456A-9EDE-9A8CA94753D1}" name="m+ т_x000a_спирт" dataDxfId="14">
+    <tableColumn id="7" xr3:uid="{EA5712E3-E93C-456A-9EDE-9A8CA94753D1}" name="m+ т_x000a_спирт" dataDxfId="30">
       <calculatedColumnFormula>(Эксперимент[[#This Row],[m0
 смесь]]*Эксперимент[[#This Row],[w%1 т
 спирт ]]-Эксперимент[[#This Row],[m0
 спирт]])/(1-Эксперимент[[#This Row],[w%1 т
 спирт ]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{BCA134A9-8EEF-453E-9616-5112E6D2B5D5}" name="V+ т_x000a_спирт" dataDxfId="38">
+    <tableColumn id="8" xr3:uid="{BCA134A9-8EEF-453E-9616-5112E6D2B5D5}" name="V+ т_x000a_спирт" dataDxfId="29">
       <calculatedColumnFormula>Эксперимент[[#This Row],[m+ т
 спирт]]/Эксперимент_доп[ro 
 спирт]*1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{36EC5429-FC05-4032-BBD0-3C2B1210A8F9}" name="m1 _x000a_смесь_x000a_стакан" dataDxfId="37"/>
-    <tableColumn id="10" xr3:uid="{F3443B4E-6300-47B1-8E7C-FC3BF1A5E3CD}" name="m1_x000a_смеси" dataDxfId="36"/>
-    <tableColumn id="11" xr3:uid="{D23B2127-A60A-4E45-A0EF-767833FF7A03}" name="m+_x000a_спирта" dataDxfId="35"/>
-    <tableColumn id="15" xr3:uid="{13B47A94-234C-4A1B-B993-FBE523863A83}" name="m2_x000a_смесь_x000a_стакан" dataDxfId="34"/>
-    <tableColumn id="13" xr3:uid="{22F644F7-5CB7-438A-9D0D-9E88DE87DE4D}" name="m2_x000a_смеси" dataDxfId="33"/>
-    <tableColumn id="16" xr3:uid="{96247A00-C27E-4AC1-85FF-B6D781503BD2}" name="m+_x000a_ОКМ" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{896470BD-9890-41DA-8AB1-D5964728C2BF}" name="w%1 _x000a_" dataDxfId="12"/>
-    <tableColumn id="18" xr3:uid="{0820FB03-01B9-44DB-82B9-D6B83878BDC8}" name="mП г_x000a_пик" dataDxfId="11"/>
-    <tableColumn id="19" xr3:uid="{26D687AE-1683-4A1E-B7EF-88F7CDAEA278}" name="mП г_x000a_смесь    _x000a_пик " dataDxfId="9"/>
-    <tableColumn id="20" xr3:uid="{A0C32414-2F25-4C19-AB7C-56D7E5582549}" name="mП г_x000a_смесь     " dataDxfId="10">
+    <tableColumn id="9" xr3:uid="{36EC5429-FC05-4032-BBD0-3C2B1210A8F9}" name="m1 _x000a_смесь_x000a_стакан" dataDxfId="28"/>
+    <tableColumn id="10" xr3:uid="{F3443B4E-6300-47B1-8E7C-FC3BF1A5E3CD}" name="m1_x000a_смеси" dataDxfId="27"/>
+    <tableColumn id="11" xr3:uid="{D23B2127-A60A-4E45-A0EF-767833FF7A03}" name="m+_x000a_спирта" dataDxfId="26"/>
+    <tableColumn id="15" xr3:uid="{13B47A94-234C-4A1B-B993-FBE523863A83}" name="m2_x000a_смесь_x000a_стакан" dataDxfId="25"/>
+    <tableColumn id="13" xr3:uid="{22F644F7-5CB7-438A-9D0D-9E88DE87DE4D}" name="m2_x000a_смеси" dataDxfId="24"/>
+    <tableColumn id="16" xr3:uid="{96247A00-C27E-4AC1-85FF-B6D781503BD2}" name="m+_x000a_ОКМ" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{896470BD-9890-41DA-8AB1-D5964728C2BF}" name="w%1 _x000a_" dataDxfId="22"/>
+    <tableColumn id="18" xr3:uid="{0820FB03-01B9-44DB-82B9-D6B83878BDC8}" name="mП г_x000a_пик" dataDxfId="21"/>
+    <tableColumn id="19" xr3:uid="{26D687AE-1683-4A1E-B7EF-88F7CDAEA278}" name="mП г_x000a_смесь    _x000a_пик " dataDxfId="20"/>
+    <tableColumn id="20" xr3:uid="{A0C32414-2F25-4C19-AB7C-56D7E5582549}" name="mП г_x000a_смесь     " dataDxfId="19">
       <calculatedColumnFormula>Эксперимент[[#This Row],[mП г
 смесь    
 пик ]]-Эксперимент[[#This Row],[mП г
 пик]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{9EDFC20E-DF6D-40C2-BDD4-FD2ADF247B6C}" name="ro_x000a_смесь г/мл   " dataDxfId="31">
+    <tableColumn id="21" xr3:uid="{9EDFC20E-DF6D-40C2-BDD4-FD2ADF247B6C}" name="ro_x000a_смесь г/мл   " dataDxfId="18">
       <calculatedColumnFormula>Эксперимент[[#This Row],[mП г
 смесь     ]]/Плотности_доп[V пик мл]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{C0681BE5-CAF9-4795-84C4-D0BAD37D47FB}" name="C спирт М " dataDxfId="30">
+    <tableColumn id="22" xr3:uid="{C0681BE5-CAF9-4795-84C4-D0BAD37D47FB}" name="C спирт М " dataDxfId="17">
       <calculatedColumnFormula>Эксперимент[[#This Row],[w%1 
 ]]*Эксперимент[[#This Row],[mП г
 смесь     ]]/Плотности_доп[M спирт г/моль]*1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{BCE0D3E6-5855-4685-8CB4-47083FF3D99D}" name="С ОКМ_x000a_М" dataDxfId="29">
+    <tableColumn id="23" xr3:uid="{BCE0D3E6-5855-4685-8CB4-47083FF3D99D}" name="С ОКМ_x000a_М" dataDxfId="16">
       <calculatedColumnFormula>(1-Эксперимент[[#This Row],[w%1 
 ]])*Эксперимент[[#This Row],[mП г
 смесь     ]]/Плотности_доп[M ОКМ г/моль]*1000</calculatedColumnFormula>
@@ -5745,19 +5745,19 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{566E47B1-38C6-4891-933F-DFE3ED9B6D33}" name="Эксперимент_доп" displayName="Эксперимент_доп" ref="J1:J2" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{566E47B1-38C6-4891-933F-DFE3ED9B6D33}" name="Эксперимент_доп" displayName="Эксперимент_доп" ref="J1:J2" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="J1:J2" xr:uid="{FE5521C9-5D13-479F-9E53-564B5B98F3E0}">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
-    <tableColumn id="2" xr3:uid="{A6AA64F7-0B92-4711-9CE9-3080CD0125E2}" name="ro _x000a_спирт" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{A6AA64F7-0B92-4711-9CE9-3080CD0125E2}" name="ro _x000a_спирт" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{27E4BF77-3067-4CAF-B1D9-890373194B67}" name="Плотности_доп" displayName="Плотности_доп" ref="U1:W2" totalsRowShown="0" headerRowDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{27E4BF77-3067-4CAF-B1D9-890373194B67}" name="Плотности_доп" displayName="Плотности_доп" ref="U1:W2" totalsRowShown="0" headerRowDxfId="12">
   <autoFilter ref="U1:W2" xr:uid="{06838B1B-BD17-4A05-B569-F0CD134B544A}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -5773,7 +5773,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{FDEB74B0-7CC0-426B-AF13-D49846CEA263}" name="Таблица11" displayName="Таблица11" ref="A4:G25" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21" totalsRowBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{FDEB74B0-7CC0-426B-AF13-D49846CEA263}" name="Таблица11" displayName="Таблица11" ref="A4:G25" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <autoFilter ref="A4:G25" xr:uid="{FBEE8ADA-637B-4A6C-9151-BF70C924F850}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -5784,22 +5784,22 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{4646E664-44DF-45A5-8228-5F811DE71838}" name="t_x000a_C" dataDxfId="19" dataCellStyle="Обычный_Спирт"/>
+    <tableColumn id="1" xr3:uid="{4646E664-44DF-45A5-8228-5F811DE71838}" name="t_x000a_C" dataDxfId="6" dataCellStyle="Обычный_Спирт"/>
     <tableColumn id="8" xr3:uid="{C859729B-C019-4D08-ACA4-3B460AD86104}" name="T _x000a_K" dataDxfId="5" dataCellStyle="Обычный_Спирт">
       <calculatedColumnFormula>Таблица11[[#This Row],[t
 C]]+273.15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{B55F4A07-4D55-496A-98F4-7923D8F9F3D3}" name="ro _x000a_кг/м3" dataDxfId="18" dataCellStyle="Обычный_Спирт"/>
-    <tableColumn id="3" xr3:uid="{ED4CBB59-1BA5-4214-BACA-64678EE13752}" name="nu *106 Па с" dataDxfId="17" dataCellStyle="Обычный_Спирт"/>
-    <tableColumn id="4" xr3:uid="{DD1EE465-F62F-4809-907D-A262F14D304E}" name="1/T _x000a_K-1" dataDxfId="4">
+    <tableColumn id="2" xr3:uid="{B55F4A07-4D55-496A-98F4-7923D8F9F3D3}" name="ro _x000a_кг/м3" dataDxfId="4" dataCellStyle="Обычный_Спирт"/>
+    <tableColumn id="3" xr3:uid="{ED4CBB59-1BA5-4214-BACA-64678EE13752}" name="nu *106 Па с" dataDxfId="3" dataCellStyle="Обычный_Спирт"/>
+    <tableColumn id="4" xr3:uid="{DD1EE465-F62F-4809-907D-A262F14D304E}" name="1/T _x000a_K-1" dataDxfId="2">
       <calculatedColumnFormula>1/Таблица11[[#This Row],[T 
 K]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{764FF33D-1A62-4388-9118-018F46291530}" name="D _x000a_м2с" dataDxfId="3">
+    <tableColumn id="5" xr3:uid="{764FF33D-1A62-4388-9118-018F46291530}" name="D _x000a_м2с" dataDxfId="1">
       <calculatedColumnFormula>$E$2*Таблица11[[#This Row],[T 
 K]]/Таблица11[[#This Row],[nu *106 Па с]]*10^6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C8442FD2-4608-4C95-B225-0E3ADEA9ED66}" name="ln D" dataDxfId="16" dataCellStyle="Обычный_Спирт">
+    <tableColumn id="6" xr3:uid="{C8442FD2-4608-4C95-B225-0E3ADEA9ED66}" name="ln D" dataDxfId="0" dataCellStyle="Обычный_Спирт">
       <calculatedColumnFormula>LN(Таблица11[[#This Row],[D 
 м2с]])</calculatedColumnFormula>
     </tableColumn>
@@ -6108,10 +6108,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:R265"/>
+  <dimension ref="A1:T265"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6129,7 +6129,7 @@
     <col min="15" max="15" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="81" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" s="81" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="82"/>
@@ -6140,7 +6140,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
       <c r="J2" s="83"/>
@@ -6154,7 +6154,7 @@
         <v>21.248089799999999</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="52" t="s">
         <v>32</v>
       </c>
@@ -6207,7 +6207,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -6276,7 +6276,7 @@
         <v>59.378052473784322</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="55">
         <v>2</v>
       </c>
@@ -6341,8 +6341,11 @@
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>59.339922511110537</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="T6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>28</v>
       </c>
@@ -6401,7 +6404,7 @@
         <v>59.301792548436751</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="55">
         <v>4</v>
       </c>
@@ -6466,8 +6469,11 @@
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>59.263662585762965</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B9" s="55">
         <v>5</v>
       </c>
@@ -6533,7 +6539,7 @@
         <v>59.225532623089187</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B10" s="55">
         <v>6</v>
       </c>
@@ -6599,7 +6605,7 @@
         <v>59.187402660415401</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="55">
         <v>7</v>
       </c>
@@ -6665,7 +6671,7 @@
         <v>59.149272697741615</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="55">
         <v>8</v>
       </c>
@@ -6730,8 +6736,12 @@
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>59.11114273506783</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T12" s="4">
+        <f>K5*EXP(-I5/8.314/288)</f>
+        <v>1.364926037277355E-20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="55">
         <v>9</v>
       </c>
@@ -6796,8 +6806,12 @@
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>59.073012772394051</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T13" s="4">
+        <f>K14*EXP(-I14/8.314/288)</f>
+        <v>9.3884810291104399E-20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B14" s="55">
         <v>10</v>
       </c>
@@ -6863,7 +6877,7 @@
         <v>59.034882809720258</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q15" s="97">
         <v>0.01</v>
       </c>
@@ -6872,7 +6886,7 @@
         <v>58.99675284704648</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q16" s="97">
         <v>1.0999999999999999E-2</v>
       </c>
@@ -10640,7 +10654,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Experiments/MultiplyTemperature/Solves.xlsx
+++ b/Experiments/MultiplyTemperature/Solves.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\Diplom-work\Experiments\MultiplyTemperature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC0FA58-AF35-44BF-A3F5-C3BF6C72A231}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE27A5A1-877C-4429-A331-26D82872E990}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B4D95E1D-7DF1-45F9-84A6-56C0FCEE3758}"/>
   </bookViews>
@@ -197,9 +197,6 @@
 г/мл   </t>
   </si>
   <si>
-    <t>Х</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
@@ -292,6 +289,9 @@
   </si>
   <si>
     <t>Реальный;</t>
+  </si>
+  <si>
+    <t>Х спирт</t>
   </si>
 </sst>
 </file>
@@ -2062,28 +2062,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2036739716073591E-2</c:v>
+                  <c:v>0.18474645719966951</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.6071647960503688E-2</c:v>
+                  <c:v>0.32632279736042979</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.9892325268307561E-2</c:v>
+                  <c:v>0.43177188576386294</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.13126962000829834</c:v>
+                  <c:v>0.50850331974744278</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1591698361937012</c:v>
+                  <c:v>0.56448340526923468</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.19129848162762375</c:v>
+                  <c:v>0.61826748266783738</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.22240967383128515</c:v>
+                  <c:v>0.66197708277032674</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.25215549819329625</c:v>
+                  <c:v>0.69775854004389526</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2151,1578 +2151,1218 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Результаты!$Q$5:$Q$265</c:f>
+              <c:f>Результаты!$Q$5:$Q$205</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="260"/>
+                <c:ptCount val="200"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1E-3</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0000000000000001E-3</c:v>
+                  <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0000000000000001E-3</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0000000000000001E-3</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0000000000000001E-3</c:v>
+                  <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0000000000000002E-3</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.9999999999999993E-3</c:v>
+                  <c:v>4.4999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.01</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0999999999999999E-2</c:v>
+                  <c:v>5.5E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.2E-2</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.2999999999999999E-2</c:v>
+                  <c:v>6.5000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.4E-2</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.4999999999999999E-2</c:v>
+                  <c:v>7.4999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.6E-2</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.7000000000000001E-2</c:v>
+                  <c:v>8.5000000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.7999999999999999E-2</c:v>
+                  <c:v>0.09</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.9E-2</c:v>
+                  <c:v>9.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.02</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.1000000000000001E-2</c:v>
+                  <c:v>0.105</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.1999999999999999E-2</c:v>
+                  <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.3E-2</c:v>
+                  <c:v>0.115</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.4E-2</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.5000000000000001E-2</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.5999999999999999E-2</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.7E-2</c:v>
+                  <c:v>0.13500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.8000000000000001E-2</c:v>
+                  <c:v>0.14000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.9000000000000001E-2</c:v>
+                  <c:v>0.14499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.03</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.1E-2</c:v>
+                  <c:v>0.155</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.2000000000000001E-2</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.3000000000000002E-2</c:v>
+                  <c:v>0.16500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.4000000000000002E-2</c:v>
+                  <c:v>0.17</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.5000000000000003E-2</c:v>
+                  <c:v>0.17499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.5999999999999997E-2</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.6999999999999998E-2</c:v>
+                  <c:v>0.185</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.7999999999999999E-2</c:v>
+                  <c:v>0.19</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.9E-2</c:v>
+                  <c:v>0.19500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.04</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.1000000000000002E-2</c:v>
+                  <c:v>0.20499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.2000000000000003E-2</c:v>
+                  <c:v>0.21</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.2999999999999997E-2</c:v>
+                  <c:v>0.215</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4.3999999999999997E-2</c:v>
+                  <c:v>0.22</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4.4999999999999998E-2</c:v>
+                  <c:v>0.22500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4.5999999999999999E-2</c:v>
+                  <c:v>0.23</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4.7E-2</c:v>
+                  <c:v>0.23499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.8000000000000001E-2</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4.9000000000000002E-2</c:v>
+                  <c:v>0.245</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.05</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5.0999999999999997E-2</c:v>
+                  <c:v>0.255</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5.1999999999999998E-2</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5.2999999999999999E-2</c:v>
+                  <c:v>0.26500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5.3999999999999999E-2</c:v>
+                  <c:v>0.27</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>5.5E-2</c:v>
+                  <c:v>0.27500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>5.6000000000000001E-2</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5.7000000000000002E-2</c:v>
+                  <c:v>0.28499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5.8000000000000003E-2</c:v>
+                  <c:v>0.28999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5.8999999999999997E-2</c:v>
+                  <c:v>0.29499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.06</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6.0999999999999999E-2</c:v>
+                  <c:v>0.30499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6.2E-2</c:v>
+                  <c:v>0.31</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>6.3E-2</c:v>
+                  <c:v>0.315</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>6.4000000000000001E-2</c:v>
+                  <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>6.5000000000000002E-2</c:v>
+                  <c:v>0.32500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>6.6000000000000003E-2</c:v>
+                  <c:v>0.33</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>6.7000000000000004E-2</c:v>
+                  <c:v>0.33500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>6.8000000000000005E-2</c:v>
+                  <c:v>0.34</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>6.9000000000000006E-2</c:v>
+                  <c:v>0.34499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>7.0999999999999994E-2</c:v>
+                  <c:v>0.35499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>7.1999999999999995E-2</c:v>
+                  <c:v>0.36</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>7.2999999999999995E-2</c:v>
+                  <c:v>0.36499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>7.3999999999999996E-2</c:v>
+                  <c:v>0.37</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>7.4999999999999997E-2</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>7.5999999999999998E-2</c:v>
+                  <c:v>0.38</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>7.6999999999999999E-2</c:v>
+                  <c:v>0.38500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>7.8E-2</c:v>
+                  <c:v>0.39</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>7.9000000000000001E-2</c:v>
+                  <c:v>0.39500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.08</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>8.1000000000000003E-2</c:v>
+                  <c:v>0.40500000000000003</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>8.2000000000000003E-2</c:v>
+                  <c:v>0.41</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>8.3000000000000004E-2</c:v>
+                  <c:v>0.41499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>8.4000000000000005E-2</c:v>
+                  <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>8.5000000000000006E-2</c:v>
+                  <c:v>0.42499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>8.5999999999999993E-2</c:v>
+                  <c:v>0.43</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>8.6999999999999994E-2</c:v>
+                  <c:v>0.435</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>8.7999999999999995E-2</c:v>
+                  <c:v>0.44</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>8.8999999999999996E-2</c:v>
+                  <c:v>0.44500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.09</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>9.0999999999999998E-2</c:v>
+                  <c:v>0.45500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>9.1999999999999998E-2</c:v>
+                  <c:v>0.46</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>9.2999999999999999E-2</c:v>
+                  <c:v>0.46500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>9.4E-2</c:v>
+                  <c:v>0.47</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>9.5000000000000001E-2</c:v>
+                  <c:v>0.47499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>9.6000000000000002E-2</c:v>
+                  <c:v>0.48</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>9.7000000000000003E-2</c:v>
+                  <c:v>0.48499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>9.8000000000000004E-2</c:v>
+                  <c:v>0.49</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>9.9000000000000005E-2</c:v>
+                  <c:v>0.495</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.1</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.10100000000000001</c:v>
+                  <c:v>0.505</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.10199999999999999</c:v>
+                  <c:v>0.51</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.10299999999999999</c:v>
+                  <c:v>0.51500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.104</c:v>
+                  <c:v>0.52</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.105</c:v>
+                  <c:v>0.52500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.106</c:v>
+                  <c:v>0.53</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.107</c:v>
+                  <c:v>0.53500000000000003</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.108</c:v>
+                  <c:v>0.54</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.109</c:v>
+                  <c:v>0.54500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.11</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.111</c:v>
+                  <c:v>0.55500000000000005</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.112</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.113</c:v>
+                  <c:v>0.56499999999999995</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.114</c:v>
+                  <c:v>0.56999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.115</c:v>
+                  <c:v>0.57499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.11600000000000001</c:v>
+                  <c:v>0.57999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.11700000000000001</c:v>
+                  <c:v>0.58499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.11799999999999999</c:v>
+                  <c:v>0.59</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.11899999999999999</c:v>
+                  <c:v>0.59499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.12</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.121</c:v>
+                  <c:v>0.60499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.122</c:v>
+                  <c:v>0.61</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.123</c:v>
+                  <c:v>0.61499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.124</c:v>
+                  <c:v>0.62</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.125</c:v>
+                  <c:v>0.625</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.126</c:v>
+                  <c:v>0.63</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.127</c:v>
+                  <c:v>0.63500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.128</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.129</c:v>
+                  <c:v>0.64500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.13</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.13100000000000001</c:v>
+                  <c:v>0.65500000000000003</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.13200000000000001</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.13300000000000001</c:v>
+                  <c:v>0.66500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.13400000000000001</c:v>
+                  <c:v>0.67</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.13500000000000001</c:v>
+                  <c:v>0.67500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.13600000000000001</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.13700000000000001</c:v>
+                  <c:v>0.68500000000000005</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.13800000000000001</c:v>
+                  <c:v>0.69</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.13900000000000001</c:v>
+                  <c:v>0.69499999999999995</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.14000000000000001</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0.14099999999999999</c:v>
+                  <c:v>0.70499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.14199999999999999</c:v>
+                  <c:v>0.71</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.14299999999999999</c:v>
+                  <c:v>0.71499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.14399999999999999</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.14499999999999999</c:v>
+                  <c:v>0.72499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.14599999999999999</c:v>
+                  <c:v>0.73</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.14699999999999999</c:v>
+                  <c:v>0.73499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.14799999999999999</c:v>
+                  <c:v>0.74</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.14899999999999999</c:v>
+                  <c:v>0.745</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.15</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.151</c:v>
+                  <c:v>0.755</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0.152</c:v>
+                  <c:v>0.76</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.153</c:v>
+                  <c:v>0.76500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0.154</c:v>
+                  <c:v>0.77</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0.155</c:v>
+                  <c:v>0.77500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>0.156</c:v>
+                  <c:v>0.78</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0.157</c:v>
+                  <c:v>0.78500000000000003</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0.158</c:v>
+                  <c:v>0.79</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0.159</c:v>
+                  <c:v>0.79500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>0.16</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>0.161</c:v>
+                  <c:v>0.80500000000000005</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>0.16200000000000001</c:v>
+                  <c:v>0.81</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0.16300000000000001</c:v>
+                  <c:v>0.81499999999999995</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0.16400000000000001</c:v>
+                  <c:v>0.82</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0.16500000000000001</c:v>
+                  <c:v>0.82499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0.16600000000000001</c:v>
+                  <c:v>0.83</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>0.16700000000000001</c:v>
+                  <c:v>0.83499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>0.16800000000000001</c:v>
+                  <c:v>0.84</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>0.16900000000000001</c:v>
+                  <c:v>0.84499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>0.17</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>0.17100000000000001</c:v>
+                  <c:v>0.85499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>0.17199999999999999</c:v>
+                  <c:v>0.86</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>0.17299999999999999</c:v>
+                  <c:v>0.86499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>0.17399999999999999</c:v>
+                  <c:v>0.87</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>0.17499999999999999</c:v>
+                  <c:v>0.875</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>0.17599999999999999</c:v>
+                  <c:v>0.88</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>0.17699999999999999</c:v>
+                  <c:v>0.88500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>0.17799999999999999</c:v>
+                  <c:v>0.89</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>0.17899999999999999</c:v>
+                  <c:v>0.89500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>0.18</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>0.18099999999999999</c:v>
+                  <c:v>0.90500000000000003</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>0.182</c:v>
+                  <c:v>0.91</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>0.183</c:v>
+                  <c:v>0.91500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>0.184</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>0.185</c:v>
+                  <c:v>0.92500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>0.186</c:v>
+                  <c:v>0.93</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>0.187</c:v>
+                  <c:v>0.93500000000000005</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>0.188</c:v>
+                  <c:v>0.94</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>0.189</c:v>
+                  <c:v>0.94499999999999995</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0.19</c:v>
+                  <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0.191</c:v>
+                  <c:v>0.95499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>0.192</c:v>
+                  <c:v>0.96</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>0.193</c:v>
+                  <c:v>0.96499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>0.19400000000000001</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>0.19500000000000001</c:v>
+                  <c:v>0.97499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>0.19600000000000001</c:v>
+                  <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>0.19700000000000001</c:v>
+                  <c:v>0.98499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>0.19800000000000001</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>0.19900000000000001</c:v>
+                  <c:v>0.995</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>0.20100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>0.20200000000000001</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>0.20300000000000001</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>0.20399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>0.20499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>0.20599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>0.20699999999999999</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>0.20799999999999999</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>0.20899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>0.21</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>0.21099999999999999</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>0.21199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>0.21299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>0.214</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>0.215</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>0.216</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>0.217</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>0.218</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>0.219</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>0.22</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>0.221</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>0.222</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>0.223</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>0.224</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>0.22500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>0.22600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>0.22700000000000001</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>0.22800000000000001</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>0.22900000000000001</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>0.23</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>0.23100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>0.23200000000000001</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>0.23300000000000001</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>0.23400000000000001</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>0.23499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>0.23599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>0.23699999999999999</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>0.23799999999999999</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>0.23899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>0.24</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>0.24099999999999999</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>0.24199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>0.24299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>0.24399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>0.245</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>0.246</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>0.247</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>0.248</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>0.249</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>0.251</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>0.252</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>0.253</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>0.254</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>0.255</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>0.25600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>0.25700000000000001</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>0.25800000000000001</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>0.25900000000000001</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>0.26</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Результаты!$R$5:$R$265</c:f>
+              <c:f>Результаты!$R$5:$R$205</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="260"/>
+                <c:ptCount val="200"/>
                 <c:pt idx="0">
                   <c:v>59.378052473784322</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>59.339922511110537</c:v>
+                  <c:v>59.187402660415401</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59.263662585762965</c:v>
+                  <c:v>58.806103033677559</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>59.225532623089187</c:v>
+                  <c:v>58.61545322030863</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>59.187402660415401</c:v>
+                  <c:v>58.424803406939716</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>59.149272697741615</c:v>
+                  <c:v>58.234153593570788</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>59.11114273506783</c:v>
+                  <c:v>58.043503780201867</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>59.073012772394051</c:v>
+                  <c:v>57.852853966832953</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>59.034882809720258</c:v>
+                  <c:v>57.662204153464025</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>58.99675284704648</c:v>
+                  <c:v>57.471554340095103</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>58.958622884372694</c:v>
+                  <c:v>57.280904526726175</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>58.920492921698916</c:v>
+                  <c:v>57.090254713357261</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>58.882362959025123</c:v>
+                  <c:v>56.899604899988347</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>58.844232996351337</c:v>
+                  <c:v>56.708955086619412</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>58.806103033677559</c:v>
+                  <c:v>56.518305273250505</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>58.767973071003766</c:v>
+                  <c:v>56.327655459881576</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>58.729843108329987</c:v>
+                  <c:v>56.137005646512655</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>58.691713145656202</c:v>
+                  <c:v>55.946355833143734</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>58.653583182982423</c:v>
+                  <c:v>55.755706019774813</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>58.61545322030863</c:v>
+                  <c:v>55.565056206405892</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>58.577323257634852</c:v>
+                  <c:v>55.374406393036971</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>58.539193294961066</c:v>
+                  <c:v>55.183756579668049</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>58.501063332287281</c:v>
+                  <c:v>54.993106766299121</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>58.462933369613495</c:v>
+                  <c:v>54.802456952930207</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>58.424803406939716</c:v>
+                  <c:v>54.611807139561279</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>58.386673444265931</c:v>
+                  <c:v>54.421157326192358</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>58.348543481592145</c:v>
+                  <c:v>54.230507512823444</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>58.310413518918359</c:v>
+                  <c:v>54.039857699454515</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>58.272283556244574</c:v>
+                  <c:v>53.849207886085594</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>58.234153593570788</c:v>
+                  <c:v>53.658558072716673</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>58.196023630897002</c:v>
+                  <c:v>53.467908259347752</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>58.157893668223224</c:v>
+                  <c:v>53.277258445978831</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>58.119763705549438</c:v>
+                  <c:v>53.086608632609909</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>58.081633742875653</c:v>
+                  <c:v>52.895958819240988</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>58.043503780201867</c:v>
+                  <c:v>52.70530900587206</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>58.005373817528088</c:v>
+                  <c:v>52.514659192503146</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>57.967243854854303</c:v>
+                  <c:v>52.324009379134218</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>57.929113892180517</c:v>
+                  <c:v>52.133359565765304</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>57.890983929506731</c:v>
+                  <c:v>51.942709752396375</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>57.852853966832953</c:v>
+                  <c:v>51.752059939027461</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>57.81472400415916</c:v>
+                  <c:v>51.56141012565854</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>57.776594041485374</c:v>
+                  <c:v>51.370760312289612</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>57.738464078811596</c:v>
+                  <c:v>51.180110498920698</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>57.70033411613781</c:v>
+                  <c:v>50.989460685551776</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>57.662204153464025</c:v>
+                  <c:v>50.798810872182848</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>57.624074190790239</c:v>
+                  <c:v>50.608161058813934</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>57.58594422811646</c:v>
+                  <c:v>50.417511245445006</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>57.547814265442668</c:v>
+                  <c:v>50.226861432076085</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>57.509684302768889</c:v>
+                  <c:v>50.036211618707156</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>57.471554340095103</c:v>
+                  <c:v>49.845561805338242</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>57.433424377421325</c:v>
+                  <c:v>49.654911991969321</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>57.395294414747532</c:v>
+                  <c:v>49.464262178600393</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>57.357164452073754</c:v>
+                  <c:v>49.273612365231479</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>57.319034489399968</c:v>
+                  <c:v>49.082962551862551</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>57.280904526726175</c:v>
+                  <c:v>48.892312738493629</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>57.242774564052397</c:v>
+                  <c:v>48.701662925124708</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>57.204644601378611</c:v>
+                  <c:v>48.511013111755794</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>57.166514638704832</c:v>
+                  <c:v>48.320363298386866</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>57.128384676031047</c:v>
+                  <c:v>48.129713485017952</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>57.090254713357261</c:v>
+                  <c:v>47.939063671649023</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>57.052124750683483</c:v>
+                  <c:v>47.748413858280102</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>57.01399478800969</c:v>
+                  <c:v>47.557764044911181</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>56.975864825335911</c:v>
+                  <c:v>47.367114231542267</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>56.937734862662126</c:v>
+                  <c:v>47.176464418173332</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>56.899604899988347</c:v>
+                  <c:v>46.985814604804425</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>56.861474937314554</c:v>
+                  <c:v>46.795164791435489</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>56.823344974640776</c:v>
+                  <c:v>46.604514978066575</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>56.78521501196699</c:v>
+                  <c:v>46.413865164697647</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>56.747085049293204</c:v>
+                  <c:v>46.223215351328733</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>56.708955086619412</c:v>
+                  <c:v>46.032565537959812</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>56.67082512394564</c:v>
+                  <c:v>45.841915724590891</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>56.632695161271855</c:v>
+                  <c:v>45.651265911221969</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>56.594565198598069</c:v>
+                  <c:v>45.460616097853041</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>56.556435235924283</c:v>
+                  <c:v>45.269966284484127</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>56.518305273250505</c:v>
+                  <c:v>45.079316471115206</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>56.480175310576712</c:v>
+                  <c:v>44.888666657746278</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>56.442045347902933</c:v>
+                  <c:v>44.698016844377364</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>56.403915385229148</c:v>
+                  <c:v>44.507367031008435</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>56.365785422555369</c:v>
+                  <c:v>44.316717217639514</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>56.327655459881576</c:v>
+                  <c:v>44.126067404270586</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>56.289525497207798</c:v>
+                  <c:v>43.935417590901672</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>56.251395534534012</c:v>
+                  <c:v>43.744767777532758</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>56.213265571860219</c:v>
+                  <c:v>43.554117964163822</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>56.175135609186441</c:v>
+                  <c:v>43.363468150794915</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>56.137005646512655</c:v>
+                  <c:v>43.17281833742598</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>56.098875683838877</c:v>
+                  <c:v>42.982168524057066</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>56.060745721165084</c:v>
+                  <c:v>42.791518710688138</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>56.022615758491305</c:v>
+                  <c:v>42.600868897319224</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>55.98448579581752</c:v>
+                  <c:v>42.410219083950295</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>55.946355833143734</c:v>
+                  <c:v>42.219569270581374</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>55.908225870469948</c:v>
+                  <c:v>42.028919457212453</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>55.87009590779617</c:v>
+                  <c:v>41.838269643843532</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>55.831965945122384</c:v>
+                  <c:v>41.647619830474611</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>55.793835982448599</c:v>
+                  <c:v>41.456970017105689</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>55.755706019774813</c:v>
+                  <c:v>41.266320203736768</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>55.717576057101027</c:v>
+                  <c:v>41.075670390367847</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>55.679446094427242</c:v>
+                  <c:v>40.885020576998926</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>55.641316131753456</c:v>
+                  <c:v>40.694370763630005</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>55.603186169079677</c:v>
+                  <c:v>40.503720950261084</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>55.565056206405892</c:v>
+                  <c:v>40.313071136892162</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>55.526926243732106</c:v>
+                  <c:v>40.122421323523241</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>55.48879628105832</c:v>
+                  <c:v>39.93177151015432</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>55.450666318384542</c:v>
+                  <c:v>39.741121696785392</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>55.412536355710749</c:v>
+                  <c:v>39.550471883416478</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>55.374406393036971</c:v>
+                  <c:v>39.359822070047557</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>55.336276430363185</c:v>
+                  <c:v>39.169172256678628</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>55.298146467689406</c:v>
+                  <c:v>38.978522443309707</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>55.260016505015614</c:v>
+                  <c:v>38.787872629940786</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>55.221886542341835</c:v>
+                  <c:v>38.597222816571865</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>55.183756579668049</c:v>
+                  <c:v>38.406573003202944</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>55.145626616994257</c:v>
+                  <c:v>38.215923189834022</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>55.107496654320478</c:v>
+                  <c:v>38.025273376465101</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>55.069366691646692</c:v>
+                  <c:v>37.83462356309618</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>55.031236728972914</c:v>
+                  <c:v>37.643973749727259</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>54.993106766299121</c:v>
+                  <c:v>37.453323936358338</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>54.954976803625343</c:v>
+                  <c:v>37.262674122989417</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>54.916846840951557</c:v>
+                  <c:v>37.072024309620495</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>54.878716878277771</c:v>
+                  <c:v>36.881374496251574</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>54.840586915603986</c:v>
+                  <c:v>36.690724682882653</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>54.802456952930207</c:v>
+                  <c:v>36.500074869513725</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>54.764326990256421</c:v>
+                  <c:v>36.309425056144804</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>54.726197027582636</c:v>
+                  <c:v>36.118775242775889</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>54.68806706490885</c:v>
+                  <c:v>35.928125429406961</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>54.649937102235072</c:v>
+                  <c:v>35.73747561603804</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>54.611807139561279</c:v>
+                  <c:v>35.546825802669119</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>54.573677176887493</c:v>
+                  <c:v>35.356175989300198</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>54.535547214213715</c:v>
+                  <c:v>35.165526175931276</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>54.497417251539929</c:v>
+                  <c:v>34.974876362562355</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>54.459287288866143</c:v>
+                  <c:v>34.784226549193434</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>54.421157326192358</c:v>
+                  <c:v>34.593576735824513</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>54.383027363518579</c:v>
+                  <c:v>34.402926922455592</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>54.344897400844793</c:v>
+                  <c:v>34.212277109086671</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>54.306767438171008</c:v>
+                  <c:v>34.021627295717742</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>54.268637475497222</c:v>
+                  <c:v>33.830977482348821</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>54.230507512823444</c:v>
+                  <c:v>33.640327668979907</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>54.192377550149651</c:v>
+                  <c:v>33.449677855610979</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>54.154247587475872</c:v>
+                  <c:v>33.259028042242058</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>54.116117624802087</c:v>
+                  <c:v>33.068378228873144</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>54.077987662128301</c:v>
+                  <c:v>32.877728415504222</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>54.039857699454515</c:v>
+                  <c:v>32.687078602135294</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>54.00172773678073</c:v>
+                  <c:v>32.49642878876638</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>53.963597774106951</c:v>
+                  <c:v>32.305778975397459</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>53.925467811433158</c:v>
+                  <c:v>32.115129162028531</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>53.88733784875938</c:v>
+                  <c:v>31.924479348659609</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>53.849207886085594</c:v>
+                  <c:v>31.733829535290688</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>53.811077923411816</c:v>
+                  <c:v>31.543179721921767</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>53.772947960738023</c:v>
+                  <c:v>31.352529908552846</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>53.734817998064244</c:v>
+                  <c:v>31.161880095183925</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>53.696688035390459</c:v>
+                  <c:v>30.971230281815004</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>53.658558072716673</c:v>
+                  <c:v>30.780580468446079</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>53.620428110042887</c:v>
+                  <c:v>30.589930655077158</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>53.582298147369102</c:v>
+                  <c:v>30.39928084170824</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>53.544168184695323</c:v>
+                  <c:v>30.208631028339312</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>53.50603822202153</c:v>
+                  <c:v>30.017981214970391</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>53.467908259347752</c:v>
+                  <c:v>29.827331401601473</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>53.429778296673966</c:v>
+                  <c:v>29.636681588232548</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>53.39164833400018</c:v>
+                  <c:v>29.446031774863627</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>53.353518371326395</c:v>
+                  <c:v>29.255381961494706</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>53.315388408652616</c:v>
+                  <c:v>29.064732148125785</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>53.277258445978831</c:v>
+                  <c:v>28.874082334756864</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>53.239128483305045</c:v>
+                  <c:v>28.683432521387942</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>53.200998520631259</c:v>
+                  <c:v>28.492782708019018</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>53.162868557957481</c:v>
+                  <c:v>28.3021328946501</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>53.124738595283688</c:v>
+                  <c:v>28.111483081281179</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>53.086608632609909</c:v>
+                  <c:v>27.920833267912258</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>53.048478669936124</c:v>
+                  <c:v>27.730183454543337</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>53.010348707262338</c:v>
+                  <c:v>27.539533641174415</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>52.972218744588552</c:v>
+                  <c:v>27.348883827805491</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>52.934088781914767</c:v>
+                  <c:v>27.158234014436569</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>52.895958819240988</c:v>
+                  <c:v>26.967584201067648</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>52.857828856567195</c:v>
+                  <c:v>26.776934387698724</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>52.819698893893424</c:v>
+                  <c:v>26.586284574329802</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>52.781568931219631</c:v>
+                  <c:v>26.395634760960881</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>52.74343896854586</c:v>
+                  <c:v>26.20498494759196</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>52.70530900587206</c:v>
+                  <c:v>26.014335134223039</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>52.667179043198288</c:v>
+                  <c:v>25.823685320854118</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>52.629049080524496</c:v>
+                  <c:v>25.633035507485193</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>52.590919117850717</c:v>
+                  <c:v>25.442385694116275</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>52.552789155176924</c:v>
+                  <c:v>25.251735880747354</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>52.514659192503146</c:v>
+                  <c:v>25.061086067378429</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>52.47652922982936</c:v>
+                  <c:v>24.870436254009508</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>52.438399267155575</c:v>
+                  <c:v>24.679786440640587</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>52.400269304481789</c:v>
+                  <c:v>24.489136627271662</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>52.36213934180801</c:v>
+                  <c:v>24.298486813902741</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>52.324009379134218</c:v>
+                  <c:v>24.107837000533824</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>52.285879416460439</c:v>
+                  <c:v>23.917187187164899</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>52.247749453786653</c:v>
+                  <c:v>23.726537373795978</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>52.209619491112875</c:v>
+                  <c:v>23.53588756042706</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>52.171489528439082</c:v>
+                  <c:v>23.345237747058139</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>52.133359565765304</c:v>
+                  <c:v>23.154587933689214</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>52.095229603091511</c:v>
+                  <c:v>22.963938120320293</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>52.057099640417732</c:v>
+                  <c:v>22.773288306951375</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>52.018969677743939</c:v>
+                  <c:v>22.582638493582451</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>51.980839715070168</c:v>
+                  <c:v>22.39198868021353</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>51.942709752396375</c:v>
+                  <c:v>22.201338866844608</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>51.904579789722597</c:v>
+                  <c:v>22.010689053475684</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>51.866449827048804</c:v>
+                  <c:v>21.820039240106766</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>51.828319864375032</c:v>
+                  <c:v>21.629389426737845</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>51.79018990170124</c:v>
+                  <c:v>21.43873961336892</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>51.752059939027461</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>51.713929976353668</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>51.675800013679897</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>51.637670051006097</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>51.599540088332319</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>51.56141012565854</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>51.523280162984747</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>51.485150200310969</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>51.447020237637183</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>51.408890274963404</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>51.370760312289612</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>51.332630349615833</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>51.294500386942047</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>51.256370424268262</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>51.218240461594476</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>51.180110498920698</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>51.141980536246912</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>51.103850573573126</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>51.065720610899341</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>51.027590648225555</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>50.989460685551776</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>50.951330722877984</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>50.913200760204205</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>50.875070797530419</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>50.836940834856634</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>50.798810872182848</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>50.76068090950907</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>50.722550946835284</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>50.684420984161498</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>50.646291021487713</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>50.608161058813934</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>50.570031096140141</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>50.531901133466363</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>50.493771170792577</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>50.455641208118791</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>50.417511245445006</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>50.37938128277122</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>50.341251320097442</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>50.303121357423649</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>50.26499139474987</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>50.226861432076085</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>50.188731469402306</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>50.150601506728513</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>50.112471544054735</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>50.074341581380949</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>50.036211618707156</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>49.998081656033378</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>49.959951693359599</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>49.921821730685814</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>49.883691768012021</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>49.845561805338242</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>49.807431842664457</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>49.769301879990671</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>49.731171917316885</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>49.693041954643107</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>49.654911991969321</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>49.616782029295535</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>49.57865206662175</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>49.540522103947971</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>49.502392141274179</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>49.464262178600393</c:v>
+                  <c:v>21.248089799999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3749,7 +3389,7 @@
         <c:axId val="1656174591"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.2"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3827,7 +3467,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60"/>
-          <c:min val="35"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5586,7 +5226,7 @@
       <calculatedColumnFormula>Эксперимент[[#This Row],[С ОКМ
 М]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{986310D2-1DE5-4684-80A8-AB34FC52B68F}" name="Х" dataDxfId="53">
+    <tableColumn id="20" xr3:uid="{986310D2-1DE5-4684-80A8-AB34FC52B68F}" name="Х спирт" dataDxfId="53">
       <calculatedColumnFormula>Аппроксимация[[#This Row],[C  спирт 
 М ]]/(Аппроксимация[[#This Row],[C  спирт 
 М ]]+Аппроксимация[[#This Row],[C ОКМ
@@ -5605,7 +5245,7 @@
  Дж]]/1000</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="22" xr3:uid="{6E9C14D8-3A36-49B6-B4C2-012E44BCDCFA}" name="d E" dataDxfId="46">
-      <calculatedColumnFormula>VLOOKUP(Аппроксимация[[#This Row],[Х]],Таблица12[],2)-Аппроксимация[[#This Row],[Е
+      <calculatedColumnFormula>VLOOKUP(Аппроксимация[[#This Row],[Х спирт]],Таблица12[],2)-Аппроксимация[[#This Row],[Е
  кДж]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5614,8 +5254,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{48B0AECA-8ECA-4EC0-842B-5628FA4C9F5F}" name="Таблица12" displayName="Таблица12" ref="Q4:R265" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
-  <autoFilter ref="Q4:R265" xr:uid="{EB61DCCC-95D3-478E-9CB9-6521FBDAC904}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{48B0AECA-8ECA-4EC0-842B-5628FA4C9F5F}" name="Таблица12" displayName="Таблица12" ref="Q4:R205" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
+  <autoFilter ref="Q4:R205" xr:uid="{EB61DCCC-95D3-478E-9CB9-6521FBDAC904}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
@@ -6108,10 +5748,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:T265"/>
+  <dimension ref="A1:T205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" topLeftCell="E3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6134,10 +5774,10 @@
       <c r="I1" s="7"/>
       <c r="J1" s="82"/>
       <c r="Q1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
@@ -6177,34 +5817,34 @@
         <v>44</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="I4" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="K4" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="L4" s="10" t="s">
         <v>58</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>59</v>
       </c>
       <c r="M4" s="79" t="s">
         <v>45</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q4" s="96" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R4" s="96" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
@@ -6232,7 +5872,7 @@
       <c r="G5" s="78">
         <f>Эксперимент[[#This Row],[С ОКМ
 М]]</f>
-        <v>85.8</v>
+        <v>12.531218507645795</v>
       </c>
       <c r="H5" s="80">
         <f>Аппроксимация[[#This Row],[C  спирт 
@@ -6264,7 +5904,7 @@
         <v>59.378052473784322</v>
       </c>
       <c r="O5" s="98">
-        <f>VLOOKUP(Аппроксимация[[#This Row],[Х]],Таблица12[],2)-Аппроксимация[[#This Row],[Е
+        <f>VLOOKUP(Аппроксимация[[#This Row],[Х спирт]],Таблица12[],2)-Аппроксимация[[#This Row],[Е
  кДж]]</f>
         <v>0</v>
       </c>
@@ -6298,14 +5938,14 @@
       <c r="G6" s="78">
         <f>Эксперимент[[#This Row],[С ОКМ
 М]]</f>
-        <v>76.944434368402582</v>
+        <v>11.237849883655752</v>
       </c>
       <c r="H6" s="80">
         <f>Аппроксимация[[#This Row],[C  спирт 
 М ]]/(Аппроксимация[[#This Row],[C  спирт 
 М ]]+Аппроксимация[[#This Row],[C ОКМ
 М ]])</f>
-        <v>3.2036739716073591E-2</v>
+        <v>0.18474645719966951</v>
       </c>
       <c r="I6" s="105">
         <v>52363.746865078472</v>
@@ -6330,19 +5970,19 @@
         <v>52.363746865078475</v>
       </c>
       <c r="O6" s="98">
-        <f>VLOOKUP(Аппроксимация[[#This Row],[Х]],Таблица12[],2)-Аппроксимация[[#This Row],[Е
+        <f>VLOOKUP(Аппроксимация[[#This Row],[Х спирт]],Таблица12[],2)-Аппроксимация[[#This Row],[Е
  кДж]]</f>
-        <v>5.7941468031447485</v>
+        <v>0.15091232742467042</v>
       </c>
       <c r="Q6" s="97">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="R6" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>59.339922511110537</v>
+        <v>59.187402660415401</v>
       </c>
       <c r="T6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
@@ -6368,14 +6008,14 @@
       <c r="G7" s="78">
         <f>Эксперимент[[#This Row],[С ОКМ
 М]]</f>
-        <v>48.904209629722104</v>
+        <v>7.142533063097475</v>
       </c>
       <c r="H7" s="80">
         <f>Аппроксимация[[#This Row],[C  спирт 
 М ]]/(Аппроксимация[[#This Row],[C  спирт 
 М ]]+Аппроксимация[[#This Row],[C ОКМ
 М ]])</f>
-        <v>2.9343465751491229E-2</v>
+        <v>0.17148959557520271</v>
       </c>
       <c r="I7" s="105"/>
       <c r="J7" s="63"/>
@@ -6392,16 +6032,16 @@
         <v>0</v>
       </c>
       <c r="O7" s="98">
-        <f>VLOOKUP(Аппроксимация[[#This Row],[Х]],Таблица12[],2)-Аппроксимация[[#This Row],[Е
+        <f>VLOOKUP(Аппроксимация[[#This Row],[Х спирт]],Таблица12[],2)-Аппроксимация[[#This Row],[Е
  кДж]]</f>
-        <v>58.272283556244574</v>
+        <v>52.895958819240988</v>
       </c>
       <c r="Q7" s="97">
-        <v>2E-3</v>
+        <v>0.01</v>
       </c>
       <c r="R7" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>59.301792548436751</v>
+        <v>58.99675284704648</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
@@ -6426,14 +6066,14 @@
       <c r="G8" s="78">
         <f>Эксперимент[[#This Row],[С ОКМ
 М]]</f>
-        <v>74.549837781631297</v>
+        <v>10.888115465631349</v>
       </c>
       <c r="H8" s="80">
         <f>Аппроксимация[[#This Row],[C  спирт 
 М ]]/(Аппроксимация[[#This Row],[C  спирт 
 М ]]+Аппроксимация[[#This Row],[C ОКМ
 М ]])</f>
-        <v>6.6071647960503688E-2</v>
+        <v>0.32632279736042979</v>
       </c>
       <c r="I8" s="105">
         <v>52285.076730252593</v>
@@ -6458,19 +6098,19 @@
         <v>52.285076730252591</v>
       </c>
       <c r="O8" s="98">
-        <f>VLOOKUP(Аппроксимация[[#This Row],[Х]],Таблица12[],2)-Аппроксимация[[#This Row],[Е
+        <f>VLOOKUP(Аппроксимация[[#This Row],[Х спирт]],Таблица12[],2)-Аппроксимация[[#This Row],[Е
  кДж]]</f>
-        <v>4.5763982070619633</v>
+        <v>-5.2992621254481662</v>
       </c>
       <c r="Q8" s="97">
-        <v>3.0000000000000001E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="R8" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>59.263662585762965</v>
+        <v>58.806103033677559</v>
       </c>
       <c r="T8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
@@ -6495,14 +6135,14 @@
       <c r="G9" s="78">
         <f>Эксперимент[[#This Row],[С ОКМ
 М]]</f>
-        <v>71.750977125391131</v>
+        <v>10.479337674771228</v>
       </c>
       <c r="H9" s="80">
         <f>Аппроксимация[[#This Row],[C  спирт 
 М ]]/(Аппроксимация[[#This Row],[C  спирт 
 М ]]+Аппроксимация[[#This Row],[C ОКМ
 М ]])</f>
-        <v>9.9892325268307561E-2</v>
+        <v>0.43177188576386294</v>
       </c>
       <c r="I9" s="105">
         <v>47693.48261218908</v>
@@ -6527,16 +6167,16 @@
         <v>47.693482612189079</v>
       </c>
       <c r="O9" s="98">
-        <f>VLOOKUP(Аппроксимация[[#This Row],[Х]],Таблица12[],2)-Аппроксимация[[#This Row],[Е
+        <f>VLOOKUP(Аппроксимация[[#This Row],[Х спирт]],Таблица12[],2)-Аппроксимация[[#This Row],[Е
  кДж]]</f>
-        <v>7.909703556890598</v>
+        <v>-4.7113140881320135</v>
       </c>
       <c r="Q9" s="97">
-        <v>4.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="R9" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>59.225532623089187</v>
+        <v>58.61545322030863</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
@@ -6561,14 +6201,14 @@
       <c r="G10" s="78">
         <f>Эксперимент[[#This Row],[С ОКМ
 М]]</f>
-        <v>69.223076057334893</v>
+        <v>10.11013393759729</v>
       </c>
       <c r="H10" s="80">
         <f>Аппроксимация[[#This Row],[C  спирт 
 М ]]/(Аппроксимация[[#This Row],[C  спирт 
 М ]]+Аппроксимация[[#This Row],[C ОКМ
 М ]])</f>
-        <v>0.13126962000829834</v>
+        <v>0.50850331974744278</v>
       </c>
       <c r="I10" s="105">
         <v>43295.330524036741</v>
@@ -6593,16 +6233,16 @@
         <v>43.295330524036743</v>
       </c>
       <c r="O10" s="98">
-        <f>VLOOKUP(Аппроксимация[[#This Row],[Х]],Таблица12[],2)-Аппроксимация[[#This Row],[Е
+        <f>VLOOKUP(Аппроксимация[[#This Row],[Х спирт]],Таблица12[],2)-Аппроксимация[[#This Row],[Е
  кДж]]</f>
-        <v>11.087696839481836</v>
+        <v>-3.1729092005135016</v>
       </c>
       <c r="Q10" s="97">
-        <v>5.0000000000000001E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="R10" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>59.187402660415401</v>
+        <v>58.424803406939716</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
@@ -6627,14 +6267,14 @@
       <c r="G11" s="78">
         <f>Эксперимент[[#This Row],[С ОКМ
 М]]</f>
-        <v>66.910766135639562</v>
+        <v>9.7724176102527522</v>
       </c>
       <c r="H11" s="80">
         <f>Аппроксимация[[#This Row],[C  спирт 
 М ]]/(Аппроксимация[[#This Row],[C  спирт 
 М ]]+Аппроксимация[[#This Row],[C ОКМ
 М ]])</f>
-        <v>0.1591698361937012</v>
+        <v>0.56448340526923468</v>
       </c>
       <c r="I11" s="105">
         <v>44740.278273015843</v>
@@ -6659,16 +6299,16 @@
         <v>44.740278273015846</v>
       </c>
       <c r="O11" s="98">
-        <f>VLOOKUP(Аппроксимация[[#This Row],[Х]],Таблица12[],2)-Аппроксимация[[#This Row],[Е
+        <f>VLOOKUP(Аппроксимация[[#This Row],[Х спирт]],Таблица12[],2)-Аппроксимация[[#This Row],[Е
  кДж]]</f>
-        <v>8.5751101356367698</v>
+        <v>-6.7150048965507452</v>
       </c>
       <c r="Q11" s="97">
-        <v>6.0000000000000001E-3</v>
+        <v>0.03</v>
       </c>
       <c r="R11" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>59.149272697741615</v>
+        <v>58.234153593570788</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
@@ -6693,14 +6333,14 @@
       <c r="G12" s="78">
         <f>Эксперимент[[#This Row],[С ОКМ
 М]]</f>
-        <v>64.135976077357611</v>
+        <v>9.3671553662763607</v>
       </c>
       <c r="H12" s="80">
         <f>Аппроксимация[[#This Row],[C  спирт 
 М ]]/(Аппроксимация[[#This Row],[C  спирт 
 М ]]+Аппроксимация[[#This Row],[C ОКМ
 М ]])</f>
-        <v>0.19129848162762375</v>
+        <v>0.61826748266783738</v>
       </c>
       <c r="I12" s="105">
         <v>40670.390105201288</v>
@@ -6725,16 +6365,16 @@
         <v>40.670390105201285</v>
       </c>
       <c r="O12" s="98">
-        <f>VLOOKUP(Аппроксимация[[#This Row],[Х]],Таблица12[],2)-Аппроксимация[[#This Row],[Е
+        <f>VLOOKUP(Аппроксимация[[#This Row],[Х спирт]],Таблица12[],2)-Аппроксимация[[#This Row],[Е
  кДж]]</f>
-        <v>11.424839497890225</v>
+        <v>-4.7422646757943241</v>
       </c>
       <c r="Q12" s="97">
-        <v>7.0000000000000001E-3</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="R12" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>59.11114273506783</v>
+        <v>58.043503780201867</v>
       </c>
       <c r="T12" s="4">
         <f>K5*EXP(-I5/8.314/288)</f>
@@ -6758,19 +6398,19 @@
       </c>
       <c r="F13" s="77">
         <f>Эксперимент[[#This Row],[C спирт М ]]</f>
-        <v>17.617376532673699</v>
+        <v>17.145389806727337</v>
       </c>
       <c r="G13" s="78">
         <f>Эксперимент[[#This Row],[С ОКМ
 М]]</f>
-        <v>61.594000513982252</v>
+        <v>8.7548871862088937</v>
       </c>
       <c r="H13" s="80">
         <f>Аппроксимация[[#This Row],[C  спирт 
 М ]]/(Аппроксимация[[#This Row],[C  спирт 
 М ]]+Аппроксимация[[#This Row],[C ОКМ
 М ]])</f>
-        <v>0.22240967383128515</v>
+        <v>0.66197708277032674</v>
       </c>
       <c r="I13" s="105">
         <v>40593.91144412195</v>
@@ -6787,7 +6427,7 @@
       <c r="M13" s="69">
         <f>Эксперимент[[#This Row],[ro
 смесь г/мл   ]]</f>
-        <v>1.4930399999999999</v>
+        <v>1.4530399999999997</v>
       </c>
       <c r="N13" s="69">
         <f>Аппроксимация[[#This Row],[Е
@@ -6795,16 +6435,16 @@
         <v>40.59391144412195</v>
       </c>
       <c r="O13" s="98">
-        <f>VLOOKUP(Аппроксимация[[#This Row],[Х]],Таблица12[],2)-Аппроксимация[[#This Row],[Е
+        <f>VLOOKUP(Аппроксимация[[#This Row],[Х спирт]],Таблица12[],2)-Аппроксимация[[#This Row],[Е
  кДж]]</f>
-        <v>10.319289316082255</v>
+        <v>-6.3816343350352795</v>
       </c>
       <c r="Q13" s="97">
-        <v>8.0000000000000002E-3</v>
+        <v>0.04</v>
       </c>
       <c r="R13" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>59.073012772394051</v>
+        <v>57.852853966832953</v>
       </c>
       <c r="T13" s="4">
         <f>K14*EXP(-I14/8.314/288)</f>
@@ -6833,14 +6473,14 @@
       <c r="G14" s="78">
         <f>Эксперимент[[#This Row],[С ОКМ
 М]]</f>
-        <v>59.424834748497489</v>
+        <v>8.6790861190462092</v>
       </c>
       <c r="H14" s="80">
         <f>Аппроксимация[[#This Row],[C  спирт 
 М ]]/(Аппроксимация[[#This Row],[C  спирт 
 М ]]+Аппроксимация[[#This Row],[C ОКМ
 М ]])</f>
-        <v>0.25215549819329625</v>
+        <v>0.69775854004389526</v>
       </c>
       <c r="I14" s="105">
         <v>40303.092224148277</v>
@@ -6865,2275 +6505,1735 @@
         <v>40.30309222414828</v>
       </c>
       <c r="O14" s="98">
-        <f>VLOOKUP(Аппроксимация[[#This Row],[Х]],Таблица12[],2)-Аппроксимация[[#This Row],[Е
+        <f>VLOOKUP(Аппроксимация[[#This Row],[Х спирт]],Таблица12[],2)-Аппроксимация[[#This Row],[Е
  кДж]]</f>
-        <v>9.4662096558423912</v>
+        <v>-7.4253638086440574</v>
       </c>
       <c r="Q14" s="97">
-        <v>8.9999999999999993E-3</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="R14" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>59.034882809720258</v>
+        <v>57.662204153464025</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q15" s="97">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="R15" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>58.99675284704648</v>
+        <v>57.471554340095103</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q16" s="97">
-        <v>1.0999999999999999E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="R16" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>58.958622884372694</v>
+        <v>57.280904526726175</v>
       </c>
     </row>
     <row r="17" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q17" s="97">
-        <v>1.2E-2</v>
+        <v>0.06</v>
       </c>
       <c r="R17" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>58.920492921698916</v>
+        <v>57.090254713357261</v>
       </c>
     </row>
     <row r="18" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q18" s="97">
-        <v>1.2999999999999999E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="R18" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>58.882362959025123</v>
+        <v>56.899604899988347</v>
       </c>
     </row>
     <row r="19" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q19" s="97">
-        <v>1.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="R19" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>58.844232996351337</v>
+        <v>56.708955086619412</v>
       </c>
     </row>
     <row r="20" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q20" s="97">
-        <v>1.4999999999999999E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="R20" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>58.806103033677559</v>
+        <v>56.518305273250505</v>
       </c>
     </row>
     <row r="21" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q21" s="97">
-        <v>1.6E-2</v>
+        <v>0.08</v>
       </c>
       <c r="R21" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>58.767973071003766</v>
+        <v>56.327655459881576</v>
       </c>
     </row>
     <row r="22" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q22" s="97">
-        <v>1.7000000000000001E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="R22" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>58.729843108329987</v>
+        <v>56.137005646512655</v>
       </c>
     </row>
     <row r="23" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q23" s="97">
-        <v>1.7999999999999999E-2</v>
+        <v>0.09</v>
       </c>
       <c r="R23" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>58.691713145656202</v>
+        <v>55.946355833143734</v>
       </c>
     </row>
     <row r="24" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q24" s="97">
-        <v>1.9E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="R24" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>58.653583182982423</v>
+        <v>55.755706019774813</v>
       </c>
     </row>
     <row r="25" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q25" s="97">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="R25" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>58.61545322030863</v>
+        <v>55.565056206405892</v>
       </c>
     </row>
     <row r="26" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q26" s="97">
-        <v>2.1000000000000001E-2</v>
+        <v>0.105</v>
       </c>
       <c r="R26" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>58.577323257634852</v>
+        <v>55.374406393036971</v>
       </c>
     </row>
     <row r="27" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q27" s="97">
-        <v>2.1999999999999999E-2</v>
+        <v>0.11</v>
       </c>
       <c r="R27" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>58.539193294961066</v>
+        <v>55.183756579668049</v>
       </c>
     </row>
     <row r="28" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q28" s="97">
-        <v>2.3E-2</v>
+        <v>0.115</v>
       </c>
       <c r="R28" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>58.501063332287281</v>
+        <v>54.993106766299121</v>
       </c>
     </row>
     <row r="29" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q29" s="97">
-        <v>2.4E-2</v>
+        <v>0.12</v>
       </c>
       <c r="R29" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>58.462933369613495</v>
+        <v>54.802456952930207</v>
       </c>
     </row>
     <row r="30" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q30" s="97">
-        <v>2.5000000000000001E-2</v>
+        <v>0.125</v>
       </c>
       <c r="R30" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>58.424803406939716</v>
+        <v>54.611807139561279</v>
       </c>
     </row>
     <row r="31" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q31" s="97">
-        <v>2.5999999999999999E-2</v>
+        <v>0.13</v>
       </c>
       <c r="R31" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>58.386673444265931</v>
+        <v>54.421157326192358</v>
       </c>
     </row>
     <row r="32" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q32" s="97">
-        <v>2.7E-2</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="R32" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>58.348543481592145</v>
+        <v>54.230507512823444</v>
       </c>
     </row>
     <row r="33" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q33" s="97">
-        <v>2.8000000000000001E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="R33" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>58.310413518918359</v>
+        <v>54.039857699454515</v>
       </c>
     </row>
     <row r="34" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q34" s="97">
-        <v>2.9000000000000001E-2</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="R34" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>58.272283556244574</v>
+        <v>53.849207886085594</v>
       </c>
     </row>
     <row r="35" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q35" s="97">
-        <v>0.03</v>
+        <v>0.15</v>
       </c>
       <c r="R35" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>58.234153593570788</v>
+        <v>53.658558072716673</v>
       </c>
     </row>
     <row r="36" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q36" s="97">
-        <v>3.1E-2</v>
+        <v>0.155</v>
       </c>
       <c r="R36" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>58.196023630897002</v>
+        <v>53.467908259347752</v>
       </c>
     </row>
     <row r="37" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q37" s="97">
-        <v>3.2000000000000001E-2</v>
+        <v>0.16</v>
       </c>
       <c r="R37" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>58.157893668223224</v>
+        <v>53.277258445978831</v>
       </c>
     </row>
     <row r="38" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q38" s="97">
-        <v>3.3000000000000002E-2</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="R38" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>58.119763705549438</v>
+        <v>53.086608632609909</v>
       </c>
     </row>
     <row r="39" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q39" s="97">
-        <v>3.4000000000000002E-2</v>
+        <v>0.17</v>
       </c>
       <c r="R39" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>58.081633742875653</v>
+        <v>52.895958819240988</v>
       </c>
     </row>
     <row r="40" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q40" s="97">
-        <v>3.5000000000000003E-2</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="R40" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>58.043503780201867</v>
+        <v>52.70530900587206</v>
       </c>
     </row>
     <row r="41" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q41" s="97">
-        <v>3.5999999999999997E-2</v>
+        <v>0.18</v>
       </c>
       <c r="R41" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>58.005373817528088</v>
+        <v>52.514659192503146</v>
       </c>
     </row>
     <row r="42" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q42" s="97">
-        <v>3.6999999999999998E-2</v>
+        <v>0.185</v>
       </c>
       <c r="R42" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>57.967243854854303</v>
+        <v>52.324009379134218</v>
       </c>
     </row>
     <row r="43" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q43" s="97">
-        <v>3.7999999999999999E-2</v>
+        <v>0.19</v>
       </c>
       <c r="R43" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>57.929113892180517</v>
+        <v>52.133359565765304</v>
       </c>
     </row>
     <row r="44" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q44" s="97">
-        <v>3.9E-2</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="R44" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>57.890983929506731</v>
+        <v>51.942709752396375</v>
       </c>
     </row>
     <row r="45" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q45" s="97">
-        <v>0.04</v>
+        <v>0.2</v>
       </c>
       <c r="R45" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>57.852853966832953</v>
+        <v>51.752059939027461</v>
       </c>
     </row>
     <row r="46" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q46" s="97">
-        <v>4.1000000000000002E-2</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="R46" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>57.81472400415916</v>
+        <v>51.56141012565854</v>
       </c>
     </row>
     <row r="47" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q47" s="97">
-        <v>4.2000000000000003E-2</v>
+        <v>0.21</v>
       </c>
       <c r="R47" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>57.776594041485374</v>
+        <v>51.370760312289612</v>
       </c>
     </row>
     <row r="48" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q48" s="97">
-        <v>4.2999999999999997E-2</v>
+        <v>0.215</v>
       </c>
       <c r="R48" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>57.738464078811596</v>
+        <v>51.180110498920698</v>
       </c>
     </row>
     <row r="49" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q49" s="97">
-        <v>4.3999999999999997E-2</v>
+        <v>0.22</v>
       </c>
       <c r="R49" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>57.70033411613781</v>
+        <v>50.989460685551776</v>
       </c>
     </row>
     <row r="50" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q50" s="97">
-        <v>4.4999999999999998E-2</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="R50" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>57.662204153464025</v>
+        <v>50.798810872182848</v>
       </c>
     </row>
     <row r="51" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q51" s="97">
-        <v>4.5999999999999999E-2</v>
+        <v>0.23</v>
       </c>
       <c r="R51" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>57.624074190790239</v>
+        <v>50.608161058813934</v>
       </c>
     </row>
     <row r="52" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q52" s="97">
-        <v>4.7E-2</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="R52" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>57.58594422811646</v>
+        <v>50.417511245445006</v>
       </c>
     </row>
     <row r="53" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q53" s="97">
-        <v>4.8000000000000001E-2</v>
+        <v>0.24</v>
       </c>
       <c r="R53" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>57.547814265442668</v>
+        <v>50.226861432076085</v>
       </c>
     </row>
     <row r="54" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q54" s="97">
-        <v>4.9000000000000002E-2</v>
+        <v>0.245</v>
       </c>
       <c r="R54" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>57.509684302768889</v>
+        <v>50.036211618707156</v>
       </c>
     </row>
     <row r="55" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q55" s="97">
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
       <c r="R55" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>57.471554340095103</v>
+        <v>49.845561805338242</v>
       </c>
     </row>
     <row r="56" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q56" s="97">
-        <v>5.0999999999999997E-2</v>
+        <v>0.255</v>
       </c>
       <c r="R56" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>57.433424377421325</v>
+        <v>49.654911991969321</v>
       </c>
     </row>
     <row r="57" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q57" s="97">
-        <v>5.1999999999999998E-2</v>
+        <v>0.26</v>
       </c>
       <c r="R57" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>57.395294414747532</v>
+        <v>49.464262178600393</v>
       </c>
     </row>
     <row r="58" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q58" s="97">
-        <v>5.2999999999999999E-2</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="R58" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>57.357164452073754</v>
+        <v>49.273612365231479</v>
       </c>
     </row>
     <row r="59" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q59" s="97">
-        <v>5.3999999999999999E-2</v>
+        <v>0.27</v>
       </c>
       <c r="R59" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>57.319034489399968</v>
+        <v>49.082962551862551</v>
       </c>
     </row>
     <row r="60" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q60" s="97">
-        <v>5.5E-2</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="R60" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>57.280904526726175</v>
+        <v>48.892312738493629</v>
       </c>
     </row>
     <row r="61" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q61" s="97">
-        <v>5.6000000000000001E-2</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="R61" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>57.242774564052397</v>
+        <v>48.701662925124708</v>
       </c>
     </row>
     <row r="62" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q62" s="97">
-        <v>5.7000000000000002E-2</v>
+        <v>0.28499999999999998</v>
       </c>
       <c r="R62" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>57.204644601378611</v>
+        <v>48.511013111755794</v>
       </c>
     </row>
     <row r="63" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q63" s="97">
-        <v>5.8000000000000003E-2</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="R63" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>57.166514638704832</v>
+        <v>48.320363298386866</v>
       </c>
     </row>
     <row r="64" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q64" s="97">
-        <v>5.8999999999999997E-2</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="R64" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>57.128384676031047</v>
+        <v>48.129713485017952</v>
       </c>
     </row>
     <row r="65" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q65" s="97">
-        <v>0.06</v>
+        <v>0.3</v>
       </c>
       <c r="R65" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>57.090254713357261</v>
+        <v>47.939063671649023</v>
       </c>
     </row>
     <row r="66" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q66" s="97">
-        <v>6.0999999999999999E-2</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="R66" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>57.052124750683483</v>
+        <v>47.748413858280102</v>
       </c>
     </row>
     <row r="67" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q67" s="97">
-        <v>6.2E-2</v>
+        <v>0.31</v>
       </c>
       <c r="R67" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>57.01399478800969</v>
+        <v>47.557764044911181</v>
       </c>
     </row>
     <row r="68" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q68" s="97">
-        <v>6.3E-2</v>
+        <v>0.315</v>
       </c>
       <c r="R68" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>56.975864825335911</v>
+        <v>47.367114231542267</v>
       </c>
     </row>
     <row r="69" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q69" s="97">
-        <v>6.4000000000000001E-2</v>
+        <v>0.32</v>
       </c>
       <c r="R69" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>56.937734862662126</v>
+        <v>47.176464418173332</v>
       </c>
     </row>
     <row r="70" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q70" s="97">
-        <v>6.5000000000000002E-2</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="R70" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>56.899604899988347</v>
+        <v>46.985814604804425</v>
       </c>
     </row>
     <row r="71" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q71" s="97">
-        <v>6.6000000000000003E-2</v>
+        <v>0.33</v>
       </c>
       <c r="R71" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>56.861474937314554</v>
+        <v>46.795164791435489</v>
       </c>
     </row>
     <row r="72" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q72" s="97">
-        <v>6.7000000000000004E-2</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="R72" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>56.823344974640776</v>
+        <v>46.604514978066575</v>
       </c>
     </row>
     <row r="73" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q73" s="97">
-        <v>6.8000000000000005E-2</v>
+        <v>0.34</v>
       </c>
       <c r="R73" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>56.78521501196699</v>
+        <v>46.413865164697647</v>
       </c>
     </row>
     <row r="74" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q74" s="97">
-        <v>6.9000000000000006E-2</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="R74" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>56.747085049293204</v>
+        <v>46.223215351328733</v>
       </c>
     </row>
     <row r="75" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q75" s="97">
-        <v>7.0000000000000007E-2</v>
+        <v>0.35</v>
       </c>
       <c r="R75" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>56.708955086619412</v>
+        <v>46.032565537959812</v>
       </c>
     </row>
     <row r="76" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q76" s="97">
-        <v>7.0999999999999994E-2</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="R76" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>56.67082512394564</v>
+        <v>45.841915724590891</v>
       </c>
     </row>
     <row r="77" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q77" s="97">
-        <v>7.1999999999999995E-2</v>
+        <v>0.36</v>
       </c>
       <c r="R77" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>56.632695161271855</v>
+        <v>45.651265911221969</v>
       </c>
     </row>
     <row r="78" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q78" s="97">
-        <v>7.2999999999999995E-2</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="R78" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>56.594565198598069</v>
+        <v>45.460616097853041</v>
       </c>
     </row>
     <row r="79" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q79" s="97">
-        <v>7.3999999999999996E-2</v>
+        <v>0.37</v>
       </c>
       <c r="R79" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>56.556435235924283</v>
+        <v>45.269966284484127</v>
       </c>
     </row>
     <row r="80" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q80" s="97">
-        <v>7.4999999999999997E-2</v>
+        <v>0.375</v>
       </c>
       <c r="R80" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>56.518305273250505</v>
+        <v>45.079316471115206</v>
       </c>
     </row>
     <row r="81" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q81" s="97">
-        <v>7.5999999999999998E-2</v>
+        <v>0.38</v>
       </c>
       <c r="R81" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>56.480175310576712</v>
+        <v>44.888666657746278</v>
       </c>
     </row>
     <row r="82" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q82" s="97">
-        <v>7.6999999999999999E-2</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="R82" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>56.442045347902933</v>
+        <v>44.698016844377364</v>
       </c>
     </row>
     <row r="83" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q83" s="97">
-        <v>7.8E-2</v>
+        <v>0.39</v>
       </c>
       <c r="R83" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>56.403915385229148</v>
+        <v>44.507367031008435</v>
       </c>
     </row>
     <row r="84" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q84" s="97">
-        <v>7.9000000000000001E-2</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="R84" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>56.365785422555369</v>
+        <v>44.316717217639514</v>
       </c>
     </row>
     <row r="85" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q85" s="97">
-        <v>0.08</v>
+        <v>0.4</v>
       </c>
       <c r="R85" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>56.327655459881576</v>
+        <v>44.126067404270586</v>
       </c>
     </row>
     <row r="86" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q86" s="97">
-        <v>8.1000000000000003E-2</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="R86" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>56.289525497207798</v>
+        <v>43.935417590901672</v>
       </c>
     </row>
     <row r="87" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q87" s="97">
-        <v>8.2000000000000003E-2</v>
+        <v>0.41</v>
       </c>
       <c r="R87" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>56.251395534534012</v>
+        <v>43.744767777532758</v>
       </c>
     </row>
     <row r="88" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q88" s="97">
-        <v>8.3000000000000004E-2</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="R88" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>56.213265571860219</v>
+        <v>43.554117964163822</v>
       </c>
     </row>
     <row r="89" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q89" s="97">
-        <v>8.4000000000000005E-2</v>
+        <v>0.42</v>
       </c>
       <c r="R89" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>56.175135609186441</v>
+        <v>43.363468150794915</v>
       </c>
     </row>
     <row r="90" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q90" s="97">
-        <v>8.5000000000000006E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="R90" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>56.137005646512655</v>
+        <v>43.17281833742598</v>
       </c>
     </row>
     <row r="91" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q91" s="97">
-        <v>8.5999999999999993E-2</v>
+        <v>0.43</v>
       </c>
       <c r="R91" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>56.098875683838877</v>
+        <v>42.982168524057066</v>
       </c>
     </row>
     <row r="92" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q92" s="97">
-        <v>8.6999999999999994E-2</v>
+        <v>0.435</v>
       </c>
       <c r="R92" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>56.060745721165084</v>
+        <v>42.791518710688138</v>
       </c>
     </row>
     <row r="93" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q93" s="97">
-        <v>8.7999999999999995E-2</v>
+        <v>0.44</v>
       </c>
       <c r="R93" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>56.022615758491305</v>
+        <v>42.600868897319224</v>
       </c>
     </row>
     <row r="94" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q94" s="97">
-        <v>8.8999999999999996E-2</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="R94" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>55.98448579581752</v>
+        <v>42.410219083950295</v>
       </c>
     </row>
     <row r="95" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q95" s="97">
-        <v>0.09</v>
+        <v>0.45</v>
       </c>
       <c r="R95" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>55.946355833143734</v>
+        <v>42.219569270581374</v>
       </c>
     </row>
     <row r="96" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q96" s="97">
-        <v>9.0999999999999998E-2</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="R96" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>55.908225870469948</v>
+        <v>42.028919457212453</v>
       </c>
     </row>
     <row r="97" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q97" s="97">
-        <v>9.1999999999999998E-2</v>
+        <v>0.46</v>
       </c>
       <c r="R97" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>55.87009590779617</v>
+        <v>41.838269643843532</v>
       </c>
     </row>
     <row r="98" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q98" s="97">
-        <v>9.2999999999999999E-2</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="R98" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>55.831965945122384</v>
+        <v>41.647619830474611</v>
       </c>
     </row>
     <row r="99" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q99" s="97">
-        <v>9.4E-2</v>
+        <v>0.47</v>
       </c>
       <c r="R99" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>55.793835982448599</v>
+        <v>41.456970017105689</v>
       </c>
     </row>
     <row r="100" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q100" s="97">
-        <v>9.5000000000000001E-2</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="R100" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>55.755706019774813</v>
+        <v>41.266320203736768</v>
       </c>
     </row>
     <row r="101" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q101" s="97">
-        <v>9.6000000000000002E-2</v>
+        <v>0.48</v>
       </c>
       <c r="R101" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>55.717576057101027</v>
+        <v>41.075670390367847</v>
       </c>
     </row>
     <row r="102" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q102" s="97">
-        <v>9.7000000000000003E-2</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="R102" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>55.679446094427242</v>
+        <v>40.885020576998926</v>
       </c>
     </row>
     <row r="103" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q103" s="97">
-        <v>9.8000000000000004E-2</v>
+        <v>0.49</v>
       </c>
       <c r="R103" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>55.641316131753456</v>
+        <v>40.694370763630005</v>
       </c>
     </row>
     <row r="104" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q104" s="97">
-        <v>9.9000000000000005E-2</v>
+        <v>0.495</v>
       </c>
       <c r="R104" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>55.603186169079677</v>
+        <v>40.503720950261084</v>
       </c>
     </row>
     <row r="105" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q105" s="97">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="R105" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>55.565056206405892</v>
+        <v>40.313071136892162</v>
       </c>
     </row>
     <row r="106" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q106" s="97">
-        <v>0.10100000000000001</v>
+        <v>0.505</v>
       </c>
       <c r="R106" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>55.526926243732106</v>
+        <v>40.122421323523241</v>
       </c>
     </row>
     <row r="107" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q107" s="97">
-        <v>0.10199999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="R107" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>55.48879628105832</v>
+        <v>39.93177151015432</v>
       </c>
     </row>
     <row r="108" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q108" s="97">
-        <v>0.10299999999999999</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="R108" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>55.450666318384542</v>
+        <v>39.741121696785392</v>
       </c>
     </row>
     <row r="109" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q109" s="97">
-        <v>0.104</v>
+        <v>0.52</v>
       </c>
       <c r="R109" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>55.412536355710749</v>
+        <v>39.550471883416478</v>
       </c>
     </row>
     <row r="110" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q110" s="97">
-        <v>0.105</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="R110" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>55.374406393036971</v>
+        <v>39.359822070047557</v>
       </c>
     </row>
     <row r="111" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q111" s="97">
-        <v>0.106</v>
+        <v>0.53</v>
       </c>
       <c r="R111" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>55.336276430363185</v>
+        <v>39.169172256678628</v>
       </c>
     </row>
     <row r="112" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q112" s="97">
-        <v>0.107</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="R112" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>55.298146467689406</v>
+        <v>38.978522443309707</v>
       </c>
     </row>
     <row r="113" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q113" s="97">
-        <v>0.108</v>
+        <v>0.54</v>
       </c>
       <c r="R113" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>55.260016505015614</v>
+        <v>38.787872629940786</v>
       </c>
     </row>
     <row r="114" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q114" s="97">
-        <v>0.109</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="R114" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>55.221886542341835</v>
+        <v>38.597222816571865</v>
       </c>
     </row>
     <row r="115" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q115" s="97">
-        <v>0.11</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="R115" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>55.183756579668049</v>
+        <v>38.406573003202944</v>
       </c>
     </row>
     <row r="116" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q116" s="97">
-        <v>0.111</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="R116" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>55.145626616994257</v>
+        <v>38.215923189834022</v>
       </c>
     </row>
     <row r="117" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q117" s="97">
-        <v>0.112</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="R117" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>55.107496654320478</v>
+        <v>38.025273376465101</v>
       </c>
     </row>
     <row r="118" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q118" s="97">
-        <v>0.113</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="R118" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>55.069366691646692</v>
+        <v>37.83462356309618</v>
       </c>
     </row>
     <row r="119" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q119" s="97">
-        <v>0.114</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="R119" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>55.031236728972914</v>
+        <v>37.643973749727259</v>
       </c>
     </row>
     <row r="120" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q120" s="97">
-        <v>0.115</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="R120" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>54.993106766299121</v>
+        <v>37.453323936358338</v>
       </c>
     </row>
     <row r="121" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q121" s="97">
-        <v>0.11600000000000001</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="R121" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>54.954976803625343</v>
+        <v>37.262674122989417</v>
       </c>
     </row>
     <row r="122" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q122" s="97">
-        <v>0.11700000000000001</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="R122" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>54.916846840951557</v>
+        <v>37.072024309620495</v>
       </c>
     </row>
     <row r="123" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q123" s="97">
-        <v>0.11799999999999999</v>
+        <v>0.59</v>
       </c>
       <c r="R123" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>54.878716878277771</v>
+        <v>36.881374496251574</v>
       </c>
     </row>
     <row r="124" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q124" s="97">
-        <v>0.11899999999999999</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="R124" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>54.840586915603986</v>
+        <v>36.690724682882653</v>
       </c>
     </row>
     <row r="125" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q125" s="97">
-        <v>0.12</v>
+        <v>0.6</v>
       </c>
       <c r="R125" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>54.802456952930207</v>
+        <v>36.500074869513725</v>
       </c>
     </row>
     <row r="126" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q126" s="97">
-        <v>0.121</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="R126" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>54.764326990256421</v>
+        <v>36.309425056144804</v>
       </c>
     </row>
     <row r="127" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q127" s="97">
-        <v>0.122</v>
+        <v>0.61</v>
       </c>
       <c r="R127" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>54.726197027582636</v>
+        <v>36.118775242775889</v>
       </c>
     </row>
     <row r="128" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q128" s="97">
-        <v>0.123</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="R128" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>54.68806706490885</v>
+        <v>35.928125429406961</v>
       </c>
     </row>
     <row r="129" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q129" s="97">
-        <v>0.124</v>
+        <v>0.62</v>
       </c>
       <c r="R129" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>54.649937102235072</v>
+        <v>35.73747561603804</v>
       </c>
     </row>
     <row r="130" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q130" s="97">
-        <v>0.125</v>
+        <v>0.625</v>
       </c>
       <c r="R130" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>54.611807139561279</v>
+        <v>35.546825802669119</v>
       </c>
     </row>
     <row r="131" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q131" s="97">
-        <v>0.126</v>
+        <v>0.63</v>
       </c>
       <c r="R131" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>54.573677176887493</v>
+        <v>35.356175989300198</v>
       </c>
     </row>
     <row r="132" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q132" s="97">
-        <v>0.127</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="R132" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>54.535547214213715</v>
+        <v>35.165526175931276</v>
       </c>
     </row>
     <row r="133" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q133" s="97">
-        <v>0.128</v>
+        <v>0.64</v>
       </c>
       <c r="R133" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>54.497417251539929</v>
+        <v>34.974876362562355</v>
       </c>
     </row>
     <row r="134" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q134" s="97">
-        <v>0.129</v>
+        <v>0.64500000000000002</v>
       </c>
       <c r="R134" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>54.459287288866143</v>
+        <v>34.784226549193434</v>
       </c>
     </row>
     <row r="135" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q135" s="97">
-        <v>0.13</v>
+        <v>0.65</v>
       </c>
       <c r="R135" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>54.421157326192358</v>
+        <v>34.593576735824513</v>
       </c>
     </row>
     <row r="136" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q136" s="97">
-        <v>0.13100000000000001</v>
+        <v>0.65500000000000003</v>
       </c>
       <c r="R136" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>54.383027363518579</v>
+        <v>34.402926922455592</v>
       </c>
     </row>
     <row r="137" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q137" s="97">
-        <v>0.13200000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="R137" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>54.344897400844793</v>
+        <v>34.212277109086671</v>
       </c>
     </row>
     <row r="138" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q138" s="97">
-        <v>0.13300000000000001</v>
+        <v>0.66500000000000004</v>
       </c>
       <c r="R138" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>54.306767438171008</v>
+        <v>34.021627295717742</v>
       </c>
     </row>
     <row r="139" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q139" s="97">
-        <v>0.13400000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="R139" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>54.268637475497222</v>
+        <v>33.830977482348821</v>
       </c>
     </row>
     <row r="140" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q140" s="97">
-        <v>0.13500000000000001</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="R140" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>54.230507512823444</v>
+        <v>33.640327668979907</v>
       </c>
     </row>
     <row r="141" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q141" s="97">
-        <v>0.13600000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="R141" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>54.192377550149651</v>
+        <v>33.449677855610979</v>
       </c>
     </row>
     <row r="142" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q142" s="97">
-        <v>0.13700000000000001</v>
+        <v>0.68500000000000005</v>
       </c>
       <c r="R142" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>54.154247587475872</v>
+        <v>33.259028042242058</v>
       </c>
     </row>
     <row r="143" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q143" s="97">
-        <v>0.13800000000000001</v>
+        <v>0.69</v>
       </c>
       <c r="R143" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>54.116117624802087</v>
+        <v>33.068378228873144</v>
       </c>
     </row>
     <row r="144" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q144" s="97">
-        <v>0.13900000000000001</v>
+        <v>0.69499999999999995</v>
       </c>
       <c r="R144" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>54.077987662128301</v>
+        <v>32.877728415504222</v>
       </c>
     </row>
     <row r="145" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q145" s="97">
-        <v>0.14000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="R145" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>54.039857699454515</v>
+        <v>32.687078602135294</v>
       </c>
     </row>
     <row r="146" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q146" s="97">
-        <v>0.14099999999999999</v>
+        <v>0.70499999999999996</v>
       </c>
       <c r="R146" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>54.00172773678073</v>
+        <v>32.49642878876638</v>
       </c>
     </row>
     <row r="147" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q147" s="97">
-        <v>0.14199999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="R147" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>53.963597774106951</v>
+        <v>32.305778975397459</v>
       </c>
     </row>
     <row r="148" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q148" s="97">
-        <v>0.14299999999999999</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="R148" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>53.925467811433158</v>
+        <v>32.115129162028531</v>
       </c>
     </row>
     <row r="149" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q149" s="97">
-        <v>0.14399999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="R149" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>53.88733784875938</v>
+        <v>31.924479348659609</v>
       </c>
     </row>
     <row r="150" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q150" s="97">
-        <v>0.14499999999999999</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="R150" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>53.849207886085594</v>
+        <v>31.733829535290688</v>
       </c>
     </row>
     <row r="151" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q151" s="97">
-        <v>0.14599999999999999</v>
+        <v>0.73</v>
       </c>
       <c r="R151" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>53.811077923411816</v>
+        <v>31.543179721921767</v>
       </c>
     </row>
     <row r="152" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q152" s="97">
-        <v>0.14699999999999999</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="R152" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>53.772947960738023</v>
+        <v>31.352529908552846</v>
       </c>
     </row>
     <row r="153" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q153" s="97">
-        <v>0.14799999999999999</v>
+        <v>0.74</v>
       </c>
       <c r="R153" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>53.734817998064244</v>
+        <v>31.161880095183925</v>
       </c>
     </row>
     <row r="154" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q154" s="97">
-        <v>0.14899999999999999</v>
+        <v>0.745</v>
       </c>
       <c r="R154" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>53.696688035390459</v>
+        <v>30.971230281815004</v>
       </c>
     </row>
     <row r="155" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q155" s="97">
-        <v>0.15</v>
+        <v>0.75</v>
       </c>
       <c r="R155" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>53.658558072716673</v>
+        <v>30.780580468446079</v>
       </c>
     </row>
     <row r="156" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q156" s="97">
-        <v>0.151</v>
+        <v>0.755</v>
       </c>
       <c r="R156" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>53.620428110042887</v>
+        <v>30.589930655077158</v>
       </c>
     </row>
     <row r="157" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q157" s="97">
-        <v>0.152</v>
+        <v>0.76</v>
       </c>
       <c r="R157" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>53.582298147369102</v>
+        <v>30.39928084170824</v>
       </c>
     </row>
     <row r="158" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q158" s="97">
-        <v>0.153</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="R158" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>53.544168184695323</v>
+        <v>30.208631028339312</v>
       </c>
     </row>
     <row r="159" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q159" s="97">
-        <v>0.154</v>
+        <v>0.77</v>
       </c>
       <c r="R159" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>53.50603822202153</v>
+        <v>30.017981214970391</v>
       </c>
     </row>
     <row r="160" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q160" s="97">
-        <v>0.155</v>
+        <v>0.77500000000000002</v>
       </c>
       <c r="R160" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>53.467908259347752</v>
+        <v>29.827331401601473</v>
       </c>
     </row>
     <row r="161" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q161" s="97">
-        <v>0.156</v>
+        <v>0.78</v>
       </c>
       <c r="R161" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>53.429778296673966</v>
+        <v>29.636681588232548</v>
       </c>
     </row>
     <row r="162" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q162" s="97">
-        <v>0.157</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="R162" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>53.39164833400018</v>
+        <v>29.446031774863627</v>
       </c>
     </row>
     <row r="163" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q163" s="97">
-        <v>0.158</v>
+        <v>0.79</v>
       </c>
       <c r="R163" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>53.353518371326395</v>
+        <v>29.255381961494706</v>
       </c>
     </row>
     <row r="164" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q164" s="97">
-        <v>0.159</v>
+        <v>0.79500000000000004</v>
       </c>
       <c r="R164" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>53.315388408652616</v>
+        <v>29.064732148125785</v>
       </c>
     </row>
     <row r="165" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q165" s="97">
-        <v>0.16</v>
+        <v>0.8</v>
       </c>
       <c r="R165" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>53.277258445978831</v>
+        <v>28.874082334756864</v>
       </c>
     </row>
     <row r="166" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q166" s="97">
-        <v>0.161</v>
+        <v>0.80500000000000005</v>
       </c>
       <c r="R166" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>53.239128483305045</v>
+        <v>28.683432521387942</v>
       </c>
     </row>
     <row r="167" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q167" s="97">
-        <v>0.16200000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="R167" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>53.200998520631259</v>
+        <v>28.492782708019018</v>
       </c>
     </row>
     <row r="168" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q168" s="97">
-        <v>0.16300000000000001</v>
+        <v>0.81499999999999995</v>
       </c>
       <c r="R168" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>53.162868557957481</v>
+        <v>28.3021328946501</v>
       </c>
     </row>
     <row r="169" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q169" s="97">
-        <v>0.16400000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="R169" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>53.124738595283688</v>
+        <v>28.111483081281179</v>
       </c>
     </row>
     <row r="170" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q170" s="97">
-        <v>0.16500000000000001</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="R170" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>53.086608632609909</v>
+        <v>27.920833267912258</v>
       </c>
     </row>
     <row r="171" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q171" s="97">
-        <v>0.16600000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="R171" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>53.048478669936124</v>
+        <v>27.730183454543337</v>
       </c>
     </row>
     <row r="172" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q172" s="97">
-        <v>0.16700000000000001</v>
+        <v>0.83499999999999996</v>
       </c>
       <c r="R172" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>53.010348707262338</v>
+        <v>27.539533641174415</v>
       </c>
     </row>
     <row r="173" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q173" s="97">
-        <v>0.16800000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="R173" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>52.972218744588552</v>
+        <v>27.348883827805491</v>
       </c>
     </row>
     <row r="174" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q174" s="97">
-        <v>0.16900000000000001</v>
+        <v>0.84499999999999997</v>
       </c>
       <c r="R174" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>52.934088781914767</v>
+        <v>27.158234014436569</v>
       </c>
     </row>
     <row r="175" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q175" s="97">
-        <v>0.17</v>
+        <v>0.85</v>
       </c>
       <c r="R175" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>52.895958819240988</v>
+        <v>26.967584201067648</v>
       </c>
     </row>
     <row r="176" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q176" s="97">
-        <v>0.17100000000000001</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="R176" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>52.857828856567195</v>
+        <v>26.776934387698724</v>
       </c>
     </row>
     <row r="177" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q177" s="97">
-        <v>0.17199999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="R177" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>52.819698893893424</v>
+        <v>26.586284574329802</v>
       </c>
     </row>
     <row r="178" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q178" s="97">
-        <v>0.17299999999999999</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="R178" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>52.781568931219631</v>
+        <v>26.395634760960881</v>
       </c>
     </row>
     <row r="179" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q179" s="97">
-        <v>0.17399999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="R179" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>52.74343896854586</v>
+        <v>26.20498494759196</v>
       </c>
     </row>
     <row r="180" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q180" s="97">
-        <v>0.17499999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="R180" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>52.70530900587206</v>
+        <v>26.014335134223039</v>
       </c>
     </row>
     <row r="181" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q181" s="97">
-        <v>0.17599999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="R181" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>52.667179043198288</v>
+        <v>25.823685320854118</v>
       </c>
     </row>
     <row r="182" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q182" s="97">
-        <v>0.17699999999999999</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="R182" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>52.629049080524496</v>
+        <v>25.633035507485193</v>
       </c>
     </row>
     <row r="183" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q183" s="97">
-        <v>0.17799999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="R183" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>52.590919117850717</v>
+        <v>25.442385694116275</v>
       </c>
     </row>
     <row r="184" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q184" s="97">
-        <v>0.17899999999999999</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="R184" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>52.552789155176924</v>
+        <v>25.251735880747354</v>
       </c>
     </row>
     <row r="185" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q185" s="97">
-        <v>0.18</v>
+        <v>0.9</v>
       </c>
       <c r="R185" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>52.514659192503146</v>
+        <v>25.061086067378429</v>
       </c>
     </row>
     <row r="186" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q186" s="97">
-        <v>0.18099999999999999</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="R186" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>52.47652922982936</v>
+        <v>24.870436254009508</v>
       </c>
     </row>
     <row r="187" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q187" s="97">
-        <v>0.182</v>
+        <v>0.91</v>
       </c>
       <c r="R187" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>52.438399267155575</v>
+        <v>24.679786440640587</v>
       </c>
     </row>
     <row r="188" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q188" s="97">
-        <v>0.183</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="R188" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>52.400269304481789</v>
+        <v>24.489136627271662</v>
       </c>
     </row>
     <row r="189" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q189" s="97">
-        <v>0.184</v>
+        <v>0.92</v>
       </c>
       <c r="R189" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>52.36213934180801</v>
+        <v>24.298486813902741</v>
       </c>
     </row>
     <row r="190" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q190" s="97">
-        <v>0.185</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="R190" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>52.324009379134218</v>
+        <v>24.107837000533824</v>
       </c>
     </row>
     <row r="191" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q191" s="97">
-        <v>0.186</v>
+        <v>0.93</v>
       </c>
       <c r="R191" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>52.285879416460439</v>
+        <v>23.917187187164899</v>
       </c>
     </row>
     <row r="192" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q192" s="97">
-        <v>0.187</v>
+        <v>0.93500000000000005</v>
       </c>
       <c r="R192" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>52.247749453786653</v>
+        <v>23.726537373795978</v>
       </c>
     </row>
     <row r="193" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q193" s="97">
-        <v>0.188</v>
+        <v>0.94</v>
       </c>
       <c r="R193" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>52.209619491112875</v>
+        <v>23.53588756042706</v>
       </c>
     </row>
     <row r="194" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q194" s="97">
-        <v>0.189</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="R194" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>52.171489528439082</v>
+        <v>23.345237747058139</v>
       </c>
     </row>
     <row r="195" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q195" s="97">
-        <v>0.19</v>
+        <v>0.95</v>
       </c>
       <c r="R195" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>52.133359565765304</v>
+        <v>23.154587933689214</v>
       </c>
     </row>
     <row r="196" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q196" s="97">
-        <v>0.191</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="R196" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>52.095229603091511</v>
+        <v>22.963938120320293</v>
       </c>
     </row>
     <row r="197" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q197" s="97">
-        <v>0.192</v>
+        <v>0.96</v>
       </c>
       <c r="R197" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>52.057099640417732</v>
+        <v>22.773288306951375</v>
       </c>
     </row>
     <row r="198" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q198" s="97">
-        <v>0.193</v>
+        <v>0.96499999999999997</v>
       </c>
       <c r="R198" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>52.018969677743939</v>
+        <v>22.582638493582451</v>
       </c>
     </row>
     <row r="199" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q199" s="97">
-        <v>0.19400000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="R199" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>51.980839715070168</v>
+        <v>22.39198868021353</v>
       </c>
     </row>
     <row r="200" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q200" s="97">
-        <v>0.19500000000000001</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="R200" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>51.942709752396375</v>
+        <v>22.201338866844608</v>
       </c>
     </row>
     <row r="201" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q201" s="97">
-        <v>0.19600000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="R201" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>51.904579789722597</v>
+        <v>22.010689053475684</v>
       </c>
     </row>
     <row r="202" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q202" s="97">
-        <v>0.19700000000000001</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="R202" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>51.866449827048804</v>
+        <v>21.820039240106766</v>
       </c>
     </row>
     <row r="203" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q203" s="97">
-        <v>0.19800000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="R203" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>51.828319864375032</v>
+        <v>21.629389426737845</v>
       </c>
     </row>
     <row r="204" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q204" s="97">
-        <v>0.19900000000000001</v>
+        <v>0.995</v>
       </c>
       <c r="R204" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>51.79018990170124</v>
+        <v>21.43873961336892</v>
       </c>
     </row>
     <row r="205" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="Q205" s="97">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="R205" s="95">
         <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>51.752059939027461</v>
-      </c>
-    </row>
-    <row r="206" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q206" s="97">
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="R206" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>51.713929976353668</v>
-      </c>
-    </row>
-    <row r="207" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q207" s="97">
-        <v>0.20200000000000001</v>
-      </c>
-      <c r="R207" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>51.675800013679897</v>
-      </c>
-    </row>
-    <row r="208" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q208" s="97">
-        <v>0.20300000000000001</v>
-      </c>
-      <c r="R208" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>51.637670051006097</v>
-      </c>
-    </row>
-    <row r="209" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q209" s="97">
-        <v>0.20399999999999999</v>
-      </c>
-      <c r="R209" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>51.599540088332319</v>
-      </c>
-    </row>
-    <row r="210" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q210" s="97">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="R210" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>51.56141012565854</v>
-      </c>
-    </row>
-    <row r="211" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q211" s="97">
-        <v>0.20599999999999999</v>
-      </c>
-      <c r="R211" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>51.523280162984747</v>
-      </c>
-    </row>
-    <row r="212" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q212" s="97">
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="R212" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>51.485150200310969</v>
-      </c>
-    </row>
-    <row r="213" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q213" s="97">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="R213" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>51.447020237637183</v>
-      </c>
-    </row>
-    <row r="214" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q214" s="97">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="R214" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>51.408890274963404</v>
-      </c>
-    </row>
-    <row r="215" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q215" s="97">
-        <v>0.21</v>
-      </c>
-      <c r="R215" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>51.370760312289612</v>
-      </c>
-    </row>
-    <row r="216" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q216" s="97">
-        <v>0.21099999999999999</v>
-      </c>
-      <c r="R216" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>51.332630349615833</v>
-      </c>
-    </row>
-    <row r="217" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q217" s="97">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="R217" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>51.294500386942047</v>
-      </c>
-    </row>
-    <row r="218" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q218" s="97">
-        <v>0.21299999999999999</v>
-      </c>
-      <c r="R218" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>51.256370424268262</v>
-      </c>
-    </row>
-    <row r="219" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q219" s="97">
-        <v>0.214</v>
-      </c>
-      <c r="R219" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>51.218240461594476</v>
-      </c>
-    </row>
-    <row r="220" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q220" s="97">
-        <v>0.215</v>
-      </c>
-      <c r="R220" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>51.180110498920698</v>
-      </c>
-    </row>
-    <row r="221" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q221" s="97">
-        <v>0.216</v>
-      </c>
-      <c r="R221" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>51.141980536246912</v>
-      </c>
-    </row>
-    <row r="222" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q222" s="97">
-        <v>0.217</v>
-      </c>
-      <c r="R222" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>51.103850573573126</v>
-      </c>
-    </row>
-    <row r="223" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q223" s="97">
-        <v>0.218</v>
-      </c>
-      <c r="R223" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>51.065720610899341</v>
-      </c>
-    </row>
-    <row r="224" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q224" s="97">
-        <v>0.219</v>
-      </c>
-      <c r="R224" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>51.027590648225555</v>
-      </c>
-    </row>
-    <row r="225" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q225" s="97">
-        <v>0.22</v>
-      </c>
-      <c r="R225" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>50.989460685551776</v>
-      </c>
-    </row>
-    <row r="226" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q226" s="97">
-        <v>0.221</v>
-      </c>
-      <c r="R226" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>50.951330722877984</v>
-      </c>
-    </row>
-    <row r="227" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q227" s="97">
-        <v>0.222</v>
-      </c>
-      <c r="R227" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>50.913200760204205</v>
-      </c>
-    </row>
-    <row r="228" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q228" s="97">
-        <v>0.223</v>
-      </c>
-      <c r="R228" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>50.875070797530419</v>
-      </c>
-    </row>
-    <row r="229" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q229" s="97">
-        <v>0.224</v>
-      </c>
-      <c r="R229" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>50.836940834856634</v>
-      </c>
-    </row>
-    <row r="230" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q230" s="97">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="R230" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>50.798810872182848</v>
-      </c>
-    </row>
-    <row r="231" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q231" s="97">
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="R231" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>50.76068090950907</v>
-      </c>
-    </row>
-    <row r="232" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q232" s="97">
-        <v>0.22700000000000001</v>
-      </c>
-      <c r="R232" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>50.722550946835284</v>
-      </c>
-    </row>
-    <row r="233" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q233" s="97">
-        <v>0.22800000000000001</v>
-      </c>
-      <c r="R233" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>50.684420984161498</v>
-      </c>
-    </row>
-    <row r="234" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q234" s="97">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="R234" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>50.646291021487713</v>
-      </c>
-    </row>
-    <row r="235" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q235" s="97">
-        <v>0.23</v>
-      </c>
-      <c r="R235" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>50.608161058813934</v>
-      </c>
-    </row>
-    <row r="236" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q236" s="97">
-        <v>0.23100000000000001</v>
-      </c>
-      <c r="R236" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>50.570031096140141</v>
-      </c>
-    </row>
-    <row r="237" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q237" s="97">
-        <v>0.23200000000000001</v>
-      </c>
-      <c r="R237" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>50.531901133466363</v>
-      </c>
-    </row>
-    <row r="238" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q238" s="97">
-        <v>0.23300000000000001</v>
-      </c>
-      <c r="R238" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>50.493771170792577</v>
-      </c>
-    </row>
-    <row r="239" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q239" s="97">
-        <v>0.23400000000000001</v>
-      </c>
-      <c r="R239" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>50.455641208118791</v>
-      </c>
-    </row>
-    <row r="240" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q240" s="97">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="R240" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>50.417511245445006</v>
-      </c>
-    </row>
-    <row r="241" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q241" s="97">
-        <v>0.23599999999999999</v>
-      </c>
-      <c r="R241" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>50.37938128277122</v>
-      </c>
-    </row>
-    <row r="242" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q242" s="97">
-        <v>0.23699999999999999</v>
-      </c>
-      <c r="R242" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>50.341251320097442</v>
-      </c>
-    </row>
-    <row r="243" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q243" s="97">
-        <v>0.23799999999999999</v>
-      </c>
-      <c r="R243" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>50.303121357423649</v>
-      </c>
-    </row>
-    <row r="244" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q244" s="97">
-        <v>0.23899999999999999</v>
-      </c>
-      <c r="R244" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>50.26499139474987</v>
-      </c>
-    </row>
-    <row r="245" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q245" s="97">
-        <v>0.24</v>
-      </c>
-      <c r="R245" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>50.226861432076085</v>
-      </c>
-    </row>
-    <row r="246" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q246" s="97">
-        <v>0.24099999999999999</v>
-      </c>
-      <c r="R246" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>50.188731469402306</v>
-      </c>
-    </row>
-    <row r="247" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q247" s="97">
-        <v>0.24199999999999999</v>
-      </c>
-      <c r="R247" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>50.150601506728513</v>
-      </c>
-    </row>
-    <row r="248" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q248" s="97">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="R248" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>50.112471544054735</v>
-      </c>
-    </row>
-    <row r="249" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q249" s="97">
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="R249" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>50.074341581380949</v>
-      </c>
-    </row>
-    <row r="250" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q250" s="97">
-        <v>0.245</v>
-      </c>
-      <c r="R250" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>50.036211618707156</v>
-      </c>
-    </row>
-    <row r="251" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q251" s="97">
-        <v>0.246</v>
-      </c>
-      <c r="R251" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>49.998081656033378</v>
-      </c>
-    </row>
-    <row r="252" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q252" s="97">
-        <v>0.247</v>
-      </c>
-      <c r="R252" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>49.959951693359599</v>
-      </c>
-    </row>
-    <row r="253" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q253" s="97">
-        <v>0.248</v>
-      </c>
-      <c r="R253" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>49.921821730685814</v>
-      </c>
-    </row>
-    <row r="254" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q254" s="97">
-        <v>0.249</v>
-      </c>
-      <c r="R254" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>49.883691768012021</v>
-      </c>
-    </row>
-    <row r="255" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q255" s="97">
-        <v>0.25</v>
-      </c>
-      <c r="R255" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>49.845561805338242</v>
-      </c>
-    </row>
-    <row r="256" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q256" s="97">
-        <v>0.251</v>
-      </c>
-      <c r="R256" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>49.807431842664457</v>
-      </c>
-    </row>
-    <row r="257" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q257" s="97">
-        <v>0.252</v>
-      </c>
-      <c r="R257" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>49.769301879990671</v>
-      </c>
-    </row>
-    <row r="258" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q258" s="97">
-        <v>0.253</v>
-      </c>
-      <c r="R258" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>49.731171917316885</v>
-      </c>
-    </row>
-    <row r="259" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q259" s="97">
-        <v>0.254</v>
-      </c>
-      <c r="R259" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>49.693041954643107</v>
-      </c>
-    </row>
-    <row r="260" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q260" s="97">
-        <v>0.255</v>
-      </c>
-      <c r="R260" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>49.654911991969321</v>
-      </c>
-    </row>
-    <row r="261" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q261" s="97">
-        <v>0.25600000000000001</v>
-      </c>
-      <c r="R261" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>49.616782029295535</v>
-      </c>
-    </row>
-    <row r="262" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q262" s="97">
-        <v>0.25700000000000001</v>
-      </c>
-      <c r="R262" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>49.57865206662175</v>
-      </c>
-    </row>
-    <row r="263" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q263" s="97">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="R263" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>49.540522103947971</v>
-      </c>
-    </row>
-    <row r="264" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q264" s="97">
-        <v>0.25900000000000001</v>
-      </c>
-      <c r="R264" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>49.502392141274179</v>
-      </c>
-    </row>
-    <row r="265" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q265" s="97">
-        <v>0.26</v>
-      </c>
-      <c r="R265" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
-        <v>49.464262178600393</v>
+        <v>21.248089799999999</v>
       </c>
     </row>
   </sheetData>
@@ -9156,8 +8256,8 @@
   </sheetPr>
   <dimension ref="A1:W144"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView topLeftCell="L1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9199,7 +8299,7 @@
         <v>74.12</v>
       </c>
       <c r="W2">
-        <v>100</v>
+        <v>684.69</v>
       </c>
     </row>
     <row r="4" spans="1:23" s="2" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -9388,7 +8488,7 @@
         <f>(1-Эксперимент[[#This Row],[w%1 
 ]])*Эксперимент[[#This Row],[mП г
 смесь     ]]/Плотности_доп[M ОКМ г/моль]*1000</f>
-        <v>85.8</v>
+        <v>12.531218507645795</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
@@ -9512,7 +8612,7 @@
         <f>(1-Эксперимент[[#This Row],[w%1 
 ]])*Эксперимент[[#This Row],[mП г
 смесь     ]]/Плотности_доп[M ОКМ г/моль]*1000</f>
-        <v>76.944434368402582</v>
+        <v>11.237849883655752</v>
       </c>
     </row>
     <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
@@ -9635,7 +8735,7 @@
         <f>(1-Эксперимент[[#This Row],[w%1 
 ]])*Эксперимент[[#This Row],[mП г
 смесь     ]]/Плотности_доп[M ОКМ г/моль]*1000</f>
-        <v>48.904209629722104</v>
+        <v>7.142533063097475</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
@@ -9758,7 +8858,7 @@
         <f>(1-Эксперимент[[#This Row],[w%1 
 ]])*Эксперимент[[#This Row],[mП г
 смесь     ]]/Плотности_доп[M ОКМ г/моль]*1000</f>
-        <v>74.549837781631297</v>
+        <v>10.888115465631349</v>
       </c>
     </row>
     <row r="9" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -9882,7 +8982,7 @@
         <f>(1-Эксперимент[[#This Row],[w%1 
 ]])*Эксперимент[[#This Row],[mП г
 смесь     ]]/Плотности_доп[M ОКМ г/моль]*1000</f>
-        <v>71.750977125391131</v>
+        <v>10.479337674771228</v>
       </c>
     </row>
     <row r="10" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -10006,7 +9106,7 @@
         <f>(1-Эксперимент[[#This Row],[w%1 
 ]])*Эксперимент[[#This Row],[mП г
 смесь     ]]/Плотности_доп[M ОКМ г/моль]*1000</f>
-        <v>69.223076057334893</v>
+        <v>10.11013393759729</v>
       </c>
     </row>
     <row r="11" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -10130,7 +9230,7 @@
         <f>(1-Эксперимент[[#This Row],[w%1 
 ]])*Эксперимент[[#This Row],[mП г
 смесь     ]]/Плотности_доп[M ОКМ г/моль]*1000</f>
-        <v>66.910766135639562</v>
+        <v>9.7724176102527522</v>
       </c>
     </row>
     <row r="12" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -10254,7 +9354,7 @@
         <f>(1-Эксперимент[[#This Row],[w%1 
 ]])*Эксперимент[[#This Row],[mП г
 смесь     ]]/Плотности_доп[M ОКМ г/моль]*1000</f>
-        <v>64.135976077357611</v>
+        <v>9.3671553662763607</v>
       </c>
     </row>
     <row r="13" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -10351,7 +9451,7 @@
         <v>0.17491828063571971</v>
       </c>
       <c r="R13" s="103">
-        <v>10.466799999999999</v>
+        <v>10.6668</v>
       </c>
       <c r="S13" s="30">
         <v>17.931999999999999</v>
@@ -10361,24 +9461,24 @@
 смесь    
 пик ]]-Эксперимент[[#This Row],[mП г
 пик]]</f>
-        <v>7.4651999999999994</v>
+        <v>7.2651999999999983</v>
       </c>
       <c r="U13" s="76">
         <f>Эксперимент[[#This Row],[mП г
 смесь     ]]/Плотности_доп[V пик мл]</f>
-        <v>1.4930399999999999</v>
+        <v>1.4530399999999997</v>
       </c>
       <c r="V13" s="72">
         <f>Эксперимент[[#This Row],[w%1 
 ]]*Эксперимент[[#This Row],[mП г
 смесь     ]]/Плотности_доп[M спирт г/моль]*1000</f>
-        <v>17.617376532673699</v>
+        <v>17.145389806727337</v>
       </c>
       <c r="W13" s="74">
         <f>(1-Эксперимент[[#This Row],[w%1 
 ]])*Эксперимент[[#This Row],[mП г
 смесь     ]]/Плотности_доп[M ОКМ г/моль]*1000</f>
-        <v>61.594000513982252</v>
+        <v>8.7548871862088937</v>
       </c>
     </row>
     <row r="14" spans="1:23" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10502,7 +9602,7 @@
         <f>(1-Эксперимент[[#This Row],[w%1 
 ]])*Эксперимент[[#This Row],[mП г
 смесь     ]]/Плотности_доп[M ОКМ г/моль]*1000</f>
-        <v>59.424834748497489</v>
+        <v>8.6790861190462092</v>
       </c>
     </row>
     <row r="15" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -10668,7 +9768,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I1">
         <v>-2555.6999999999998</v>
@@ -10678,7 +9778,7 @@
         <v>21.248089799999999</v>
       </c>
       <c r="K1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -10694,30 +9794,30 @@
         <v>8.5915262256455344E-15</v>
       </c>
       <c r="K2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A4" s="89" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="87" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="90" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="90" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="84" t="s">
         <v>50</v>
-      </c>
-      <c r="B4" s="89" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="87" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="88" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="90" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="90" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="84" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.3">

--- a/Experiments/MultiplyTemperature/Solves.xlsx
+++ b/Experiments/MultiplyTemperature/Solves.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\Diplom-work\Experiments\MultiplyTemperature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE27A5A1-877C-4429-A331-26D82872E990}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E51C8E6-BEF8-4EBC-8606-D6E3F9792522}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B4D95E1D-7DF1-45F9-84A6-56C0FCEE3758}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
   <si>
     <t>ro 
 спирт</t>
@@ -292,6 +292,17 @@
   </si>
   <si>
     <t>Х спирт</t>
+  </si>
+  <si>
+    <t>Столбец2</t>
+  </si>
+  <si>
+    <t>nu rT
+мм2/с</t>
+  </si>
+  <si>
+    <t>D 
+м3/с</t>
   </si>
 </sst>
 </file>
@@ -704,7 +715,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -910,12 +921,73 @@
     </xf>
     <xf numFmtId="1" fontId="5" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный_Спирт" xfId="1" xr:uid="{8A681B7D-D4A3-4E2B-84D7-F06B42D06188}"/>
   </cellStyles>
-  <dxfs count="62">
+  <dxfs count="64">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1141,9 +1213,6 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2062,28 +2131,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.18474645719966951</c:v>
+                  <c:v>0.12164264342806191</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.32632279736042979</c:v>
+                  <c:v>0.22840927890227944</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.43177188576386294</c:v>
+                  <c:v>0.31711181527003551</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.50850331974744278</c:v>
+                  <c:v>0.38735724751544087</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.56448340526923468</c:v>
+                  <c:v>0.44199408414845143</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.61826748266783738</c:v>
+                  <c:v>0.49743749365375467</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.66197708277032674</c:v>
+                  <c:v>0.54479608608288743</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.69775854004389526</c:v>
+                  <c:v>0.5852093534813807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2151,7 +2220,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Результаты!$Q$5:$Q$205</c:f>
+              <c:f>Результаты!$S$5:$S$205</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="200"/>
@@ -2760,7 +2829,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Результаты!$R$5:$R$205</c:f>
+              <c:f>Результаты!$T$5:$T$205</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="200"/>
@@ -5191,8 +5260,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AD6CF4CA-8DD5-42D3-9E5E-E0CF631B7806}" name="Аппроксимация" displayName="Аппроксимация" ref="A4:O14" totalsRowShown="0" headerRowDxfId="61">
-  <autoFilter ref="A4:O14" xr:uid="{A4C063FA-10B5-4E12-9B60-1F11F9CEEE32}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AD6CF4CA-8DD5-42D3-9E5E-E0CF631B7806}" name="Аппроксимация" displayName="Аппроксимация" ref="A4:Q14" totalsRowShown="0" headerRowDxfId="63">
+  <autoFilter ref="A4:Q14" xr:uid="{A4C063FA-10B5-4E12-9B60-1F11F9CEEE32}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -5209,60 +5278,62 @@
     <filterColumn colId="13" hiddenButton="1"/>
     <filterColumn colId="14" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="15">
-    <tableColumn id="8" xr3:uid="{9F7FD215-509F-4DE2-A3C7-D0FF03814D4C}" name="Описание" dataDxfId="60"/>
-    <tableColumn id="1" xr3:uid="{7BD1F57E-225E-4952-B218-B70E607E4506}" name="#" dataDxfId="59"/>
-    <tableColumn id="6" xr3:uid="{2BC6AEF4-16A6-4036-AD2F-70EB2ED37C83}" name="Эксперимент" dataDxfId="58"/>
-    <tableColumn id="7" xr3:uid="{4F002E9F-0B0A-4293-A906-6AAACB660E5F}" name="w% масс _x000a_теор" dataDxfId="57">
+  <tableColumns count="17">
+    <tableColumn id="8" xr3:uid="{9F7FD215-509F-4DE2-A3C7-D0FF03814D4C}" name="Описание" dataDxfId="62"/>
+    <tableColumn id="1" xr3:uid="{7BD1F57E-225E-4952-B218-B70E607E4506}" name="#" dataDxfId="61"/>
+    <tableColumn id="6" xr3:uid="{2BC6AEF4-16A6-4036-AD2F-70EB2ED37C83}" name="Эксперимент" dataDxfId="60"/>
+    <tableColumn id="7" xr3:uid="{4F002E9F-0B0A-4293-A906-6AAACB660E5F}" name="w% масс _x000a_теор" dataDxfId="59">
       <calculatedColumnFormula>Эксперимент!H5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{EFA2CF13-E204-4162-ACE5-6D1EB6C8441D}" name="w% масс _x000a_прак" dataDxfId="56">
+    <tableColumn id="9" xr3:uid="{EFA2CF13-E204-4162-ACE5-6D1EB6C8441D}" name="w% масс _x000a_прак" dataDxfId="58">
       <calculatedColumnFormula>Эксперимент!Q5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{1A0106D0-1671-48DC-9378-6065A29457AF}" name="C  спирт _x000a_М " dataDxfId="55">
+    <tableColumn id="16" xr3:uid="{1A0106D0-1671-48DC-9378-6065A29457AF}" name="C  спирт _x000a_М " dataDxfId="57">
       <calculatedColumnFormula>Эксперимент[[#This Row],[C спирт М ]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{5C48BC25-18C3-4E1E-A959-A9D7659AD8AA}" name="C ОКМ_x000a_М " dataDxfId="54">
+    <tableColumn id="19" xr3:uid="{5C48BC25-18C3-4E1E-A959-A9D7659AD8AA}" name="C ОКМ_x000a_М " dataDxfId="56">
       <calculatedColumnFormula>Эксперимент[[#This Row],[С ОКМ
 М]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{986310D2-1DE5-4684-80A8-AB34FC52B68F}" name="Х спирт" dataDxfId="53">
+    <tableColumn id="20" xr3:uid="{986310D2-1DE5-4684-80A8-AB34FC52B68F}" name="Х спирт" dataDxfId="55">
       <calculatedColumnFormula>Аппроксимация[[#This Row],[C  спирт 
 М ]]/(Аппроксимация[[#This Row],[C  спирт 
 М ]]+Аппроксимация[[#This Row],[C ОКМ
 М ]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{20B7447A-B783-44F2-B1A4-EC86581E32E5}" name="Е_x000a_ Дж" dataDxfId="52"/>
-    <tableColumn id="3" xr3:uid="{DF17DCAE-D682-463C-9861-C2D5B36736D4}" name="d Е_x000a_Дж" dataDxfId="51"/>
-    <tableColumn id="4" xr3:uid="{EF4548E5-7C26-4D63-A0F2-B091A7D76087}" name="D _x000a_м2с" dataDxfId="50"/>
-    <tableColumn id="5" xr3:uid="{E91881F4-89DF-4CA8-8787-443661255C2B}" name="d D _x000a_м2с" dataDxfId="49"/>
-    <tableColumn id="15" xr3:uid="{449D048E-21EB-4390-9181-5E474775AD2E}" name="ro _x000a_г/мл   " dataDxfId="48">
+    <tableColumn id="2" xr3:uid="{20B7447A-B783-44F2-B1A4-EC86581E32E5}" name="Е_x000a_ Дж" dataDxfId="54"/>
+    <tableColumn id="3" xr3:uid="{DF17DCAE-D682-463C-9861-C2D5B36736D4}" name="d Е_x000a_Дж" dataDxfId="53"/>
+    <tableColumn id="4" xr3:uid="{EF4548E5-7C26-4D63-A0F2-B091A7D76087}" name="D _x000a_м3/с" dataDxfId="52"/>
+    <tableColumn id="5" xr3:uid="{E91881F4-89DF-4CA8-8787-443661255C2B}" name="d D _x000a_м2с" dataDxfId="51"/>
+    <tableColumn id="15" xr3:uid="{449D048E-21EB-4390-9181-5E474775AD2E}" name="ro _x000a_г/мл   " dataDxfId="50">
       <calculatedColumnFormula>Эксперимент[[#This Row],[ro
 смесь г/мл   ]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{73CC65CD-60C0-458E-859A-8516E9CA96B2}" name="Е_x000a_ кДж" dataDxfId="47">
+    <tableColumn id="10" xr3:uid="{73CC65CD-60C0-458E-859A-8516E9CA96B2}" name="Е_x000a_ кДж" dataDxfId="49">
       <calculatedColumnFormula>Аппроксимация[[#This Row],[Е
  Дж]]/1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{6E9C14D8-3A36-49B6-B4C2-012E44BCDCFA}" name="d E" dataDxfId="46">
+    <tableColumn id="22" xr3:uid="{6E9C14D8-3A36-49B6-B4C2-012E44BCDCFA}" name="d E" dataDxfId="48">
       <calculatedColumnFormula>VLOOKUP(Аппроксимация[[#This Row],[Х спирт]],Таблица12[],2)-Аппроксимация[[#This Row],[Е
  кДж]]</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="11" xr3:uid="{5287448D-75D9-4D97-A54D-67D9F9003826}" name="nu rT_x000a_мм2/с" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{42A62B81-7600-4864-AB4D-71F4E89457A9}" name="Столбец2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{48B0AECA-8ECA-4EC0-842B-5628FA4C9F5F}" name="Таблица12" displayName="Таблица12" ref="Q4:R205" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
-  <autoFilter ref="Q4:R205" xr:uid="{EB61DCCC-95D3-478E-9CB9-6521FBDAC904}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{48B0AECA-8ECA-4EC0-842B-5628FA4C9F5F}" name="Таблица12" displayName="Таблица12" ref="S4:T205" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+  <autoFilter ref="S4:T205" xr:uid="{EB61DCCC-95D3-478E-9CB9-6521FBDAC904}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{AA6FAF22-11E0-42F0-99E3-1111C86D0712}" name="x" dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{0A20EB63-7F78-45D0-9508-B3013E7FA847}" name="E" dataDxfId="42">
-      <calculatedColumnFormula>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{AA6FAF22-11E0-42F0-99E3-1111C86D0712}" name="x" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{0A20EB63-7F78-45D0-9508-B3013E7FA847}" name="E" dataDxfId="44">
+      <calculatedColumnFormula>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5270,13 +5341,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{705E7711-FDB1-4654-ABD5-7AB39C01252B}" name="Спирт_доп" displayName="Спирт_доп" ref="Q1:R2" totalsRowShown="0">
-  <autoFilter ref="Q1:R2" xr:uid="{E0833A3C-C127-4892-9012-7B62ADA9C48E}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{705E7711-FDB1-4654-ABD5-7AB39C01252B}" name="Спирт_доп" displayName="Спирт_доп" ref="S1:T2" totalsRowShown="0">
+  <autoFilter ref="S1:T2" xr:uid="{E0833A3C-C127-4892-9012-7B62ADA9C48E}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{727CA1B6-BBA1-44D9-9745-C5235BB0FF2A}" name="E 0" dataDxfId="41">
+    <tableColumn id="1" xr3:uid="{727CA1B6-BBA1-44D9-9745-C5235BB0FF2A}" name="E 0" dataDxfId="43">
       <calculatedColumnFormula>N5</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{6053756B-AA13-4328-8A48-0B487C7AEC64}" name="E 100">
@@ -5288,7 +5359,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{23D3B64E-5883-4DDC-BE47-CAE203CDCD51}" name="Эксперимент" displayName="Эксперимент" ref="A4:W14" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{23D3B64E-5883-4DDC-BE47-CAE203CDCD51}" name="Эксперимент" displayName="Эксперимент" ref="A4:W14" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
   <autoFilter ref="A4:W14" xr:uid="{B8DF02FA-3140-484C-B272-AB560FB12BBD}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -5315,66 +5386,66 @@
     <filterColumn colId="22" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="23">
-    <tableColumn id="14" xr3:uid="{77FFFFAD-27FE-4585-A8A5-4920141174AB}" name="#" dataDxfId="38">
+    <tableColumn id="14" xr3:uid="{77FFFFAD-27FE-4585-A8A5-4920141174AB}" name="#" dataDxfId="40">
       <calculatedColumnFormula>A4+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{48747F86-4026-4D8A-857D-4C04ECCD38B1}" name="Доп" dataDxfId="37"/>
-    <tableColumn id="12" xr3:uid="{1871877F-C7B7-4C72-AF32-DB1A3FABAFCC}" name="m_x000a_стакан" dataDxfId="36"/>
-    <tableColumn id="1" xr3:uid="{6A216FEE-C1E1-40E4-815E-5380A5321732}" name="m0_x000a_смесь    _x000a_стакан" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{D1757256-BC6C-420E-BEA8-B604BC77F285}" name="m0_x000a_смесь" dataDxfId="34">
+    <tableColumn id="17" xr3:uid="{48747F86-4026-4D8A-857D-4C04ECCD38B1}" name="Доп" dataDxfId="39"/>
+    <tableColumn id="12" xr3:uid="{1871877F-C7B7-4C72-AF32-DB1A3FABAFCC}" name="m_x000a_стакан" dataDxfId="38"/>
+    <tableColumn id="1" xr3:uid="{6A216FEE-C1E1-40E4-815E-5380A5321732}" name="m0_x000a_смесь    _x000a_стакан" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{D1757256-BC6C-420E-BEA8-B604BC77F285}" name="m0_x000a_смесь" dataDxfId="36">
       <calculatedColumnFormula>Эксперимент[[#This Row],[m0
 смесь    
 стакан]]-Эксперимент[[#This Row],[m
 стакан]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5E2A2C51-8E70-4FD9-9B53-E7837EF2D163}" name="m0_x000a_ОКМ" dataDxfId="33">
+    <tableColumn id="3" xr3:uid="{5E2A2C51-8E70-4FD9-9B53-E7837EF2D163}" name="m0_x000a_ОКМ" dataDxfId="35">
       <calculatedColumnFormula>Эксперимент[[#This Row],[m0
 смесь]]*(1-Q4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{D1940891-C2DF-4AB7-A8E2-AF06FDA60F0D}" name="m0_x000a_спирт" dataDxfId="32">
+    <tableColumn id="4" xr3:uid="{D1940891-C2DF-4AB7-A8E2-AF06FDA60F0D}" name="m0_x000a_спирт" dataDxfId="34">
       <calculatedColumnFormula>Эксперимент[[#This Row],[m0
 смесь]]*Q4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{78FAF393-3070-4836-B8E9-4D79C52F839F}" name="w%1 т_x000a_спирт " dataDxfId="31">
+    <tableColumn id="6" xr3:uid="{78FAF393-3070-4836-B8E9-4D79C52F839F}" name="w%1 т_x000a_спирт " dataDxfId="33">
       <calculatedColumnFormula>H4+0.025</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{EA5712E3-E93C-456A-9EDE-9A8CA94753D1}" name="m+ т_x000a_спирт" dataDxfId="30">
+    <tableColumn id="7" xr3:uid="{EA5712E3-E93C-456A-9EDE-9A8CA94753D1}" name="m+ т_x000a_спирт" dataDxfId="32">
       <calculatedColumnFormula>(Эксперимент[[#This Row],[m0
 смесь]]*Эксперимент[[#This Row],[w%1 т
 спирт ]]-Эксперимент[[#This Row],[m0
 спирт]])/(1-Эксперимент[[#This Row],[w%1 т
 спирт ]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{BCA134A9-8EEF-453E-9616-5112E6D2B5D5}" name="V+ т_x000a_спирт" dataDxfId="29">
+    <tableColumn id="8" xr3:uid="{BCA134A9-8EEF-453E-9616-5112E6D2B5D5}" name="V+ т_x000a_спирт" dataDxfId="31">
       <calculatedColumnFormula>Эксперимент[[#This Row],[m+ т
 спирт]]/Эксперимент_доп[ro 
 спирт]*1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{36EC5429-FC05-4032-BBD0-3C2B1210A8F9}" name="m1 _x000a_смесь_x000a_стакан" dataDxfId="28"/>
-    <tableColumn id="10" xr3:uid="{F3443B4E-6300-47B1-8E7C-FC3BF1A5E3CD}" name="m1_x000a_смеси" dataDxfId="27"/>
-    <tableColumn id="11" xr3:uid="{D23B2127-A60A-4E45-A0EF-767833FF7A03}" name="m+_x000a_спирта" dataDxfId="26"/>
-    <tableColumn id="15" xr3:uid="{13B47A94-234C-4A1B-B993-FBE523863A83}" name="m2_x000a_смесь_x000a_стакан" dataDxfId="25"/>
-    <tableColumn id="13" xr3:uid="{22F644F7-5CB7-438A-9D0D-9E88DE87DE4D}" name="m2_x000a_смеси" dataDxfId="24"/>
-    <tableColumn id="16" xr3:uid="{96247A00-C27E-4AC1-85FF-B6D781503BD2}" name="m+_x000a_ОКМ" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{896470BD-9890-41DA-8AB1-D5964728C2BF}" name="w%1 _x000a_" dataDxfId="22"/>
-    <tableColumn id="18" xr3:uid="{0820FB03-01B9-44DB-82B9-D6B83878BDC8}" name="mП г_x000a_пик" dataDxfId="21"/>
-    <tableColumn id="19" xr3:uid="{26D687AE-1683-4A1E-B7EF-88F7CDAEA278}" name="mП г_x000a_смесь    _x000a_пик " dataDxfId="20"/>
-    <tableColumn id="20" xr3:uid="{A0C32414-2F25-4C19-AB7C-56D7E5582549}" name="mП г_x000a_смесь     " dataDxfId="19">
+    <tableColumn id="9" xr3:uid="{36EC5429-FC05-4032-BBD0-3C2B1210A8F9}" name="m1 _x000a_смесь_x000a_стакан" dataDxfId="30"/>
+    <tableColumn id="10" xr3:uid="{F3443B4E-6300-47B1-8E7C-FC3BF1A5E3CD}" name="m1_x000a_смеси" dataDxfId="29"/>
+    <tableColumn id="11" xr3:uid="{D23B2127-A60A-4E45-A0EF-767833FF7A03}" name="m+_x000a_спирта" dataDxfId="28"/>
+    <tableColumn id="15" xr3:uid="{13B47A94-234C-4A1B-B993-FBE523863A83}" name="m2_x000a_смесь_x000a_стакан" dataDxfId="27"/>
+    <tableColumn id="13" xr3:uid="{22F644F7-5CB7-438A-9D0D-9E88DE87DE4D}" name="m2_x000a_смеси" dataDxfId="26"/>
+    <tableColumn id="16" xr3:uid="{96247A00-C27E-4AC1-85FF-B6D781503BD2}" name="m+_x000a_ОКМ" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{896470BD-9890-41DA-8AB1-D5964728C2BF}" name="w%1 _x000a_" dataDxfId="24"/>
+    <tableColumn id="18" xr3:uid="{0820FB03-01B9-44DB-82B9-D6B83878BDC8}" name="mП г_x000a_пик" dataDxfId="23"/>
+    <tableColumn id="19" xr3:uid="{26D687AE-1683-4A1E-B7EF-88F7CDAEA278}" name="mП г_x000a_смесь    _x000a_пик " dataDxfId="22"/>
+    <tableColumn id="20" xr3:uid="{A0C32414-2F25-4C19-AB7C-56D7E5582549}" name="mП г_x000a_смесь     " dataDxfId="21">
       <calculatedColumnFormula>Эксперимент[[#This Row],[mП г
 смесь    
 пик ]]-Эксперимент[[#This Row],[mП г
 пик]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{9EDFC20E-DF6D-40C2-BDD4-FD2ADF247B6C}" name="ro_x000a_смесь г/мл   " dataDxfId="18">
+    <tableColumn id="21" xr3:uid="{9EDFC20E-DF6D-40C2-BDD4-FD2ADF247B6C}" name="ro_x000a_смесь г/мл   " dataDxfId="20">
       <calculatedColumnFormula>Эксперимент[[#This Row],[mП г
 смесь     ]]/Плотности_доп[V пик мл]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{C0681BE5-CAF9-4795-84C4-D0BAD37D47FB}" name="C спирт М " dataDxfId="17">
+    <tableColumn id="22" xr3:uid="{C0681BE5-CAF9-4795-84C4-D0BAD37D47FB}" name="C спирт М " dataDxfId="19">
       <calculatedColumnFormula>Эксперимент[[#This Row],[w%1 
 ]]*Эксперимент[[#This Row],[mП г
 смесь     ]]/Плотности_доп[M спирт г/моль]*1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{BCE0D3E6-5855-4685-8CB4-47083FF3D99D}" name="С ОКМ_x000a_М" dataDxfId="16">
+    <tableColumn id="23" xr3:uid="{BCE0D3E6-5855-4685-8CB4-47083FF3D99D}" name="С ОКМ_x000a_М" dataDxfId="18">
       <calculatedColumnFormula>(1-Эксперимент[[#This Row],[w%1 
 ]])*Эксперимент[[#This Row],[mП г
 смесь     ]]/Плотности_доп[M ОКМ г/моль]*1000</calculatedColumnFormula>
@@ -5385,19 +5456,19 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{566E47B1-38C6-4891-933F-DFE3ED9B6D33}" name="Эксперимент_доп" displayName="Эксперимент_доп" ref="J1:J2" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{566E47B1-38C6-4891-933F-DFE3ED9B6D33}" name="Эксперимент_доп" displayName="Эксперимент_доп" ref="J1:J2" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="J1:J2" xr:uid="{FE5521C9-5D13-479F-9E53-564B5B98F3E0}">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
-    <tableColumn id="2" xr3:uid="{A6AA64F7-0B92-4711-9CE9-3080CD0125E2}" name="ro _x000a_спирт" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{A6AA64F7-0B92-4711-9CE9-3080CD0125E2}" name="ro _x000a_спирт" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{27E4BF77-3067-4CAF-B1D9-890373194B67}" name="Плотности_доп" displayName="Плотности_доп" ref="U1:W2" totalsRowShown="0" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{27E4BF77-3067-4CAF-B1D9-890373194B67}" name="Плотности_доп" displayName="Плотности_доп" ref="U1:W2" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="U1:W2" xr:uid="{06838B1B-BD17-4A05-B569-F0CD134B544A}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -5413,7 +5484,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{FDEB74B0-7CC0-426B-AF13-D49846CEA263}" name="Таблица11" displayName="Таблица11" ref="A4:G25" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{FDEB74B0-7CC0-426B-AF13-D49846CEA263}" name="Таблица11" displayName="Таблица11" ref="A4:G25" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
   <autoFilter ref="A4:G25" xr:uid="{FBEE8ADA-637B-4A6C-9151-BF70C924F850}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -5424,22 +5495,22 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{4646E664-44DF-45A5-8228-5F811DE71838}" name="t_x000a_C" dataDxfId="6" dataCellStyle="Обычный_Спирт"/>
-    <tableColumn id="8" xr3:uid="{C859729B-C019-4D08-ACA4-3B460AD86104}" name="T _x000a_K" dataDxfId="5" dataCellStyle="Обычный_Спирт">
+    <tableColumn id="1" xr3:uid="{4646E664-44DF-45A5-8228-5F811DE71838}" name="t_x000a_C" dataDxfId="9" dataCellStyle="Обычный_Спирт"/>
+    <tableColumn id="8" xr3:uid="{C859729B-C019-4D08-ACA4-3B460AD86104}" name="T _x000a_K" dataDxfId="8" dataCellStyle="Обычный_Спирт">
       <calculatedColumnFormula>Таблица11[[#This Row],[t
 C]]+273.15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{B55F4A07-4D55-496A-98F4-7923D8F9F3D3}" name="ro _x000a_кг/м3" dataDxfId="4" dataCellStyle="Обычный_Спирт"/>
-    <tableColumn id="3" xr3:uid="{ED4CBB59-1BA5-4214-BACA-64678EE13752}" name="nu *106 Па с" dataDxfId="3" dataCellStyle="Обычный_Спирт"/>
-    <tableColumn id="4" xr3:uid="{DD1EE465-F62F-4809-907D-A262F14D304E}" name="1/T _x000a_K-1" dataDxfId="2">
+    <tableColumn id="2" xr3:uid="{B55F4A07-4D55-496A-98F4-7923D8F9F3D3}" name="ro _x000a_кг/м3" dataDxfId="7" dataCellStyle="Обычный_Спирт"/>
+    <tableColumn id="3" xr3:uid="{ED4CBB59-1BA5-4214-BACA-64678EE13752}" name="nu *106 Па с" dataDxfId="6" dataCellStyle="Обычный_Спирт"/>
+    <tableColumn id="4" xr3:uid="{DD1EE465-F62F-4809-907D-A262F14D304E}" name="1/T _x000a_K-1" dataDxfId="5">
       <calculatedColumnFormula>1/Таблица11[[#This Row],[T 
 K]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{764FF33D-1A62-4388-9118-018F46291530}" name="D _x000a_м2с" dataDxfId="1">
+    <tableColumn id="5" xr3:uid="{764FF33D-1A62-4388-9118-018F46291530}" name="D _x000a_м2с" dataDxfId="4">
       <calculatedColumnFormula>$E$2*Таблица11[[#This Row],[T 
 K]]/Таблица11[[#This Row],[nu *106 Па с]]*10^6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C8442FD2-4608-4C95-B225-0E3ADEA9ED66}" name="ln D" dataDxfId="0" dataCellStyle="Обычный_Спирт">
+    <tableColumn id="6" xr3:uid="{C8442FD2-4608-4C95-B225-0E3ADEA9ED66}" name="ln D" dataDxfId="3" dataCellStyle="Обычный_Спирт">
       <calculatedColumnFormula>LN(Таблица11[[#This Row],[D 
 м2с]])</calculatedColumnFormula>
     </tableColumn>
@@ -5748,10 +5819,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:T205"/>
+  <dimension ref="A1:V205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5767,34 +5838,35 @@
     <col min="10" max="10" width="7.5546875" customWidth="1"/>
     <col min="11" max="12" width="9.21875" customWidth="1"/>
     <col min="15" max="15" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="81" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" s="81" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="82"/>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>52</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
       <c r="J2" s="83"/>
       <c r="K2" s="4"/>
-      <c r="Q2" s="94">
+      <c r="S2" s="94">
         <f>N5</f>
         <v>59.378052473784322</v>
       </c>
-      <c r="R2">
+      <c r="T2">
         <f>Спирт!J1</f>
         <v>21.248089799999999</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="52" t="s">
         <v>32</v>
       </c>
@@ -5826,7 +5898,7 @@
         <v>56</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="L4" s="10" t="s">
         <v>58</v>
@@ -5840,14 +5912,20 @@
       <c r="O4" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="Q4" s="96" t="s">
+      <c r="P4" s="108" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q4" s="107" t="s">
+        <v>67</v>
+      </c>
+      <c r="S4" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="R4" s="96" t="s">
+      <c r="T4" s="96" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -5872,7 +5950,7 @@
       <c r="G5" s="78">
         <f>Эксперимент[[#This Row],[С ОКМ
 М]]</f>
-        <v>12.531218507645795</v>
+        <v>20.518952528996774</v>
       </c>
       <c r="H5" s="80">
         <f>Аппроксимация[[#This Row],[C  спирт 
@@ -5908,15 +5986,17 @@
  кДж]]</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="97">
+      <c r="P5" s="98"/>
+      <c r="Q5" s="98"/>
+      <c r="S5" s="97">
         <v>0</v>
       </c>
-      <c r="R5" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T5" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>59.378052473784322</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="55">
         <v>2</v>
       </c>
@@ -5933,19 +6013,19 @@
       </c>
       <c r="F6" s="77">
         <f>Эксперимент[[#This Row],[C спирт М ]]</f>
-        <v>2.5466346891492182</v>
+        <v>2.5483537621134067</v>
       </c>
       <c r="G6" s="78">
         <f>Эксперимент[[#This Row],[С ОКМ
 М]]</f>
-        <v>11.237849883655752</v>
+        <v>18.401156132584617</v>
       </c>
       <c r="H6" s="80">
         <f>Аппроксимация[[#This Row],[C  спирт 
 М ]]/(Аппроксимация[[#This Row],[C  спирт 
 М ]]+Аппроксимация[[#This Row],[C ОКМ
 М ]])</f>
-        <v>0.18474645719966951</v>
+        <v>0.12164264342806191</v>
       </c>
       <c r="I6" s="105">
         <v>52363.746865078472</v>
@@ -5972,20 +6052,22 @@
       <c r="O6" s="98">
         <f>VLOOKUP(Аппроксимация[[#This Row],[Х спирт]],Таблица12[],2)-Аппроксимация[[#This Row],[Е
  кДж]]</f>
-        <v>0.15091232742467042</v>
-      </c>
-      <c r="Q6" s="97">
+        <v>2.4387100878517316</v>
+      </c>
+      <c r="P6" s="98"/>
+      <c r="Q6" s="98"/>
+      <c r="S6" s="97">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="R6" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T6" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>59.187402660415401</v>
       </c>
-      <c r="T6" t="s">
+      <c r="V6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>28</v>
       </c>
@@ -6003,19 +6085,19 @@
       </c>
       <c r="F7" s="77">
         <f>Эксперимент[[#This Row],[C спирт М ]]</f>
-        <v>1.4784003916323534</v>
+        <v>1.479398366785339</v>
       </c>
       <c r="G7" s="78">
         <f>Эксперимент[[#This Row],[С ОКМ
 М]]</f>
-        <v>7.142533063097475</v>
+        <v>11.695374776927444</v>
       </c>
       <c r="H7" s="80">
         <f>Аппроксимация[[#This Row],[C  спирт 
 М ]]/(Аппроксимация[[#This Row],[C  спирт 
 М ]]+Аппроксимация[[#This Row],[C ОКМ
 М ]])</f>
-        <v>0.17148959557520271</v>
+        <v>0.11229023457541142</v>
       </c>
       <c r="I7" s="105"/>
       <c r="J7" s="63"/>
@@ -6034,17 +6116,19 @@
       <c r="O7" s="98">
         <f>VLOOKUP(Аппроксимация[[#This Row],[Х спирт]],Таблица12[],2)-Аппроксимация[[#This Row],[Е
  кДж]]</f>
-        <v>52.895958819240988</v>
-      </c>
-      <c r="Q7" s="97">
+        <v>55.183756579668049</v>
+      </c>
+      <c r="P7" s="98"/>
+      <c r="Q7" s="98"/>
+      <c r="S7" s="97">
         <v>0.01</v>
       </c>
-      <c r="R7" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T7" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>58.99675284704648</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="55">
         <v>4</v>
       </c>
@@ -6061,19 +6145,19 @@
       </c>
       <c r="F8" s="77">
         <f>Эксперимент[[#This Row],[C спирт М ]]</f>
-        <v>5.2740990533846572</v>
+        <v>5.2776592660573893</v>
       </c>
       <c r="G8" s="78">
         <f>Эксперимент[[#This Row],[С ОКМ
 М]]</f>
-        <v>10.888115465631349</v>
+        <v>17.8284916373625</v>
       </c>
       <c r="H8" s="80">
         <f>Аппроксимация[[#This Row],[C  спирт 
 М ]]/(Аппроксимация[[#This Row],[C  спирт 
 М ]]+Аппроксимация[[#This Row],[C ОКМ
 М ]])</f>
-        <v>0.32632279736042979</v>
+        <v>0.22840927890227944</v>
       </c>
       <c r="I8" s="105">
         <v>52285.076730252593</v>
@@ -6100,20 +6184,22 @@
       <c r="O8" s="98">
         <f>VLOOKUP(Аппроксимация[[#This Row],[Х спирт]],Таблица12[],2)-Аппроксимация[[#This Row],[Е
  кДж]]</f>
-        <v>-5.2992621254481662</v>
-      </c>
-      <c r="Q8" s="97">
+        <v>-1.4862658580697428</v>
+      </c>
+      <c r="P8" s="98"/>
+      <c r="Q8" s="98"/>
+      <c r="S8" s="97">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="R8" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T8" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>58.806103033677559</v>
       </c>
-      <c r="T8" t="s">
+      <c r="V8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B9" s="55">
         <v>5</v>
       </c>
@@ -6130,19 +6216,19 @@
       </c>
       <c r="F9" s="77">
         <f>Эксперимент[[#This Row],[C спирт М ]]</f>
-        <v>7.9627939484739354</v>
+        <v>7.9681691300241431</v>
       </c>
       <c r="G9" s="78">
         <f>Эксперимент[[#This Row],[С ОКМ
 М]]</f>
-        <v>10.479337674771228</v>
+        <v>17.159147943415313</v>
       </c>
       <c r="H9" s="80">
         <f>Аппроксимация[[#This Row],[C  спирт 
 М ]]/(Аппроксимация[[#This Row],[C  спирт 
 М ]]+Аппроксимация[[#This Row],[C ОКМ
 М ]])</f>
-        <v>0.43177188576386294</v>
+        <v>0.31711181527003551</v>
       </c>
       <c r="I9" s="105">
         <v>47693.48261218908</v>
@@ -6169,17 +6255,19 @@
       <c r="O9" s="98">
         <f>VLOOKUP(Аппроксимация[[#This Row],[Х спирт]],Таблица12[],2)-Аппроксимация[[#This Row],[Е
  кДж]]</f>
-        <v>-4.7113140881320135</v>
-      </c>
-      <c r="Q9" s="97">
+        <v>-0.32636838064681228</v>
+      </c>
+      <c r="P9" s="98"/>
+      <c r="Q9" s="98"/>
+      <c r="S9" s="97">
         <v>0.02</v>
       </c>
-      <c r="R9" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T9" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>58.61545322030863</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B10" s="55">
         <v>6</v>
       </c>
@@ -6196,19 +6284,19 @@
       </c>
       <c r="F10" s="77">
         <f>Эксперимент[[#This Row],[C спирт М ]]</f>
-        <v>10.459962146067328</v>
+        <v>10.467023008863379</v>
       </c>
       <c r="G10" s="78">
         <f>Эксперимент[[#This Row],[С ОКМ
 М]]</f>
-        <v>10.11013393759729</v>
+        <v>16.55460386400452</v>
       </c>
       <c r="H10" s="80">
         <f>Аппроксимация[[#This Row],[C  спирт 
 М ]]/(Аппроксимация[[#This Row],[C  спирт 
 М ]]+Аппроксимация[[#This Row],[C ОКМ
 М ]])</f>
-        <v>0.50850331974744278</v>
+        <v>0.38735724751544087</v>
       </c>
       <c r="I10" s="105">
         <v>43295.330524036741</v>
@@ -6235,17 +6323,19 @@
       <c r="O10" s="98">
         <f>VLOOKUP(Аппроксимация[[#This Row],[Х спирт]],Таблица12[],2)-Аппроксимация[[#This Row],[Е
  кДж]]</f>
-        <v>-3.1729092005135016</v>
-      </c>
-      <c r="Q10" s="97">
+        <v>1.4026863203406208</v>
+      </c>
+      <c r="P10" s="98"/>
+      <c r="Q10" s="98"/>
+      <c r="S10" s="97">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="R10" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T10" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>58.424803406939716</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="55">
         <v>7</v>
       </c>
@@ -6262,19 +6352,19 @@
       </c>
       <c r="F11" s="77">
         <f>Эксперимент[[#This Row],[C спирт М ]]</f>
-        <v>12.666262634053492</v>
+        <v>12.674812831592345</v>
       </c>
       <c r="G11" s="78">
         <f>Эксперимент[[#This Row],[С ОКМ
 М]]</f>
-        <v>9.7724176102527522</v>
+        <v>16.00161811207451</v>
       </c>
       <c r="H11" s="80">
         <f>Аппроксимация[[#This Row],[C  спирт 
 М ]]/(Аппроксимация[[#This Row],[C  спирт 
 М ]]+Аппроксимация[[#This Row],[C ОКМ
 М ]])</f>
-        <v>0.56448340526923468</v>
+        <v>0.44199408414845143</v>
       </c>
       <c r="I11" s="105">
         <v>44740.278273015843</v>
@@ -6301,17 +6391,19 @@
       <c r="O11" s="98">
         <f>VLOOKUP(Аппроксимация[[#This Row],[Х спирт]],Таблица12[],2)-Аппроксимация[[#This Row],[Е
  кДж]]</f>
-        <v>-6.7150048965507452</v>
-      </c>
-      <c r="Q11" s="97">
+        <v>-2.1394093756966228</v>
+      </c>
+      <c r="P11" s="98"/>
+      <c r="Q11" s="98"/>
+      <c r="S11" s="97">
         <v>0.03</v>
       </c>
-      <c r="R11" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T11" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>58.234153593570788</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="55">
         <v>8</v>
       </c>
@@ -6328,19 +6420,19 @@
       </c>
       <c r="F12" s="77">
         <f>Эксперимент[[#This Row],[C спирт М ]]</f>
-        <v>15.171376042420945</v>
+        <v>15.181617284517896</v>
       </c>
       <c r="G12" s="78">
         <f>Эксперимент[[#This Row],[С ОКМ
 М]]</f>
-        <v>9.3671553662763607</v>
+        <v>15.338030868673352</v>
       </c>
       <c r="H12" s="80">
         <f>Аппроксимация[[#This Row],[C  спирт 
 М ]]/(Аппроксимация[[#This Row],[C  спирт 
 М ]]+Аппроксимация[[#This Row],[C ОКМ
 М ]])</f>
-        <v>0.61826748266783738</v>
+        <v>0.49743749365375467</v>
       </c>
       <c r="I12" s="105">
         <v>40670.390105201288</v>
@@ -6367,21 +6459,23 @@
       <c r="O12" s="98">
         <f>VLOOKUP(Аппроксимация[[#This Row],[Х спирт]],Таблица12[],2)-Аппроксимация[[#This Row],[Е
  кДж]]</f>
-        <v>-4.7422646757943241</v>
-      </c>
-      <c r="Q12" s="97">
+        <v>-0.16666915494020174</v>
+      </c>
+      <c r="P12" s="98"/>
+      <c r="Q12" s="98"/>
+      <c r="S12" s="97">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="R12" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T12" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>58.043503780201867</v>
       </c>
-      <c r="T12" s="4">
+      <c r="V12" s="4">
         <f>K5*EXP(-I5/8.314/288)</f>
         <v>1.364926037277355E-20</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="55">
         <v>9</v>
       </c>
@@ -6398,19 +6492,19 @@
       </c>
       <c r="F13" s="77">
         <f>Эксперимент[[#This Row],[C спирт М ]]</f>
-        <v>17.145389806727337</v>
+        <v>17.629268915914334</v>
       </c>
       <c r="G13" s="78">
         <f>Эксперимент[[#This Row],[С ОКМ
 М]]</f>
-        <v>8.7548871862088937</v>
+        <v>14.730120892976744</v>
       </c>
       <c r="H13" s="80">
         <f>Аппроксимация[[#This Row],[C  спирт 
 М ]]/(Аппроксимация[[#This Row],[C  спирт 
 М ]]+Аппроксимация[[#This Row],[C ОКМ
 М ]])</f>
-        <v>0.66197708277032674</v>
+        <v>0.54479608608288743</v>
       </c>
       <c r="I13" s="105">
         <v>40593.91144412195</v>
@@ -6427,7 +6521,7 @@
       <c r="M13" s="69">
         <f>Эксперимент[[#This Row],[ro
 смесь г/мл   ]]</f>
-        <v>1.4530399999999997</v>
+        <v>1.4930399999999999</v>
       </c>
       <c r="N13" s="69">
         <f>Аппроксимация[[#This Row],[Е
@@ -6437,21 +6531,23 @@
       <c r="O13" s="98">
         <f>VLOOKUP(Аппроксимация[[#This Row],[Х спирт]],Таблица12[],2)-Аппроксимация[[#This Row],[Е
  кДж]]</f>
-        <v>-6.3816343350352795</v>
-      </c>
-      <c r="Q13" s="97">
+        <v>-1.8060388141811643</v>
+      </c>
+      <c r="P13" s="98"/>
+      <c r="Q13" s="98"/>
+      <c r="S13" s="97">
         <v>0.04</v>
       </c>
-      <c r="R13" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T13" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>57.852853966832953</v>
       </c>
-      <c r="T13" s="4">
+      <c r="V13" s="4">
         <f>K14*EXP(-I14/8.314/288)</f>
         <v>9.3884810291104399E-20</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B14" s="55">
         <v>10</v>
       </c>
@@ -6468,19 +6564,19 @@
       </c>
       <c r="F14" s="77">
         <f>Эксперимент[[#This Row],[C спирт М ]]</f>
-        <v>20.036650366301277</v>
+        <v>20.050175849200091</v>
       </c>
       <c r="G14" s="78">
         <f>Эксперимент[[#This Row],[С ОКМ
 М]]</f>
-        <v>8.6790861190462092</v>
+        <v>14.211367870022119</v>
       </c>
       <c r="H14" s="80">
         <f>Аппроксимация[[#This Row],[C  спирт 
 М ]]/(Аппроксимация[[#This Row],[C  спирт 
 М ]]+Аппроксимация[[#This Row],[C ОКМ
 М ]])</f>
-        <v>0.69775854004389526</v>
+        <v>0.5852093534813807</v>
       </c>
       <c r="I14" s="105">
         <v>40303.092224148277</v>
@@ -6507,1732 +6603,1734 @@
       <c r="O14" s="98">
         <f>VLOOKUP(Аппроксимация[[#This Row],[Х спирт]],Таблица12[],2)-Аппроксимация[[#This Row],[Е
  кДж]]</f>
-        <v>-7.4253638086440574</v>
-      </c>
-      <c r="Q14" s="97">
+        <v>-3.2310679145277845</v>
+      </c>
+      <c r="P14" s="98"/>
+      <c r="Q14" s="98"/>
+      <c r="S14" s="97">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="R14" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T14" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>57.662204153464025</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q15" s="97">
+    <row r="15" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S15" s="97">
         <v>0.05</v>
       </c>
-      <c r="R15" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T15" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>57.471554340095103</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q16" s="97">
+    <row r="16" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S16" s="97">
         <v>5.5E-2</v>
       </c>
-      <c r="R16" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T16" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>57.280904526726175</v>
       </c>
     </row>
-    <row r="17" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q17" s="97">
+    <row r="17" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S17" s="97">
         <v>0.06</v>
       </c>
-      <c r="R17" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T17" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>57.090254713357261</v>
       </c>
     </row>
-    <row r="18" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q18" s="97">
+    <row r="18" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S18" s="97">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="R18" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T18" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>56.899604899988347</v>
       </c>
     </row>
-    <row r="19" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q19" s="97">
+    <row r="19" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S19" s="97">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="R19" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T19" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>56.708955086619412</v>
       </c>
     </row>
-    <row r="20" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q20" s="97">
+    <row r="20" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S20" s="97">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="R20" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T20" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>56.518305273250505</v>
       </c>
     </row>
-    <row r="21" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q21" s="97">
+    <row r="21" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S21" s="97">
         <v>0.08</v>
       </c>
-      <c r="R21" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T21" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>56.327655459881576</v>
       </c>
     </row>
-    <row r="22" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q22" s="97">
+    <row r="22" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S22" s="97">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="R22" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T22" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>56.137005646512655</v>
       </c>
     </row>
-    <row r="23" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q23" s="97">
+    <row r="23" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S23" s="97">
         <v>0.09</v>
       </c>
-      <c r="R23" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T23" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>55.946355833143734</v>
       </c>
     </row>
-    <row r="24" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q24" s="97">
+    <row r="24" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S24" s="97">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="R24" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T24" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>55.755706019774813</v>
       </c>
     </row>
-    <row r="25" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q25" s="97">
+    <row r="25" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S25" s="97">
         <v>0.1</v>
       </c>
-      <c r="R25" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T25" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>55.565056206405892</v>
       </c>
     </row>
-    <row r="26" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q26" s="97">
+    <row r="26" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S26" s="97">
         <v>0.105</v>
       </c>
-      <c r="R26" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T26" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>55.374406393036971</v>
       </c>
     </row>
-    <row r="27" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q27" s="97">
+    <row r="27" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S27" s="97">
         <v>0.11</v>
       </c>
-      <c r="R27" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T27" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>55.183756579668049</v>
       </c>
     </row>
-    <row r="28" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q28" s="97">
+    <row r="28" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S28" s="97">
         <v>0.115</v>
       </c>
-      <c r="R28" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T28" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>54.993106766299121</v>
       </c>
     </row>
-    <row r="29" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q29" s="97">
+    <row r="29" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S29" s="97">
         <v>0.12</v>
       </c>
-      <c r="R29" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T29" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>54.802456952930207</v>
       </c>
     </row>
-    <row r="30" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q30" s="97">
+    <row r="30" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S30" s="97">
         <v>0.125</v>
       </c>
-      <c r="R30" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T30" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>54.611807139561279</v>
       </c>
     </row>
-    <row r="31" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q31" s="97">
+    <row r="31" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S31" s="97">
         <v>0.13</v>
       </c>
-      <c r="R31" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T31" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>54.421157326192358</v>
       </c>
     </row>
-    <row r="32" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q32" s="97">
+    <row r="32" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S32" s="97">
         <v>0.13500000000000001</v>
       </c>
-      <c r="R32" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T32" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>54.230507512823444</v>
       </c>
     </row>
-    <row r="33" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q33" s="97">
+    <row r="33" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S33" s="97">
         <v>0.14000000000000001</v>
       </c>
-      <c r="R33" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T33" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>54.039857699454515</v>
       </c>
     </row>
-    <row r="34" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q34" s="97">
+    <row r="34" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S34" s="97">
         <v>0.14499999999999999</v>
       </c>
-      <c r="R34" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T34" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>53.849207886085594</v>
       </c>
     </row>
-    <row r="35" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q35" s="97">
+    <row r="35" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S35" s="97">
         <v>0.15</v>
       </c>
-      <c r="R35" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T35" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>53.658558072716673</v>
       </c>
     </row>
-    <row r="36" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q36" s="97">
+    <row r="36" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S36" s="97">
         <v>0.155</v>
       </c>
-      <c r="R36" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T36" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>53.467908259347752</v>
       </c>
     </row>
-    <row r="37" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q37" s="97">
+    <row r="37" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S37" s="97">
         <v>0.16</v>
       </c>
-      <c r="R37" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T37" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>53.277258445978831</v>
       </c>
     </row>
-    <row r="38" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q38" s="97">
+    <row r="38" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S38" s="97">
         <v>0.16500000000000001</v>
       </c>
-      <c r="R38" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T38" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>53.086608632609909</v>
       </c>
     </row>
-    <row r="39" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q39" s="97">
+    <row r="39" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S39" s="97">
         <v>0.17</v>
       </c>
-      <c r="R39" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T39" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>52.895958819240988</v>
       </c>
     </row>
-    <row r="40" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q40" s="97">
+    <row r="40" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S40" s="97">
         <v>0.17499999999999999</v>
       </c>
-      <c r="R40" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T40" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>52.70530900587206</v>
       </c>
     </row>
-    <row r="41" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q41" s="97">
+    <row r="41" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S41" s="97">
         <v>0.18</v>
       </c>
-      <c r="R41" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T41" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>52.514659192503146</v>
       </c>
     </row>
-    <row r="42" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q42" s="97">
+    <row r="42" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S42" s="97">
         <v>0.185</v>
       </c>
-      <c r="R42" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T42" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>52.324009379134218</v>
       </c>
     </row>
-    <row r="43" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q43" s="97">
+    <row r="43" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S43" s="97">
         <v>0.19</v>
       </c>
-      <c r="R43" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T43" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>52.133359565765304</v>
       </c>
     </row>
-    <row r="44" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q44" s="97">
+    <row r="44" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S44" s="97">
         <v>0.19500000000000001</v>
       </c>
-      <c r="R44" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T44" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>51.942709752396375</v>
       </c>
     </row>
-    <row r="45" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q45" s="97">
+    <row r="45" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S45" s="97">
         <v>0.2</v>
       </c>
-      <c r="R45" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T45" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>51.752059939027461</v>
       </c>
     </row>
-    <row r="46" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q46" s="97">
+    <row r="46" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S46" s="97">
         <v>0.20499999999999999</v>
       </c>
-      <c r="R46" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T46" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>51.56141012565854</v>
       </c>
     </row>
-    <row r="47" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q47" s="97">
+    <row r="47" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S47" s="97">
         <v>0.21</v>
       </c>
-      <c r="R47" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T47" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>51.370760312289612</v>
       </c>
     </row>
-    <row r="48" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q48" s="97">
+    <row r="48" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S48" s="97">
         <v>0.215</v>
       </c>
-      <c r="R48" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T48" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>51.180110498920698</v>
       </c>
     </row>
-    <row r="49" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q49" s="97">
+    <row r="49" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S49" s="97">
         <v>0.22</v>
       </c>
-      <c r="R49" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T49" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>50.989460685551776</v>
       </c>
     </row>
-    <row r="50" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q50" s="97">
+    <row r="50" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S50" s="97">
         <v>0.22500000000000001</v>
       </c>
-      <c r="R50" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T50" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>50.798810872182848</v>
       </c>
     </row>
-    <row r="51" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q51" s="97">
+    <row r="51" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S51" s="97">
         <v>0.23</v>
       </c>
-      <c r="R51" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T51" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>50.608161058813934</v>
       </c>
     </row>
-    <row r="52" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q52" s="97">
+    <row r="52" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S52" s="97">
         <v>0.23499999999999999</v>
       </c>
-      <c r="R52" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T52" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>50.417511245445006</v>
       </c>
     </row>
-    <row r="53" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q53" s="97">
+    <row r="53" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S53" s="97">
         <v>0.24</v>
       </c>
-      <c r="R53" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T53" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>50.226861432076085</v>
       </c>
     </row>
-    <row r="54" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q54" s="97">
+    <row r="54" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S54" s="97">
         <v>0.245</v>
       </c>
-      <c r="R54" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T54" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>50.036211618707156</v>
       </c>
     </row>
-    <row r="55" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q55" s="97">
+    <row r="55" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S55" s="97">
         <v>0.25</v>
       </c>
-      <c r="R55" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T55" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>49.845561805338242</v>
       </c>
     </row>
-    <row r="56" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q56" s="97">
+    <row r="56" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S56" s="97">
         <v>0.255</v>
       </c>
-      <c r="R56" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T56" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>49.654911991969321</v>
       </c>
     </row>
-    <row r="57" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q57" s="97">
+    <row r="57" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S57" s="97">
         <v>0.26</v>
       </c>
-      <c r="R57" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T57" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>49.464262178600393</v>
       </c>
     </row>
-    <row r="58" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q58" s="97">
+    <row r="58" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S58" s="97">
         <v>0.26500000000000001</v>
       </c>
-      <c r="R58" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T58" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>49.273612365231479</v>
       </c>
     </row>
-    <row r="59" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q59" s="97">
+    <row r="59" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S59" s="97">
         <v>0.27</v>
       </c>
-      <c r="R59" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T59" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>49.082962551862551</v>
       </c>
     </row>
-    <row r="60" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q60" s="97">
+    <row r="60" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S60" s="97">
         <v>0.27500000000000002</v>
       </c>
-      <c r="R60" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T60" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>48.892312738493629</v>
       </c>
     </row>
-    <row r="61" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q61" s="97">
+    <row r="61" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S61" s="97">
         <v>0.28000000000000003</v>
       </c>
-      <c r="R61" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T61" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>48.701662925124708</v>
       </c>
     </row>
-    <row r="62" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q62" s="97">
+    <row r="62" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S62" s="97">
         <v>0.28499999999999998</v>
       </c>
-      <c r="R62" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T62" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>48.511013111755794</v>
       </c>
     </row>
-    <row r="63" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q63" s="97">
+    <row r="63" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S63" s="97">
         <v>0.28999999999999998</v>
       </c>
-      <c r="R63" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T63" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>48.320363298386866</v>
       </c>
     </row>
-    <row r="64" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q64" s="97">
+    <row r="64" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S64" s="97">
         <v>0.29499999999999998</v>
       </c>
-      <c r="R64" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T64" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>48.129713485017952</v>
       </c>
     </row>
-    <row r="65" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q65" s="97">
+    <row r="65" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S65" s="97">
         <v>0.3</v>
       </c>
-      <c r="R65" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T65" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>47.939063671649023</v>
       </c>
     </row>
-    <row r="66" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q66" s="97">
+    <row r="66" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S66" s="97">
         <v>0.30499999999999999</v>
       </c>
-      <c r="R66" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T66" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>47.748413858280102</v>
       </c>
     </row>
-    <row r="67" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q67" s="97">
+    <row r="67" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S67" s="97">
         <v>0.31</v>
       </c>
-      <c r="R67" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T67" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>47.557764044911181</v>
       </c>
     </row>
-    <row r="68" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q68" s="97">
+    <row r="68" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S68" s="97">
         <v>0.315</v>
       </c>
-      <c r="R68" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T68" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>47.367114231542267</v>
       </c>
     </row>
-    <row r="69" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q69" s="97">
+    <row r="69" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S69" s="97">
         <v>0.32</v>
       </c>
-      <c r="R69" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T69" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>47.176464418173332</v>
       </c>
     </row>
-    <row r="70" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q70" s="97">
+    <row r="70" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S70" s="97">
         <v>0.32500000000000001</v>
       </c>
-      <c r="R70" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T70" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>46.985814604804425</v>
       </c>
     </row>
-    <row r="71" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q71" s="97">
+    <row r="71" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S71" s="97">
         <v>0.33</v>
       </c>
-      <c r="R71" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T71" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>46.795164791435489</v>
       </c>
     </row>
-    <row r="72" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q72" s="97">
+    <row r="72" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S72" s="97">
         <v>0.33500000000000002</v>
       </c>
-      <c r="R72" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T72" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>46.604514978066575</v>
       </c>
     </row>
-    <row r="73" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q73" s="97">
+    <row r="73" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S73" s="97">
         <v>0.34</v>
       </c>
-      <c r="R73" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T73" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>46.413865164697647</v>
       </c>
     </row>
-    <row r="74" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q74" s="97">
+    <row r="74" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S74" s="97">
         <v>0.34499999999999997</v>
       </c>
-      <c r="R74" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T74" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>46.223215351328733</v>
       </c>
     </row>
-    <row r="75" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q75" s="97">
+    <row r="75" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S75" s="97">
         <v>0.35</v>
       </c>
-      <c r="R75" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T75" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>46.032565537959812</v>
       </c>
     </row>
-    <row r="76" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q76" s="97">
+    <row r="76" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S76" s="97">
         <v>0.35499999999999998</v>
       </c>
-      <c r="R76" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T76" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>45.841915724590891</v>
       </c>
     </row>
-    <row r="77" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q77" s="97">
+    <row r="77" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S77" s="97">
         <v>0.36</v>
       </c>
-      <c r="R77" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T77" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>45.651265911221969</v>
       </c>
     </row>
-    <row r="78" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q78" s="97">
+    <row r="78" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S78" s="97">
         <v>0.36499999999999999</v>
       </c>
-      <c r="R78" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T78" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>45.460616097853041</v>
       </c>
     </row>
-    <row r="79" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q79" s="97">
+    <row r="79" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S79" s="97">
         <v>0.37</v>
       </c>
-      <c r="R79" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T79" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>45.269966284484127</v>
       </c>
     </row>
-    <row r="80" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q80" s="97">
+    <row r="80" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S80" s="97">
         <v>0.375</v>
       </c>
-      <c r="R80" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T80" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>45.079316471115206</v>
       </c>
     </row>
-    <row r="81" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q81" s="97">
+    <row r="81" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S81" s="97">
         <v>0.38</v>
       </c>
-      <c r="R81" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T81" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>44.888666657746278</v>
       </c>
     </row>
-    <row r="82" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q82" s="97">
+    <row r="82" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S82" s="97">
         <v>0.38500000000000001</v>
       </c>
-      <c r="R82" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T82" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>44.698016844377364</v>
       </c>
     </row>
-    <row r="83" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q83" s="97">
+    <row r="83" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S83" s="97">
         <v>0.39</v>
       </c>
-      <c r="R83" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T83" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>44.507367031008435</v>
       </c>
     </row>
-    <row r="84" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q84" s="97">
+    <row r="84" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S84" s="97">
         <v>0.39500000000000002</v>
       </c>
-      <c r="R84" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T84" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>44.316717217639514</v>
       </c>
     </row>
-    <row r="85" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q85" s="97">
+    <row r="85" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S85" s="97">
         <v>0.4</v>
       </c>
-      <c r="R85" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T85" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>44.126067404270586</v>
       </c>
     </row>
-    <row r="86" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q86" s="97">
+    <row r="86" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S86" s="97">
         <v>0.40500000000000003</v>
       </c>
-      <c r="R86" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T86" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>43.935417590901672</v>
       </c>
     </row>
-    <row r="87" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q87" s="97">
+    <row r="87" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S87" s="97">
         <v>0.41</v>
       </c>
-      <c r="R87" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T87" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>43.744767777532758</v>
       </c>
     </row>
-    <row r="88" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q88" s="97">
+    <row r="88" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S88" s="97">
         <v>0.41499999999999998</v>
       </c>
-      <c r="R88" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T88" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>43.554117964163822</v>
       </c>
     </row>
-    <row r="89" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q89" s="97">
+    <row r="89" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S89" s="97">
         <v>0.42</v>
       </c>
-      <c r="R89" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T89" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>43.363468150794915</v>
       </c>
     </row>
-    <row r="90" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q90" s="97">
+    <row r="90" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S90" s="97">
         <v>0.42499999999999999</v>
       </c>
-      <c r="R90" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T90" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>43.17281833742598</v>
       </c>
     </row>
-    <row r="91" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q91" s="97">
+    <row r="91" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S91" s="97">
         <v>0.43</v>
       </c>
-      <c r="R91" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T91" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>42.982168524057066</v>
       </c>
     </row>
-    <row r="92" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q92" s="97">
+    <row r="92" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S92" s="97">
         <v>0.435</v>
       </c>
-      <c r="R92" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T92" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>42.791518710688138</v>
       </c>
     </row>
-    <row r="93" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q93" s="97">
+    <row r="93" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S93" s="97">
         <v>0.44</v>
       </c>
-      <c r="R93" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T93" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>42.600868897319224</v>
       </c>
     </row>
-    <row r="94" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q94" s="97">
+    <row r="94" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S94" s="97">
         <v>0.44500000000000001</v>
       </c>
-      <c r="R94" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T94" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>42.410219083950295</v>
       </c>
     </row>
-    <row r="95" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q95" s="97">
+    <row r="95" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S95" s="97">
         <v>0.45</v>
       </c>
-      <c r="R95" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T95" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>42.219569270581374</v>
       </c>
     </row>
-    <row r="96" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q96" s="97">
+    <row r="96" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S96" s="97">
         <v>0.45500000000000002</v>
       </c>
-      <c r="R96" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T96" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>42.028919457212453</v>
       </c>
     </row>
-    <row r="97" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q97" s="97">
+    <row r="97" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S97" s="97">
         <v>0.46</v>
       </c>
-      <c r="R97" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T97" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>41.838269643843532</v>
       </c>
     </row>
-    <row r="98" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q98" s="97">
+    <row r="98" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S98" s="97">
         <v>0.46500000000000002</v>
       </c>
-      <c r="R98" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T98" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>41.647619830474611</v>
       </c>
     </row>
-    <row r="99" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q99" s="97">
+    <row r="99" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S99" s="97">
         <v>0.47</v>
       </c>
-      <c r="R99" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T99" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>41.456970017105689</v>
       </c>
     </row>
-    <row r="100" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q100" s="97">
+    <row r="100" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S100" s="97">
         <v>0.47499999999999998</v>
       </c>
-      <c r="R100" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T100" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>41.266320203736768</v>
       </c>
     </row>
-    <row r="101" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q101" s="97">
+    <row r="101" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S101" s="97">
         <v>0.48</v>
       </c>
-      <c r="R101" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T101" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>41.075670390367847</v>
       </c>
     </row>
-    <row r="102" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q102" s="97">
+    <row r="102" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S102" s="97">
         <v>0.48499999999999999</v>
       </c>
-      <c r="R102" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T102" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>40.885020576998926</v>
       </c>
     </row>
-    <row r="103" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q103" s="97">
+    <row r="103" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S103" s="97">
         <v>0.49</v>
       </c>
-      <c r="R103" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T103" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>40.694370763630005</v>
       </c>
     </row>
-    <row r="104" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q104" s="97">
+    <row r="104" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S104" s="97">
         <v>0.495</v>
       </c>
-      <c r="R104" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T104" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>40.503720950261084</v>
       </c>
     </row>
-    <row r="105" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q105" s="97">
+    <row r="105" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S105" s="97">
         <v>0.5</v>
       </c>
-      <c r="R105" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T105" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>40.313071136892162</v>
       </c>
     </row>
-    <row r="106" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q106" s="97">
+    <row r="106" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S106" s="97">
         <v>0.505</v>
       </c>
-      <c r="R106" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T106" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>40.122421323523241</v>
       </c>
     </row>
-    <row r="107" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q107" s="97">
+    <row r="107" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S107" s="97">
         <v>0.51</v>
       </c>
-      <c r="R107" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T107" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>39.93177151015432</v>
       </c>
     </row>
-    <row r="108" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q108" s="97">
+    <row r="108" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S108" s="97">
         <v>0.51500000000000001</v>
       </c>
-      <c r="R108" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T108" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>39.741121696785392</v>
       </c>
     </row>
-    <row r="109" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q109" s="97">
+    <row r="109" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S109" s="97">
         <v>0.52</v>
       </c>
-      <c r="R109" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T109" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>39.550471883416478</v>
       </c>
     </row>
-    <row r="110" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q110" s="97">
+    <row r="110" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S110" s="97">
         <v>0.52500000000000002</v>
       </c>
-      <c r="R110" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T110" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>39.359822070047557</v>
       </c>
     </row>
-    <row r="111" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q111" s="97">
+    <row r="111" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S111" s="97">
         <v>0.53</v>
       </c>
-      <c r="R111" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T111" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>39.169172256678628</v>
       </c>
     </row>
-    <row r="112" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q112" s="97">
+    <row r="112" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S112" s="97">
         <v>0.53500000000000003</v>
       </c>
-      <c r="R112" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T112" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>38.978522443309707</v>
       </c>
     </row>
-    <row r="113" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q113" s="97">
+    <row r="113" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S113" s="97">
         <v>0.54</v>
       </c>
-      <c r="R113" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T113" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>38.787872629940786</v>
       </c>
     </row>
-    <row r="114" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q114" s="97">
+    <row r="114" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S114" s="97">
         <v>0.54500000000000004</v>
       </c>
-      <c r="R114" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T114" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>38.597222816571865</v>
       </c>
     </row>
-    <row r="115" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q115" s="97">
+    <row r="115" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S115" s="97">
         <v>0.55000000000000004</v>
       </c>
-      <c r="R115" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T115" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>38.406573003202944</v>
       </c>
     </row>
-    <row r="116" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q116" s="97">
+    <row r="116" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S116" s="97">
         <v>0.55500000000000005</v>
       </c>
-      <c r="R116" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T116" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>38.215923189834022</v>
       </c>
     </row>
-    <row r="117" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q117" s="97">
+    <row r="117" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S117" s="97">
         <v>0.56000000000000005</v>
       </c>
-      <c r="R117" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T117" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>38.025273376465101</v>
       </c>
     </row>
-    <row r="118" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q118" s="97">
+    <row r="118" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S118" s="97">
         <v>0.56499999999999995</v>
       </c>
-      <c r="R118" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T118" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>37.83462356309618</v>
       </c>
     </row>
-    <row r="119" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q119" s="97">
+    <row r="119" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S119" s="97">
         <v>0.56999999999999995</v>
       </c>
-      <c r="R119" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T119" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>37.643973749727259</v>
       </c>
     </row>
-    <row r="120" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q120" s="97">
+    <row r="120" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S120" s="97">
         <v>0.57499999999999996</v>
       </c>
-      <c r="R120" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T120" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>37.453323936358338</v>
       </c>
     </row>
-    <row r="121" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q121" s="97">
+    <row r="121" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S121" s="97">
         <v>0.57999999999999996</v>
       </c>
-      <c r="R121" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T121" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>37.262674122989417</v>
       </c>
     </row>
-    <row r="122" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q122" s="97">
+    <row r="122" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S122" s="97">
         <v>0.58499999999999996</v>
       </c>
-      <c r="R122" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T122" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>37.072024309620495</v>
       </c>
     </row>
-    <row r="123" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q123" s="97">
+    <row r="123" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S123" s="97">
         <v>0.59</v>
       </c>
-      <c r="R123" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T123" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>36.881374496251574</v>
       </c>
     </row>
-    <row r="124" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q124" s="97">
+    <row r="124" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S124" s="97">
         <v>0.59499999999999997</v>
       </c>
-      <c r="R124" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T124" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>36.690724682882653</v>
       </c>
     </row>
-    <row r="125" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q125" s="97">
+    <row r="125" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S125" s="97">
         <v>0.6</v>
       </c>
-      <c r="R125" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T125" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>36.500074869513725</v>
       </c>
     </row>
-    <row r="126" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q126" s="97">
+    <row r="126" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S126" s="97">
         <v>0.60499999999999998</v>
       </c>
-      <c r="R126" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T126" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>36.309425056144804</v>
       </c>
     </row>
-    <row r="127" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q127" s="97">
+    <row r="127" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S127" s="97">
         <v>0.61</v>
       </c>
-      <c r="R127" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T127" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>36.118775242775889</v>
       </c>
     </row>
-    <row r="128" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q128" s="97">
+    <row r="128" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S128" s="97">
         <v>0.61499999999999999</v>
       </c>
-      <c r="R128" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T128" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>35.928125429406961</v>
       </c>
     </row>
-    <row r="129" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q129" s="97">
+    <row r="129" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S129" s="97">
         <v>0.62</v>
       </c>
-      <c r="R129" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T129" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>35.73747561603804</v>
       </c>
     </row>
-    <row r="130" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q130" s="97">
+    <row r="130" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S130" s="97">
         <v>0.625</v>
       </c>
-      <c r="R130" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T130" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>35.546825802669119</v>
       </c>
     </row>
-    <row r="131" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q131" s="97">
+    <row r="131" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S131" s="97">
         <v>0.63</v>
       </c>
-      <c r="R131" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T131" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>35.356175989300198</v>
       </c>
     </row>
-    <row r="132" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q132" s="97">
+    <row r="132" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S132" s="97">
         <v>0.63500000000000001</v>
       </c>
-      <c r="R132" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T132" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>35.165526175931276</v>
       </c>
     </row>
-    <row r="133" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q133" s="97">
+    <row r="133" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S133" s="97">
         <v>0.64</v>
       </c>
-      <c r="R133" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T133" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>34.974876362562355</v>
       </c>
     </row>
-    <row r="134" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q134" s="97">
+    <row r="134" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S134" s="97">
         <v>0.64500000000000002</v>
       </c>
-      <c r="R134" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T134" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>34.784226549193434</v>
       </c>
     </row>
-    <row r="135" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q135" s="97">
+    <row r="135" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S135" s="97">
         <v>0.65</v>
       </c>
-      <c r="R135" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T135" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>34.593576735824513</v>
       </c>
     </row>
-    <row r="136" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q136" s="97">
+    <row r="136" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S136" s="97">
         <v>0.65500000000000003</v>
       </c>
-      <c r="R136" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T136" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>34.402926922455592</v>
       </c>
     </row>
-    <row r="137" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q137" s="97">
+    <row r="137" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S137" s="97">
         <v>0.66</v>
       </c>
-      <c r="R137" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T137" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>34.212277109086671</v>
       </c>
     </row>
-    <row r="138" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q138" s="97">
+    <row r="138" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S138" s="97">
         <v>0.66500000000000004</v>
       </c>
-      <c r="R138" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T138" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>34.021627295717742</v>
       </c>
     </row>
-    <row r="139" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q139" s="97">
+    <row r="139" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S139" s="97">
         <v>0.67</v>
       </c>
-      <c r="R139" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T139" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>33.830977482348821</v>
       </c>
     </row>
-    <row r="140" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q140" s="97">
+    <row r="140" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S140" s="97">
         <v>0.67500000000000004</v>
       </c>
-      <c r="R140" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T140" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>33.640327668979907</v>
       </c>
     </row>
-    <row r="141" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q141" s="97">
+    <row r="141" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S141" s="97">
         <v>0.68</v>
       </c>
-      <c r="R141" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T141" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>33.449677855610979</v>
       </c>
     </row>
-    <row r="142" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q142" s="97">
+    <row r="142" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S142" s="97">
         <v>0.68500000000000005</v>
       </c>
-      <c r="R142" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T142" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>33.259028042242058</v>
       </c>
     </row>
-    <row r="143" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q143" s="97">
+    <row r="143" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S143" s="97">
         <v>0.69</v>
       </c>
-      <c r="R143" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T143" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>33.068378228873144</v>
       </c>
     </row>
-    <row r="144" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q144" s="97">
+    <row r="144" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S144" s="97">
         <v>0.69499999999999995</v>
       </c>
-      <c r="R144" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T144" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>32.877728415504222</v>
       </c>
     </row>
-    <row r="145" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q145" s="97">
+    <row r="145" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S145" s="97">
         <v>0.7</v>
       </c>
-      <c r="R145" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T145" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>32.687078602135294</v>
       </c>
     </row>
-    <row r="146" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q146" s="97">
+    <row r="146" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S146" s="97">
         <v>0.70499999999999996</v>
       </c>
-      <c r="R146" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T146" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>32.49642878876638</v>
       </c>
     </row>
-    <row r="147" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q147" s="97">
+    <row r="147" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S147" s="97">
         <v>0.71</v>
       </c>
-      <c r="R147" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T147" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>32.305778975397459</v>
       </c>
     </row>
-    <row r="148" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q148" s="97">
+    <row r="148" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S148" s="97">
         <v>0.71499999999999997</v>
       </c>
-      <c r="R148" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T148" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>32.115129162028531</v>
       </c>
     </row>
-    <row r="149" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q149" s="97">
+    <row r="149" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S149" s="97">
         <v>0.72</v>
       </c>
-      <c r="R149" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T149" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>31.924479348659609</v>
       </c>
     </row>
-    <row r="150" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q150" s="97">
+    <row r="150" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S150" s="97">
         <v>0.72499999999999998</v>
       </c>
-      <c r="R150" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T150" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>31.733829535290688</v>
       </c>
     </row>
-    <row r="151" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q151" s="97">
+    <row r="151" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S151" s="97">
         <v>0.73</v>
       </c>
-      <c r="R151" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T151" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>31.543179721921767</v>
       </c>
     </row>
-    <row r="152" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q152" s="97">
+    <row r="152" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S152" s="97">
         <v>0.73499999999999999</v>
       </c>
-      <c r="R152" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T152" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>31.352529908552846</v>
       </c>
     </row>
-    <row r="153" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q153" s="97">
+    <row r="153" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S153" s="97">
         <v>0.74</v>
       </c>
-      <c r="R153" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T153" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>31.161880095183925</v>
       </c>
     </row>
-    <row r="154" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q154" s="97">
+    <row r="154" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S154" s="97">
         <v>0.745</v>
       </c>
-      <c r="R154" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T154" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>30.971230281815004</v>
       </c>
     </row>
-    <row r="155" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q155" s="97">
+    <row r="155" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S155" s="97">
         <v>0.75</v>
       </c>
-      <c r="R155" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T155" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>30.780580468446079</v>
       </c>
     </row>
-    <row r="156" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q156" s="97">
+    <row r="156" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S156" s="97">
         <v>0.755</v>
       </c>
-      <c r="R156" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T156" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>30.589930655077158</v>
       </c>
     </row>
-    <row r="157" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q157" s="97">
+    <row r="157" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S157" s="97">
         <v>0.76</v>
       </c>
-      <c r="R157" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T157" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>30.39928084170824</v>
       </c>
     </row>
-    <row r="158" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q158" s="97">
+    <row r="158" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S158" s="97">
         <v>0.76500000000000001</v>
       </c>
-      <c r="R158" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T158" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>30.208631028339312</v>
       </c>
     </row>
-    <row r="159" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q159" s="97">
+    <row r="159" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S159" s="97">
         <v>0.77</v>
       </c>
-      <c r="R159" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T159" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>30.017981214970391</v>
       </c>
     </row>
-    <row r="160" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q160" s="97">
+    <row r="160" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S160" s="97">
         <v>0.77500000000000002</v>
       </c>
-      <c r="R160" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T160" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>29.827331401601473</v>
       </c>
     </row>
-    <row r="161" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q161" s="97">
+    <row r="161" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S161" s="97">
         <v>0.78</v>
       </c>
-      <c r="R161" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T161" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>29.636681588232548</v>
       </c>
     </row>
-    <row r="162" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q162" s="97">
+    <row r="162" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S162" s="97">
         <v>0.78500000000000003</v>
       </c>
-      <c r="R162" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T162" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>29.446031774863627</v>
       </c>
     </row>
-    <row r="163" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q163" s="97">
+    <row r="163" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S163" s="97">
         <v>0.79</v>
       </c>
-      <c r="R163" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T163" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>29.255381961494706</v>
       </c>
     </row>
-    <row r="164" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q164" s="97">
+    <row r="164" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S164" s="97">
         <v>0.79500000000000004</v>
       </c>
-      <c r="R164" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T164" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>29.064732148125785</v>
       </c>
     </row>
-    <row r="165" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q165" s="97">
+    <row r="165" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S165" s="97">
         <v>0.8</v>
       </c>
-      <c r="R165" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T165" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>28.874082334756864</v>
       </c>
     </row>
-    <row r="166" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q166" s="97">
+    <row r="166" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S166" s="97">
         <v>0.80500000000000005</v>
       </c>
-      <c r="R166" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T166" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>28.683432521387942</v>
       </c>
     </row>
-    <row r="167" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q167" s="97">
+    <row r="167" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S167" s="97">
         <v>0.81</v>
       </c>
-      <c r="R167" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T167" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>28.492782708019018</v>
       </c>
     </row>
-    <row r="168" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q168" s="97">
+    <row r="168" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S168" s="97">
         <v>0.81499999999999995</v>
       </c>
-      <c r="R168" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T168" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>28.3021328946501</v>
       </c>
     </row>
-    <row r="169" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q169" s="97">
+    <row r="169" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S169" s="97">
         <v>0.82</v>
       </c>
-      <c r="R169" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T169" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>28.111483081281179</v>
       </c>
     </row>
-    <row r="170" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q170" s="97">
+    <row r="170" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S170" s="97">
         <v>0.82499999999999996</v>
       </c>
-      <c r="R170" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T170" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>27.920833267912258</v>
       </c>
     </row>
-    <row r="171" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q171" s="97">
+    <row r="171" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S171" s="97">
         <v>0.83</v>
       </c>
-      <c r="R171" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T171" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>27.730183454543337</v>
       </c>
     </row>
-    <row r="172" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q172" s="97">
+    <row r="172" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S172" s="97">
         <v>0.83499999999999996</v>
       </c>
-      <c r="R172" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T172" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>27.539533641174415</v>
       </c>
     </row>
-    <row r="173" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q173" s="97">
+    <row r="173" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S173" s="97">
         <v>0.84</v>
       </c>
-      <c r="R173" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T173" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>27.348883827805491</v>
       </c>
     </row>
-    <row r="174" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q174" s="97">
+    <row r="174" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S174" s="97">
         <v>0.84499999999999997</v>
       </c>
-      <c r="R174" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T174" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>27.158234014436569</v>
       </c>
     </row>
-    <row r="175" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q175" s="97">
+    <row r="175" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S175" s="97">
         <v>0.85</v>
       </c>
-      <c r="R175" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T175" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>26.967584201067648</v>
       </c>
     </row>
-    <row r="176" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q176" s="97">
+    <row r="176" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S176" s="97">
         <v>0.85499999999999998</v>
       </c>
-      <c r="R176" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T176" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>26.776934387698724</v>
       </c>
     </row>
-    <row r="177" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q177" s="97">
+    <row r="177" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S177" s="97">
         <v>0.86</v>
       </c>
-      <c r="R177" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T177" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>26.586284574329802</v>
       </c>
     </row>
-    <row r="178" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q178" s="97">
+    <row r="178" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S178" s="97">
         <v>0.86499999999999999</v>
       </c>
-      <c r="R178" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T178" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>26.395634760960881</v>
       </c>
     </row>
-    <row r="179" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q179" s="97">
+    <row r="179" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S179" s="97">
         <v>0.87</v>
       </c>
-      <c r="R179" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T179" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>26.20498494759196</v>
       </c>
     </row>
-    <row r="180" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q180" s="97">
+    <row r="180" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S180" s="97">
         <v>0.875</v>
       </c>
-      <c r="R180" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T180" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>26.014335134223039</v>
       </c>
     </row>
-    <row r="181" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q181" s="97">
+    <row r="181" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S181" s="97">
         <v>0.88</v>
       </c>
-      <c r="R181" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T181" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>25.823685320854118</v>
       </c>
     </row>
-    <row r="182" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q182" s="97">
+    <row r="182" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S182" s="97">
         <v>0.88500000000000001</v>
       </c>
-      <c r="R182" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T182" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>25.633035507485193</v>
       </c>
     </row>
-    <row r="183" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q183" s="97">
+    <row r="183" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S183" s="97">
         <v>0.89</v>
       </c>
-      <c r="R183" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T183" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>25.442385694116275</v>
       </c>
     </row>
-    <row r="184" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q184" s="97">
+    <row r="184" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S184" s="97">
         <v>0.89500000000000002</v>
       </c>
-      <c r="R184" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T184" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>25.251735880747354</v>
       </c>
     </row>
-    <row r="185" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q185" s="97">
+    <row r="185" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S185" s="97">
         <v>0.9</v>
       </c>
-      <c r="R185" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T185" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>25.061086067378429</v>
       </c>
     </row>
-    <row r="186" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q186" s="97">
+    <row r="186" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S186" s="97">
         <v>0.90500000000000003</v>
       </c>
-      <c r="R186" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T186" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>24.870436254009508</v>
       </c>
     </row>
-    <row r="187" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q187" s="97">
+    <row r="187" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S187" s="97">
         <v>0.91</v>
       </c>
-      <c r="R187" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T187" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>24.679786440640587</v>
       </c>
     </row>
-    <row r="188" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q188" s="97">
+    <row r="188" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S188" s="97">
         <v>0.91500000000000004</v>
       </c>
-      <c r="R188" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T188" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>24.489136627271662</v>
       </c>
     </row>
-    <row r="189" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q189" s="97">
+    <row r="189" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S189" s="97">
         <v>0.92</v>
       </c>
-      <c r="R189" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T189" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>24.298486813902741</v>
       </c>
     </row>
-    <row r="190" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q190" s="97">
+    <row r="190" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S190" s="97">
         <v>0.92500000000000004</v>
       </c>
-      <c r="R190" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T190" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>24.107837000533824</v>
       </c>
     </row>
-    <row r="191" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q191" s="97">
+    <row r="191" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S191" s="97">
         <v>0.93</v>
       </c>
-      <c r="R191" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T191" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>23.917187187164899</v>
       </c>
     </row>
-    <row r="192" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q192" s="97">
+    <row r="192" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S192" s="97">
         <v>0.93500000000000005</v>
       </c>
-      <c r="R192" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T192" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>23.726537373795978</v>
       </c>
     </row>
-    <row r="193" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q193" s="97">
+    <row r="193" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S193" s="97">
         <v>0.94</v>
       </c>
-      <c r="R193" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T193" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>23.53588756042706</v>
       </c>
     </row>
-    <row r="194" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q194" s="97">
+    <row r="194" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S194" s="97">
         <v>0.94499999999999995</v>
       </c>
-      <c r="R194" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T194" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>23.345237747058139</v>
       </c>
     </row>
-    <row r="195" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q195" s="97">
+    <row r="195" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S195" s="97">
         <v>0.95</v>
       </c>
-      <c r="R195" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T195" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>23.154587933689214</v>
       </c>
     </row>
-    <row r="196" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q196" s="97">
+    <row r="196" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S196" s="97">
         <v>0.95499999999999996</v>
       </c>
-      <c r="R196" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T196" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>22.963938120320293</v>
       </c>
     </row>
-    <row r="197" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q197" s="97">
+    <row r="197" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S197" s="97">
         <v>0.96</v>
       </c>
-      <c r="R197" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T197" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>22.773288306951375</v>
       </c>
     </row>
-    <row r="198" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q198" s="97">
+    <row r="198" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S198" s="97">
         <v>0.96499999999999997</v>
       </c>
-      <c r="R198" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T198" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>22.582638493582451</v>
       </c>
     </row>
-    <row r="199" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q199" s="97">
+    <row r="199" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S199" s="97">
         <v>0.97</v>
       </c>
-      <c r="R199" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T199" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>22.39198868021353</v>
       </c>
     </row>
-    <row r="200" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q200" s="97">
+    <row r="200" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S200" s="97">
         <v>0.97499999999999998</v>
       </c>
-      <c r="R200" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T200" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>22.201338866844608</v>
       </c>
     </row>
-    <row r="201" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q201" s="97">
+    <row r="201" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S201" s="97">
         <v>0.98</v>
       </c>
-      <c r="R201" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T201" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>22.010689053475684</v>
       </c>
     </row>
-    <row r="202" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q202" s="97">
+    <row r="202" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S202" s="97">
         <v>0.98499999999999999</v>
       </c>
-      <c r="R202" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T202" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>21.820039240106766</v>
       </c>
     </row>
-    <row r="203" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q203" s="97">
+    <row r="203" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S203" s="97">
         <v>0.99</v>
       </c>
-      <c r="R203" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T203" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>21.629389426737845</v>
       </c>
     </row>
-    <row r="204" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q204" s="97">
+    <row r="204" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S204" s="97">
         <v>0.995</v>
       </c>
-      <c r="R204" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T204" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>21.43873961336892</v>
       </c>
     </row>
-    <row r="205" spans="17:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q205" s="97">
+    <row r="205" spans="19:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S205" s="97">
         <v>1</v>
       </c>
-      <c r="R205" s="95">
-        <f>$R$2*Таблица12[[#This Row],[x]]+$Q$2*(1-Таблица12[[#This Row],[x]])</f>
+      <c r="T205" s="95">
+        <f>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</f>
         <v>21.248089799999999</v>
       </c>
     </row>
@@ -8257,7 +8355,7 @@
   <dimension ref="A1:W144"/>
   <sheetViews>
     <sheetView topLeftCell="L1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8296,10 +8394,10 @@
         <v>5</v>
       </c>
       <c r="V2">
-        <v>74.12</v>
+        <v>74.069999999999993</v>
       </c>
       <c r="W2">
-        <v>684.69</v>
+        <v>418.15</v>
       </c>
     </row>
     <row r="4" spans="1:23" s="2" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -8488,7 +8586,7 @@
         <f>(1-Эксперимент[[#This Row],[w%1 
 ]])*Эксперимент[[#This Row],[mП г
 смесь     ]]/Плотности_доп[M ОКМ г/моль]*1000</f>
-        <v>12.531218507645795</v>
+        <v>20.518952528996774</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
@@ -8606,13 +8704,13 @@
         <f>Эксперимент[[#This Row],[w%1 
 ]]*Эксперимент[[#This Row],[mП г
 смесь     ]]/Плотности_доп[M спирт г/моль]*1000</f>
-        <v>2.5466346891492182</v>
+        <v>2.5483537621134067</v>
       </c>
       <c r="W6" s="74">
         <f>(1-Эксперимент[[#This Row],[w%1 
 ]])*Эксперимент[[#This Row],[mП г
 смесь     ]]/Плотности_доп[M ОКМ г/моль]*1000</f>
-        <v>11.237849883655752</v>
+        <v>18.401156132584617</v>
       </c>
     </row>
     <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
@@ -8729,13 +8827,13 @@
         <f>Эксперимент[[#This Row],[w%1 
 ]]*Эксперимент[[#This Row],[mП г
 смесь     ]]/Плотности_доп[M спирт г/моль]*1000</f>
-        <v>1.4784003916323534</v>
+        <v>1.479398366785339</v>
       </c>
       <c r="W7" s="74">
         <f>(1-Эксперимент[[#This Row],[w%1 
 ]])*Эксперимент[[#This Row],[mП г
 смесь     ]]/Плотности_доп[M ОКМ г/моль]*1000</f>
-        <v>7.142533063097475</v>
+        <v>11.695374776927444</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
@@ -8852,13 +8950,13 @@
         <f>Эксперимент[[#This Row],[w%1 
 ]]*Эксперимент[[#This Row],[mП г
 смесь     ]]/Плотности_доп[M спирт г/моль]*1000</f>
-        <v>5.2740990533846572</v>
+        <v>5.2776592660573893</v>
       </c>
       <c r="W8" s="74">
         <f>(1-Эксперимент[[#This Row],[w%1 
 ]])*Эксперимент[[#This Row],[mП г
 смесь     ]]/Плотности_доп[M ОКМ г/моль]*1000</f>
-        <v>10.888115465631349</v>
+        <v>17.8284916373625</v>
       </c>
     </row>
     <row r="9" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -8976,13 +9074,13 @@
         <f>Эксперимент[[#This Row],[w%1 
 ]]*Эксперимент[[#This Row],[mП г
 смесь     ]]/Плотности_доп[M спирт г/моль]*1000</f>
-        <v>7.9627939484739354</v>
+        <v>7.9681691300241431</v>
       </c>
       <c r="W9" s="74">
         <f>(1-Эксперимент[[#This Row],[w%1 
 ]])*Эксперимент[[#This Row],[mП г
 смесь     ]]/Плотности_доп[M ОКМ г/моль]*1000</f>
-        <v>10.479337674771228</v>
+        <v>17.159147943415313</v>
       </c>
     </row>
     <row r="10" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -9100,13 +9198,13 @@
         <f>Эксперимент[[#This Row],[w%1 
 ]]*Эксперимент[[#This Row],[mП г
 смесь     ]]/Плотности_доп[M спирт г/моль]*1000</f>
-        <v>10.459962146067328</v>
+        <v>10.467023008863379</v>
       </c>
       <c r="W10" s="74">
         <f>(1-Эксперимент[[#This Row],[w%1 
 ]])*Эксперимент[[#This Row],[mП г
 смесь     ]]/Плотности_доп[M ОКМ г/моль]*1000</f>
-        <v>10.11013393759729</v>
+        <v>16.55460386400452</v>
       </c>
     </row>
     <row r="11" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -9224,13 +9322,13 @@
         <f>Эксперимент[[#This Row],[w%1 
 ]]*Эксперимент[[#This Row],[mП г
 смесь     ]]/Плотности_доп[M спирт г/моль]*1000</f>
-        <v>12.666262634053492</v>
+        <v>12.674812831592345</v>
       </c>
       <c r="W11" s="74">
         <f>(1-Эксперимент[[#This Row],[w%1 
 ]])*Эксперимент[[#This Row],[mП г
 смесь     ]]/Плотности_доп[M ОКМ г/моль]*1000</f>
-        <v>9.7724176102527522</v>
+        <v>16.00161811207451</v>
       </c>
     </row>
     <row r="12" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -9348,13 +9446,13 @@
         <f>Эксперимент[[#This Row],[w%1 
 ]]*Эксперимент[[#This Row],[mП г
 смесь     ]]/Плотности_доп[M спирт г/моль]*1000</f>
-        <v>15.171376042420945</v>
+        <v>15.181617284517896</v>
       </c>
       <c r="W12" s="74">
         <f>(1-Эксперимент[[#This Row],[w%1 
 ]])*Эксперимент[[#This Row],[mП г
 смесь     ]]/Плотности_доп[M ОКМ г/моль]*1000</f>
-        <v>9.3671553662763607</v>
+        <v>15.338030868673352</v>
       </c>
     </row>
     <row r="13" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -9451,7 +9549,7 @@
         <v>0.17491828063571971</v>
       </c>
       <c r="R13" s="103">
-        <v>10.6668</v>
+        <v>10.466799999999999</v>
       </c>
       <c r="S13" s="30">
         <v>17.931999999999999</v>
@@ -9461,24 +9559,24 @@
 смесь    
 пик ]]-Эксперимент[[#This Row],[mП г
 пик]]</f>
-        <v>7.2651999999999983</v>
+        <v>7.4651999999999994</v>
       </c>
       <c r="U13" s="76">
         <f>Эксперимент[[#This Row],[mП г
 смесь     ]]/Плотности_доп[V пик мл]</f>
-        <v>1.4530399999999997</v>
+        <v>1.4930399999999999</v>
       </c>
       <c r="V13" s="72">
         <f>Эксперимент[[#This Row],[w%1 
 ]]*Эксперимент[[#This Row],[mП г
 смесь     ]]/Плотности_доп[M спирт г/моль]*1000</f>
-        <v>17.145389806727337</v>
+        <v>17.629268915914334</v>
       </c>
       <c r="W13" s="74">
         <f>(1-Эксперимент[[#This Row],[w%1 
 ]])*Эксперимент[[#This Row],[mП г
 смесь     ]]/Плотности_доп[M ОКМ г/моль]*1000</f>
-        <v>8.7548871862088937</v>
+        <v>14.730120892976744</v>
       </c>
     </row>
     <row r="14" spans="1:23" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9596,13 +9694,13 @@
         <f>Эксперимент[[#This Row],[w%1 
 ]]*Эксперимент[[#This Row],[mП г
 смесь     ]]/Плотности_доп[M спирт г/моль]*1000</f>
-        <v>20.036650366301277</v>
+        <v>20.050175849200091</v>
       </c>
       <c r="W14" s="74">
         <f>(1-Эксперимент[[#This Row],[w%1 
 ]])*Эксперимент[[#This Row],[mП г
 смесь     ]]/Плотности_доп[M ОКМ г/моль]*1000</f>
-        <v>8.6790861190462092</v>
+        <v>14.211367870022119</v>
       </c>
     </row>
     <row r="15" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
